--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.1168831168831169</v>
+        <v>0.1168831</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +422,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.08949416342412453</v>
+        <v>0.1321045</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +433,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.1321044546850998</v>
+        <v>0.1382488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.1029185867895545</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.1029185867895545</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.1382488479262673</v>
+        <v>0.0552995</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,1998 +477,4451 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0.05529953917050691</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42966</v>
+        <v>42936</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.1444043321299639</v>
+        <v>0.1478261</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42967</v>
+        <v>42937</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.1304348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42968</v>
+        <v>42938</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.1502347417840376</v>
+        <v>0.1173913</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42969</v>
+        <v>42939</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.1428571428571428</v>
+        <v>0.1083333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42970</v>
+        <v>42940</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0.07480314960629922</v>
+        <v>0.1291667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42970</v>
+        <v>42940</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>0.1417322834645669</v>
+        <v>0.0958333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42971</v>
+        <v>42941</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>0.0846774193548387</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42971</v>
+        <v>42941</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>0.154320987654321</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42971</v>
+        <v>42942</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>0.08333333333333333</v>
+        <v>0.1333333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42971</v>
+        <v>42942</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.09567901234567901</v>
+        <v>0.0916667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42975</v>
+        <v>42944</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>0.1689814814814815</v>
+        <v>0.0666667</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42977</v>
+        <v>42945</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>0.1490015360983103</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42977</v>
+        <v>42945</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>0.1353711790393013</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42979</v>
+        <v>42946</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>0.1134020618556701</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42980</v>
+        <v>42946</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>0.07462686567164178</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42981</v>
+        <v>42949</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>0.06782945736434108</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42982</v>
+        <v>42949</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>0.05254515599343186</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42987</v>
+        <v>42949</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>0.1138014527845036</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42987</v>
+        <v>42950</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>0.1138014527845036</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42989</v>
+        <v>42950</v>
       </c>
       <c r="B28">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>0.1387755102040816</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42990</v>
+        <v>42950</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>0.06648936170212766</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42990</v>
+        <v>42950</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>0.1170212765957447</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42992</v>
+        <v>42950</v>
       </c>
       <c r="B31">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>0.1428571428571428</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42992</v>
+        <v>42950</v>
       </c>
       <c r="B32">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>0.1463414634146341</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42992</v>
+        <v>42951</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>0.05226480836236933</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42992</v>
+        <v>42951</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>0.05226480836236933</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42993</v>
+        <v>42951</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>0.135678391959799</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42993</v>
+        <v>42951</v>
       </c>
       <c r="B36">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1055276381909548</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42994</v>
+        <v>42951</v>
       </c>
       <c r="B37">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>0.1119791666666667</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42994</v>
+        <v>42951</v>
       </c>
       <c r="B38">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>0.08333333333333334</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42994</v>
+        <v>42952</v>
       </c>
       <c r="B39">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>0.09375</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42994</v>
+        <v>42953</v>
       </c>
       <c r="B40">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>0.09375</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42995</v>
+        <v>42953</v>
       </c>
       <c r="B41">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>0.09843400447427293</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42995</v>
+        <v>42954</v>
       </c>
       <c r="B42">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>0.1140939597315436</v>
+        <v>0.1735849</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42996</v>
+        <v>42954</v>
       </c>
       <c r="B43">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>0.1305263157894737</v>
+        <v>0.1132075</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42996</v>
+        <v>42954</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>0.1389473684210526</v>
+        <v>0.1358491</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42997</v>
+        <v>42954</v>
       </c>
       <c r="B45">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>0.1052631578947368</v>
+        <v>0.1056604</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42998</v>
+        <v>42954</v>
       </c>
       <c r="B46">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>0.08428246013667426</v>
+        <v>0.1056604</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42998</v>
+        <v>42954</v>
       </c>
       <c r="B47">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>0.1011673151750973</v>
+        <v>0.1169811</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42998</v>
+        <v>42955</v>
       </c>
       <c r="B48">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C48">
-        <v>0.05642023346303502</v>
+        <v>0.0716981</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42999</v>
+        <v>42955</v>
       </c>
       <c r="B49">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C49">
-        <v>0.06711409395973154</v>
+        <v>0.1207547</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43000</v>
+        <v>42955</v>
       </c>
       <c r="B50">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>0.09328358208955223</v>
+        <v>0.1773585</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43001</v>
+        <v>42955</v>
       </c>
       <c r="B51">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C51">
-        <v>0.07568807339449542</v>
+        <v>0.0716981</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43002</v>
+        <v>42955</v>
       </c>
       <c r="B52">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>0.09821428571428573</v>
+        <v>0.09056599999999999</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43002</v>
+        <v>42956</v>
       </c>
       <c r="B53">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C53">
-        <v>0.1041666666666667</v>
+        <v>0.1471698</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43004</v>
+        <v>42957</v>
       </c>
       <c r="B54">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>0.08064516129032259</v>
+        <v>0.1660377</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43004</v>
+        <v>42957</v>
       </c>
       <c r="B55">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>0.1920289855072464</v>
+        <v>0.1056604</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43004</v>
+        <v>42957</v>
       </c>
       <c r="B56">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>0.08064516129032259</v>
+        <v>0.109434</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43006</v>
+        <v>42959</v>
       </c>
       <c r="B57">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C57">
-        <v>0.08883826879271071</v>
+        <v>0.1584906</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43006</v>
+        <v>42960</v>
       </c>
       <c r="B58">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C58">
-        <v>0.1435079726651481</v>
+        <v>0.0928571</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43006</v>
+        <v>42961</v>
       </c>
       <c r="B59">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>0.1828442437923251</v>
+        <v>0.1321429</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43006</v>
+        <v>42961</v>
       </c>
       <c r="B60">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C60">
-        <v>0.1435079726651481</v>
+        <v>0.0607143</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43006</v>
+        <v>42962</v>
       </c>
       <c r="B61">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C61">
-        <v>0.06378132118451026</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>43007</v>
+        <v>42962</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C62">
-        <v>0.07435897435897436</v>
+        <v>0.1107143</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>43007</v>
+        <v>42966</v>
       </c>
       <c r="B63">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C63">
-        <v>0.08461538461538462</v>
+        <v>0.1444043</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>43007</v>
+        <v>42967</v>
       </c>
       <c r="B64">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C64">
-        <v>0.1384615384615385</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>43008</v>
+        <v>42968</v>
       </c>
       <c r="B65">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C65">
-        <v>0.1168539325842697</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>43008</v>
+        <v>42969</v>
       </c>
       <c r="B66">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C66">
-        <v>0.1168539325842697</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>43008</v>
+        <v>42970</v>
       </c>
       <c r="B67">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>0.06516853932584268</v>
+        <v>0.1417323</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>43009</v>
+        <v>42970</v>
       </c>
       <c r="B68">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C68">
-        <v>0.08628318584070797</v>
+        <v>0.0748031</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>43009</v>
+        <v>42970</v>
       </c>
       <c r="B69">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C69">
-        <v>0.08876811594202899</v>
+        <v>0.1771654</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>43010</v>
+        <v>42971</v>
       </c>
       <c r="B70">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C70">
-        <v>0.133214920071048</v>
+        <v>0.0833333</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>43010</v>
+        <v>42971</v>
       </c>
       <c r="B71">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C71">
-        <v>0.127886323268206</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>43010</v>
+        <v>42971</v>
       </c>
       <c r="B72">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>0.1047957371225577</v>
+        <v>0.132716</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>43013</v>
+        <v>42971</v>
       </c>
       <c r="B73">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C73">
-        <v>0.1003134796238245</v>
+        <v>0.154321</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>43013</v>
+        <v>42975</v>
       </c>
       <c r="B74">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C74">
-        <v>0.1003134796238245</v>
+        <v>0.1689815</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>43018</v>
+        <v>42977</v>
       </c>
       <c r="B75">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C75">
-        <v>0.1966019417475728</v>
+        <v>0.1490015</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>43018</v>
+        <v>42977</v>
       </c>
       <c r="B76">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C76">
-        <v>0.2160194174757281</v>
+        <v>0.1353712</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>43018</v>
+        <v>42978</v>
       </c>
       <c r="B77">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C77">
-        <v>0.1868932038834951</v>
+        <v>0.1585903</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>43018</v>
+        <v>42979</v>
       </c>
       <c r="B78">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C78">
-        <v>0.2160194174757281</v>
+        <v>0.1134021</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>43018</v>
+        <v>42980</v>
       </c>
       <c r="B79">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C79">
-        <v>0.2135922330097087</v>
+        <v>0.0746269</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>43019</v>
+        <v>42981</v>
       </c>
       <c r="B80">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C80">
-        <v>0.2189616252821671</v>
+        <v>0.1342466</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>43019</v>
+        <v>42981</v>
       </c>
       <c r="B81">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C81">
-        <v>0.2936170212765957</v>
+        <v>0.1150685</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>43019</v>
+        <v>42981</v>
       </c>
       <c r="B82">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C82">
-        <v>0.1218961625282167</v>
+        <v>0.0678295</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>43019</v>
+        <v>42982</v>
       </c>
       <c r="B83">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C83">
-        <v>0.1828442437923251</v>
+        <v>0.0525452</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>43019</v>
+        <v>42987</v>
       </c>
       <c r="B84">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>0.1218961625282167</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43019</v>
+        <v>42987</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C85">
-        <v>0.2212189616252822</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43020</v>
+        <v>42988</v>
       </c>
       <c r="B86">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C86">
-        <v>0.1836283185840708</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43020</v>
+        <v>42989</v>
       </c>
       <c r="B87">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>0.4166666666666666</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43020</v>
+        <v>42989</v>
       </c>
       <c r="B88">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C88">
-        <v>0.163716814159292</v>
+        <v>0.1387755</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43020</v>
+        <v>42990</v>
       </c>
       <c r="B89">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C89">
-        <v>0.1902654867256637</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43020</v>
+        <v>42990</v>
       </c>
       <c r="B90">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C90">
-        <v>0.1438053097345133</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43021</v>
+        <v>42990</v>
       </c>
       <c r="B91">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C91">
-        <v>0.1029411764705882</v>
+        <v>0.0664894</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43021</v>
+        <v>42991</v>
       </c>
       <c r="B92">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C92">
-        <v>0.1943887775551102</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43021</v>
+        <v>42992</v>
       </c>
       <c r="B93">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>0.1029411764705882</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43021</v>
+        <v>42992</v>
       </c>
       <c r="B94">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C94">
-        <v>0.1709558823529412</v>
+        <v>0.1463415</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43021</v>
+        <v>42992</v>
       </c>
       <c r="B95">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C95">
-        <v>0.1268382352941176</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43023</v>
+        <v>42992</v>
       </c>
       <c r="B96">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C96">
-        <v>0.2152173913043478</v>
+        <v>0.0522648</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43034</v>
+        <v>42992</v>
       </c>
       <c r="B97">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C97">
-        <v>0.2209737827715356</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43035</v>
+        <v>42992</v>
       </c>
       <c r="B98">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C98">
-        <v>0.1889763779527559</v>
+        <v>0.0522648</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43035</v>
+        <v>42992</v>
       </c>
       <c r="B99">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C99">
-        <v>0.110236220472441</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43035</v>
+        <v>42992</v>
       </c>
       <c r="B100">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C100">
-        <v>0.110236220472441</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43036</v>
+        <v>42993</v>
       </c>
       <c r="B101">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C101">
-        <v>0.2197614991482112</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43037</v>
+        <v>42993</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C102">
-        <v>0.1295081967213115</v>
+        <v>0.1055276</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43037</v>
+        <v>42993</v>
       </c>
       <c r="B103">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C103">
-        <v>0.1295081967213115</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43038</v>
+        <v>42993</v>
       </c>
       <c r="B104">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C104">
-        <v>0.1271585557299843</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43038</v>
+        <v>42993</v>
       </c>
       <c r="B105">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C105">
-        <v>0.1271585557299843</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43040</v>
+        <v>42994</v>
       </c>
       <c r="B106">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C106">
-        <v>0.2909441233140655</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43040</v>
+        <v>42994</v>
       </c>
       <c r="B107">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C107">
-        <v>0.4084778420038536</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43042</v>
+        <v>42994</v>
       </c>
       <c r="B108">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C108">
-        <v>0.4079173838209983</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43043</v>
+        <v>42994</v>
       </c>
       <c r="B109">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C109">
-        <v>0.3365617433414043</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43046</v>
+        <v>42994</v>
       </c>
       <c r="B110">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C110">
-        <v>0.3858024691358025</v>
+        <v>0.0833333</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43046</v>
+        <v>42994</v>
       </c>
       <c r="B111">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C111">
-        <v>0.3858024691358025</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43050</v>
+        <v>42994</v>
       </c>
       <c r="B112">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C112">
-        <v>0.3634615384615384</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43050</v>
+        <v>42995</v>
       </c>
       <c r="B113">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C113">
-        <v>0.3634615384615384</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43053</v>
+        <v>42995</v>
       </c>
       <c r="B114">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C114">
-        <v>0.2340425531914894</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43053</v>
+        <v>42996</v>
       </c>
       <c r="B115">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C115">
-        <v>0.4207650273224043</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43059</v>
+        <v>42996</v>
       </c>
       <c r="B116">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="C116">
-        <v>0.2682926829268293</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43062</v>
+        <v>42997</v>
       </c>
       <c r="B117">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C117">
-        <v>0.3317647058823529</v>
+        <v>0.1052632</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43063</v>
+        <v>42998</v>
       </c>
       <c r="B118">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="C118">
-        <v>0.2015384615384616</v>
+        <v>0.0894942</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43064</v>
+        <v>42998</v>
       </c>
       <c r="B119">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C119">
-        <v>0.2192846034214619</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43065</v>
+        <v>42998</v>
       </c>
       <c r="B120">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C120">
-        <v>0.4964539007092199</v>
+        <v>0.0564202</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43066</v>
+        <v>42999</v>
       </c>
       <c r="B121">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C121">
-        <v>0.3114446529080675</v>
+        <v>0.0671141</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43066</v>
+        <v>43000</v>
       </c>
       <c r="B122">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C122">
-        <v>0.2534992223950233</v>
+        <v>0.09328359999999999</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43067</v>
+        <v>43001</v>
       </c>
       <c r="B123">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C123">
-        <v>0.2235649546827795</v>
+        <v>0.07568809999999999</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43070</v>
+        <v>43001</v>
       </c>
       <c r="B124">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C124">
-        <v>0.2972972972972973</v>
+        <v>0.1386364</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43071</v>
+        <v>43002</v>
       </c>
       <c r="B125">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C125">
-        <v>0.7166666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43071</v>
+        <v>43002</v>
       </c>
       <c r="B126">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C126">
-        <v>0.7166666666666667</v>
+        <v>0.1416667</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43072</v>
+        <v>43002</v>
       </c>
       <c r="B127">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C127">
-        <v>0.1029185867895545</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43073</v>
+        <v>43002</v>
       </c>
       <c r="B128">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C128">
-        <v>0.3151969981238274</v>
+        <v>0.0982143</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43073</v>
+        <v>43003</v>
       </c>
       <c r="B129">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C129">
-        <v>0.427807486631016</v>
+        <v>0.1166667</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43073</v>
+        <v>43004</v>
       </c>
       <c r="B130">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C130">
-        <v>0.132716049382716</v>
+        <v>0.0806452</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43074</v>
+        <v>43004</v>
       </c>
       <c r="B131">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C131">
-        <v>0.2943661971830986</v>
+        <v>0.0806452</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43076</v>
+        <v>43004</v>
       </c>
       <c r="B132">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C132">
-        <v>0.3286445012787724</v>
+        <v>0.0846774</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43078</v>
+        <v>43005</v>
       </c>
       <c r="B133">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="C133">
-        <v>0.3258110014104372</v>
+        <v>0.1354167</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43079</v>
+        <v>43006</v>
       </c>
       <c r="B134">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="C134">
-        <v>0.6240713224368499</v>
+        <v>0.143508</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43079</v>
+        <v>43006</v>
       </c>
       <c r="B135">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="C135">
-        <v>0.6240713224368499</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43080</v>
+        <v>43006</v>
       </c>
       <c r="B136">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="C136">
-        <v>0.6033182503770739</v>
+        <v>0.0842825</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43083</v>
+        <v>43006</v>
       </c>
       <c r="B137">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="C137">
-        <v>0.5813953488372093</v>
+        <v>0.143508</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43088</v>
+        <v>43006</v>
       </c>
       <c r="B138">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="C138">
-        <v>0.4428571428571429</v>
+        <v>0.0637813</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43088</v>
+        <v>43007</v>
       </c>
       <c r="B139">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C139">
-        <v>0.2971428571428572</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43089</v>
+        <v>43007</v>
       </c>
       <c r="B140">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="C140">
-        <v>0.6165311653116531</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43090</v>
+        <v>43007</v>
       </c>
       <c r="B141">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C141">
-        <v>0.6850828729281768</v>
+        <v>0.07435899999999999</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43093</v>
+        <v>43008</v>
       </c>
       <c r="B142">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="C142">
-        <v>0.3267716535433071</v>
+        <v>0.1168539</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43095</v>
+        <v>43008</v>
       </c>
       <c r="B143">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="C143">
-        <v>0.4008941877794337</v>
+        <v>0.1168539</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43096</v>
+        <v>43008</v>
       </c>
       <c r="B144">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="C144">
-        <v>0.4193548387096774</v>
+        <v>0.0651685</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43096</v>
+        <v>43009</v>
       </c>
       <c r="B145">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C145">
-        <v>0.3533026113671275</v>
+        <v>0.209434</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43098</v>
+        <v>43009</v>
       </c>
       <c r="B146">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="C146">
-        <v>0.3410138248847926</v>
+        <v>0.192029</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43099</v>
+        <v>43009</v>
       </c>
       <c r="B147">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="C147">
-        <v>0.2560240963855422</v>
+        <v>0.1584906</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43104</v>
+        <v>43009</v>
       </c>
       <c r="B148">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="C148">
-        <v>0.5784574468085106</v>
+        <v>0.0887681</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43106</v>
+        <v>43010</v>
       </c>
       <c r="B149">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="C149">
-        <v>0.3456221198156682</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43106</v>
+        <v>43010</v>
       </c>
       <c r="B150">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="C150">
-        <v>0.3456221198156682</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>43109</v>
+        <v>43010</v>
       </c>
       <c r="B151">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="C151">
-        <v>0.4695121951219512</v>
+        <v>0.1047957</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43111</v>
+        <v>43011</v>
       </c>
       <c r="B152">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C152">
-        <v>0.45875</v>
+        <v>0.1773585</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43111</v>
+        <v>43011</v>
       </c>
       <c r="B153">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C153">
-        <v>0.45875</v>
+        <v>0.2207547</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43114</v>
+        <v>43011</v>
       </c>
       <c r="B154">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="C154">
-        <v>0.3317972350230415</v>
+        <v>0.1716981</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43115</v>
+        <v>43012</v>
       </c>
       <c r="B155">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C155">
-        <v>0.6528776978417267</v>
+        <v>0.2188679</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43115</v>
+        <v>43012</v>
       </c>
       <c r="B156">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="C156">
-        <v>0.6528776978417267</v>
+        <v>0.1811321</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43120</v>
+        <v>43012</v>
       </c>
       <c r="B157">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="C157">
-        <v>0.7097744360902255</v>
+        <v>0.2188679</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43120</v>
+        <v>43012</v>
       </c>
       <c r="B158">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="C158">
-        <v>0.7097744360902255</v>
+        <v>0.2075472</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43120</v>
+        <v>43012</v>
       </c>
       <c r="B159">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="C159">
-        <v>0.7443609022556391</v>
+        <v>0.2188679</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43121</v>
+        <v>43012</v>
       </c>
       <c r="B160">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="C160">
-        <v>0.3660855784469097</v>
+        <v>0.1886792</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43125</v>
+        <v>43013</v>
       </c>
       <c r="B161">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="C161">
-        <v>0.7441077441077441</v>
+        <v>0.1245283</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43126</v>
+        <v>43013</v>
       </c>
       <c r="B162">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C162">
-        <v>0.5683563748079877</v>
+        <v>0.1584906</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43126</v>
+        <v>43013</v>
       </c>
       <c r="B163">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C163">
-        <v>0.5483870967741935</v>
+        <v>0.1264151</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43127</v>
+        <v>43013</v>
       </c>
       <c r="B164">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C164">
-        <v>0.4020979020979021</v>
+        <v>0.1660377</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43127</v>
+        <v>43013</v>
       </c>
       <c r="B165">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C165">
-        <v>0.3723776223776224</v>
+        <v>0.1264151</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43127</v>
+        <v>43013</v>
       </c>
       <c r="B166">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C166">
-        <v>0.535593220338983</v>
+        <v>0.1003135</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43127</v>
+        <v>43013</v>
       </c>
       <c r="B167">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C167">
-        <v>0.535593220338983</v>
+        <v>0.1003135</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43127</v>
+        <v>43014</v>
       </c>
       <c r="B168">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="C168">
-        <v>0.3636363636363636</v>
+        <v>0.2150943</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43127</v>
+        <v>43014</v>
       </c>
       <c r="B169">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="C169">
-        <v>0.6898305084745763</v>
+        <v>0.1301887</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>43128</v>
+        <v>43014</v>
       </c>
       <c r="B170">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="C170">
-        <v>0.3010752688172043</v>
+        <v>0.1283019</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43128</v>
+        <v>43014</v>
       </c>
       <c r="B171">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="C171">
-        <v>0.3379416282642089</v>
+        <v>0.0811321</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43132</v>
+        <v>43014</v>
       </c>
       <c r="B172">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="C172">
-        <v>0.3333333333333334</v>
+        <v>0.0811321</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>43132</v>
+        <v>43015</v>
       </c>
       <c r="B173">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C173">
-        <v>0.2920792079207921</v>
+        <v>0.1528302</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43133</v>
+        <v>43015</v>
       </c>
       <c r="B174">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="C174">
-        <v>0.3642241379310345</v>
+        <v>0.1735849</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43134</v>
+        <v>43015</v>
       </c>
       <c r="B175">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="C175">
-        <v>0.3359746434231379</v>
+        <v>0.1735849</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43134</v>
+        <v>43015</v>
       </c>
       <c r="B176">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="C176">
-        <v>0.3898573692551506</v>
+        <v>0.2113208</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43134</v>
+        <v>43016</v>
       </c>
       <c r="B177">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="C177">
-        <v>0.5736925515055468</v>
+        <v>0.2247191</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>43136</v>
+        <v>43017</v>
       </c>
       <c r="B178">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="C178">
-        <v>0.7030995106035889</v>
+        <v>0.1758621</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43137</v>
+        <v>43017</v>
       </c>
       <c r="B179">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="C179">
-        <v>0.7281553398058253</v>
+        <v>0.1862069</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43137</v>
+        <v>43017</v>
       </c>
       <c r="B180">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="C180">
-        <v>0.5022970903522205</v>
+        <v>0.1862069</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43138</v>
+        <v>43017</v>
       </c>
       <c r="B181">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="C181">
-        <v>0.5548281505728314</v>
+        <v>0.1396552</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43138</v>
+        <v>43017</v>
       </c>
       <c r="B182">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="C182">
-        <v>0.6666666666666667</v>
+        <v>0.1465517</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43140</v>
+        <v>43018</v>
       </c>
       <c r="B183">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="C183">
-        <v>0.7040998217468806</v>
+        <v>0.1603448</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43142</v>
+        <v>43018</v>
       </c>
       <c r="B184">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="C184">
-        <v>0.518850987432675</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43176</v>
+        <v>43018</v>
       </c>
       <c r="B185">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="C185">
-        <v>0.4233870967741936</v>
+        <v>0.2160194</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>43177</v>
+        <v>43018</v>
       </c>
       <c r="B186">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="C186">
-        <v>0.4324324324324324</v>
+        <v>0.1868932</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43178</v>
+        <v>43018</v>
       </c>
       <c r="B187">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="C187">
-        <v>0.3315926892950392</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43179</v>
+        <v>43018</v>
       </c>
       <c r="B188">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="C188">
-        <v>0.2222222222222222</v>
+        <v>0.2160194</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B189">
+        <v>102</v>
+      </c>
+      <c r="C189">
+        <v>0.2206897</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B190">
+        <v>102</v>
+      </c>
+      <c r="C190">
+        <v>0.1218962</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B191">
+        <v>102</v>
+      </c>
+      <c r="C191">
+        <v>0.2206897</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B192">
+        <v>102</v>
+      </c>
+      <c r="C192">
+        <v>0.1828442</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B193">
+        <v>102</v>
+      </c>
+      <c r="C193">
+        <v>0.221219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B194">
+        <v>102</v>
+      </c>
+      <c r="C194">
+        <v>0.1218962</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B195">
+        <v>102</v>
+      </c>
+      <c r="C195">
+        <v>0.2189616</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B196">
+        <v>102</v>
+      </c>
+      <c r="C196">
+        <v>0.1828442</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B197">
+        <v>103</v>
+      </c>
+      <c r="C197">
+        <v>0.0862832</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B198">
+        <v>103</v>
+      </c>
+      <c r="C198">
+        <v>0.1438053</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B199">
+        <v>103</v>
+      </c>
+      <c r="C199">
+        <v>0.1902655</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B200">
+        <v>103</v>
+      </c>
+      <c r="C200">
+        <v>0.1836283</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B201">
+        <v>103</v>
+      </c>
+      <c r="C201">
+        <v>0.1637168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B202">
+        <v>104</v>
+      </c>
+      <c r="C202">
+        <v>0.1029412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B203">
+        <v>104</v>
+      </c>
+      <c r="C203">
+        <v>0.1029412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B204">
+        <v>104</v>
+      </c>
+      <c r="C204">
+        <v>0.1709559</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B205">
+        <v>104</v>
+      </c>
+      <c r="C205">
+        <v>0.1943888</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B206">
+        <v>104</v>
+      </c>
+      <c r="C206">
+        <v>0.1268382</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>43023</v>
+      </c>
+      <c r="B207">
+        <v>106</v>
+      </c>
+      <c r="C207">
+        <v>0.2152174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B208">
+        <v>117</v>
+      </c>
+      <c r="C208">
+        <v>0.2209738</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B209">
+        <v>118</v>
+      </c>
+      <c r="C209">
+        <v>0.1889764</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B210">
+        <v>118</v>
+      </c>
+      <c r="C210">
+        <v>0.1102362</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B211">
+        <v>118</v>
+      </c>
+      <c r="C211">
+        <v>0.1102362</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>43036</v>
+      </c>
+      <c r="B212">
+        <v>119</v>
+      </c>
+      <c r="C212">
+        <v>0.2197615</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>43037</v>
+      </c>
+      <c r="B213">
+        <v>120</v>
+      </c>
+      <c r="C213">
+        <v>0.1295082</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>43037</v>
+      </c>
+      <c r="B214">
+        <v>120</v>
+      </c>
+      <c r="C214">
+        <v>0.1295082</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B215">
+        <v>121</v>
+      </c>
+      <c r="C215">
+        <v>0.1271586</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B216">
+        <v>121</v>
+      </c>
+      <c r="C216">
+        <v>0.1271586</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B217">
+        <v>123</v>
+      </c>
+      <c r="C217">
+        <v>0.4478873</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B218">
+        <v>123</v>
+      </c>
+      <c r="C218">
+        <v>0.2909441</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B219">
+        <v>123</v>
+      </c>
+      <c r="C219">
+        <v>0.4084778</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B220">
+        <v>125</v>
+      </c>
+      <c r="C220">
+        <v>0.4079174</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>43043</v>
+      </c>
+      <c r="B221">
+        <v>126</v>
+      </c>
+      <c r="C221">
+        <v>0.3365617</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B222">
+        <v>128</v>
+      </c>
+      <c r="C222">
+        <v>0.2684211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B223">
+        <v>129</v>
+      </c>
+      <c r="C223">
+        <v>0.3858025</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B224">
+        <v>129</v>
+      </c>
+      <c r="C224">
+        <v>0.3858025</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>43050</v>
+      </c>
+      <c r="B225">
+        <v>133</v>
+      </c>
+      <c r="C225">
+        <v>0.3634615</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>43050</v>
+      </c>
+      <c r="B226">
+        <v>133</v>
+      </c>
+      <c r="C226">
+        <v>0.3634615</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B227">
+        <v>136</v>
+      </c>
+      <c r="C227">
+        <v>0.2340426</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B228">
+        <v>136</v>
+      </c>
+      <c r="C228">
+        <v>0.293617</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B229">
+        <v>142</v>
+      </c>
+      <c r="C229">
+        <v>0.4166667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B230">
+        <v>142</v>
+      </c>
+      <c r="C230">
+        <v>0.4228916</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B231">
+        <v>145</v>
+      </c>
+      <c r="C231">
+        <v>0.3317647</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B232">
+        <v>146</v>
+      </c>
+      <c r="C232">
+        <v>0.420765</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>43064</v>
+      </c>
+      <c r="B233">
+        <v>147</v>
+      </c>
+      <c r="C233">
+        <v>0.2682927</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>43065</v>
+      </c>
+      <c r="B234">
+        <v>148</v>
+      </c>
+      <c r="C234">
+        <v>0.2015385</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B235">
+        <v>149</v>
+      </c>
+      <c r="C235">
+        <v>0.2534992</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B236">
+        <v>149</v>
+      </c>
+      <c r="C236">
+        <v>0.2192846</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B237">
+        <v>150</v>
+      </c>
+      <c r="C237">
+        <v>0.223565</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B238">
+        <v>153</v>
+      </c>
+      <c r="C238">
+        <v>0.2972973</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>43071</v>
+      </c>
+      <c r="B239">
+        <v>154</v>
+      </c>
+      <c r="C239">
+        <v>0.7166667</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>43071</v>
+      </c>
+      <c r="B240">
+        <v>154</v>
+      </c>
+      <c r="C240">
+        <v>0.7166667</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>43072</v>
+      </c>
+      <c r="B241">
+        <v>155</v>
+      </c>
+      <c r="C241">
+        <v>0.4964539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B242">
+        <v>156</v>
+      </c>
+      <c r="C242">
+        <v>0.3114447</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B243">
+        <v>156</v>
+      </c>
+      <c r="C243">
+        <v>0.315197</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B244">
+        <v>156</v>
+      </c>
+      <c r="C244">
+        <v>0.4278075</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B245">
+        <v>157</v>
+      </c>
+      <c r="C245">
+        <v>0.2943662</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B246">
+        <v>158</v>
+      </c>
+      <c r="C246">
+        <v>0.4539007</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B247">
+        <v>159</v>
+      </c>
+      <c r="C247">
+        <v>0.471867</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B248">
+        <v>159</v>
+      </c>
+      <c r="C248">
+        <v>0.3286445</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B249">
+        <v>160</v>
+      </c>
+      <c r="C249">
+        <v>0.4629389</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>43078</v>
+      </c>
+      <c r="B250">
+        <v>161</v>
+      </c>
+      <c r="C250">
+        <v>0.325811</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>43078</v>
+      </c>
+      <c r="B251">
+        <v>161</v>
+      </c>
+      <c r="C251">
+        <v>0.3526093</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>43079</v>
+      </c>
+      <c r="B252">
+        <v>162</v>
+      </c>
+      <c r="C252">
+        <v>0.6240713</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>43079</v>
+      </c>
+      <c r="B253">
+        <v>162</v>
+      </c>
+      <c r="C253">
+        <v>0.6240713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B254">
+        <v>163</v>
+      </c>
+      <c r="C254">
+        <v>0.6033183</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B255">
+        <v>166</v>
+      </c>
+      <c r="C255">
+        <v>0.5813952999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>43086</v>
+      </c>
+      <c r="B256">
+        <v>169</v>
+      </c>
+      <c r="C256">
+        <v>0.6702955</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B257">
+        <v>171</v>
+      </c>
+      <c r="C257">
+        <v>0.4428571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B258">
+        <v>171</v>
+      </c>
+      <c r="C258">
+        <v>0.2971429</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B259">
+        <v>172</v>
+      </c>
+      <c r="C259">
+        <v>0.6165311999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B260">
+        <v>173</v>
+      </c>
+      <c r="C260">
+        <v>0.6850829000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>43093</v>
+      </c>
+      <c r="B261">
+        <v>176</v>
+      </c>
+      <c r="C261">
+        <v>0.3267717</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B262">
+        <v>178</v>
+      </c>
+      <c r="C262">
+        <v>0.4008942</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B263">
+        <v>179</v>
+      </c>
+      <c r="C263">
+        <v>0.3533026</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B264">
+        <v>179</v>
+      </c>
+      <c r="C264">
+        <v>0.4193548</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B265">
+        <v>181</v>
+      </c>
+      <c r="C265">
+        <v>0.3410138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>43099</v>
+      </c>
+      <c r="B266">
+        <v>182</v>
+      </c>
+      <c r="C266">
+        <v>0.2560241</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B267">
+        <v>185</v>
+      </c>
+      <c r="C267">
+        <v>0.2651685</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B268">
+        <v>187</v>
+      </c>
+      <c r="C268">
+        <v>0.5784574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B269">
+        <v>189</v>
+      </c>
+      <c r="C269">
+        <v>0.3456221</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B270">
+        <v>189</v>
+      </c>
+      <c r="C270">
+        <v>0.3456221</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B271">
+        <v>191</v>
+      </c>
+      <c r="C271">
+        <v>0.4853933</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B272">
+        <v>191</v>
+      </c>
+      <c r="C272">
+        <v>0.7449438</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B273">
+        <v>191</v>
+      </c>
+      <c r="C273">
+        <v>0.4853933</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B274">
+        <v>192</v>
+      </c>
+      <c r="C274">
+        <v>0.4695122</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B275">
+        <v>193</v>
+      </c>
+      <c r="C275">
+        <v>0.5841446</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B276">
+        <v>194</v>
+      </c>
+      <c r="C276">
+        <v>0.45875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B277">
+        <v>194</v>
+      </c>
+      <c r="C277">
+        <v>0.45875</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B278">
+        <v>196</v>
+      </c>
+      <c r="C278">
+        <v>0.2617978</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B279">
+        <v>196</v>
+      </c>
+      <c r="C279">
+        <v>0.594382</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B280">
+        <v>196</v>
+      </c>
+      <c r="C280">
+        <v>0.594382</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B281">
+        <v>196</v>
+      </c>
+      <c r="C281">
+        <v>0.4494382</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B282">
+        <v>197</v>
+      </c>
+      <c r="C282">
+        <v>0.3317972</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B283">
+        <v>198</v>
+      </c>
+      <c r="C283">
+        <v>0.5258427</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B284">
+        <v>198</v>
+      </c>
+      <c r="C284">
+        <v>0.4966292</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B285">
+        <v>198</v>
+      </c>
+      <c r="C285">
+        <v>0.6528777</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B286">
+        <v>198</v>
+      </c>
+      <c r="C286">
+        <v>0.6528777</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B287">
+        <v>203</v>
+      </c>
+      <c r="C287">
+        <v>0.7097744</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B288">
+        <v>203</v>
+      </c>
+      <c r="C288">
+        <v>0.7443609</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B289">
+        <v>203</v>
+      </c>
+      <c r="C289">
+        <v>0.7097744</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B290">
+        <v>204</v>
+      </c>
+      <c r="C290">
+        <v>0.3660856</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B291">
+        <v>205</v>
+      </c>
+      <c r="C291">
+        <v>0.5772727</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B292">
+        <v>205</v>
+      </c>
+      <c r="C292">
+        <v>0.5772727</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B293">
+        <v>205</v>
+      </c>
+      <c r="C293">
+        <v>0.4602273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B294">
+        <v>207</v>
+      </c>
+      <c r="C294">
+        <v>0.4965909</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B295">
+        <v>207</v>
+      </c>
+      <c r="C295">
+        <v>0.2931818</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B296">
+        <v>207</v>
+      </c>
+      <c r="C296">
+        <v>0.4965909</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B297">
+        <v>208</v>
+      </c>
+      <c r="C297">
+        <v>0.7441077</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B298">
+        <v>209</v>
+      </c>
+      <c r="C298">
+        <v>0.5683564</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B299">
+        <v>209</v>
+      </c>
+      <c r="C299">
+        <v>0.5483871</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B300">
+        <v>210</v>
+      </c>
+      <c r="C300">
+        <v>0.3636364</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B301">
+        <v>210</v>
+      </c>
+      <c r="C301">
+        <v>0.5355932</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B302">
+        <v>210</v>
+      </c>
+      <c r="C302">
+        <v>0.6898305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B303">
+        <v>210</v>
+      </c>
+      <c r="C303">
+        <v>0.4020979</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B304">
+        <v>210</v>
+      </c>
+      <c r="C304">
+        <v>0.3723776</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B305">
+        <v>210</v>
+      </c>
+      <c r="C305">
+        <v>0.5355932</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B306">
+        <v>211</v>
+      </c>
+      <c r="C306">
+        <v>0.3379416</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B307">
+        <v>211</v>
+      </c>
+      <c r="C307">
+        <v>0.3010753</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B308">
+        <v>212</v>
+      </c>
+      <c r="C308">
+        <v>0.3586207</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B309">
+        <v>212</v>
+      </c>
+      <c r="C309">
+        <v>0.3114943</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B310">
+        <v>214</v>
+      </c>
+      <c r="C310">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B311">
+        <v>214</v>
+      </c>
+      <c r="C311">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B312">
+        <v>214</v>
+      </c>
+      <c r="C312">
+        <v>0.4448276</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B313">
+        <v>215</v>
+      </c>
+      <c r="C313">
+        <v>0.2920792</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B314">
+        <v>215</v>
+      </c>
+      <c r="C314">
+        <v>0.3333333</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B315">
+        <v>216</v>
+      </c>
+      <c r="C315">
+        <v>0.3642241</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B316">
+        <v>217</v>
+      </c>
+      <c r="C316">
+        <v>0.3359746</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B317">
+        <v>217</v>
+      </c>
+      <c r="C317">
+        <v>0.5736926</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B318">
+        <v>217</v>
+      </c>
+      <c r="C318">
+        <v>0.3898574</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B319">
+        <v>218</v>
+      </c>
+      <c r="C319">
+        <v>0.4527439</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B320">
+        <v>219</v>
+      </c>
+      <c r="C320">
+        <v>0.7030995</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B321">
+        <v>220</v>
+      </c>
+      <c r="C321">
+        <v>0.7281552999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B322">
+        <v>220</v>
+      </c>
+      <c r="C322">
+        <v>0.5022971000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B323">
+        <v>221</v>
+      </c>
+      <c r="C323">
+        <v>0.5548282</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B324">
+        <v>221</v>
+      </c>
+      <c r="C324">
+        <v>0.6666666999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B325">
+        <v>223</v>
+      </c>
+      <c r="C325">
+        <v>0.7040998000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B326">
+        <v>225</v>
+      </c>
+      <c r="C326">
+        <v>0.5717647</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B327">
+        <v>225</v>
+      </c>
+      <c r="C327">
+        <v>0.7247059</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B328">
+        <v>225</v>
+      </c>
+      <c r="C328">
+        <v>0.3435294</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B329">
+        <v>225</v>
+      </c>
+      <c r="C329">
+        <v>0.518851</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B330">
+        <v>225</v>
+      </c>
+      <c r="C330">
+        <v>0.7247059</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B331">
+        <v>228</v>
+      </c>
+      <c r="C331">
+        <v>0.326506</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B332">
+        <v>228</v>
+      </c>
+      <c r="C332">
+        <v>0.6746988</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B333">
+        <v>230</v>
+      </c>
+      <c r="C333">
+        <v>0.7493976</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B334">
+        <v>230</v>
+      </c>
+      <c r="C334">
+        <v>0.7493976</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B335">
+        <v>231</v>
+      </c>
+      <c r="C335">
+        <v>0.560241</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B336">
+        <v>231</v>
+      </c>
+      <c r="C336">
+        <v>0.4963855</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B337">
+        <v>231</v>
+      </c>
+      <c r="C337">
+        <v>0.3180723</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B338">
+        <v>232</v>
+      </c>
+      <c r="C338">
+        <v>0.2771084</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B339">
+        <v>232</v>
+      </c>
+      <c r="C339">
+        <v>0.2746988</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B340">
+        <v>232</v>
+      </c>
+      <c r="C340">
+        <v>0.4421687</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B341">
+        <v>233</v>
+      </c>
+      <c r="C341">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B342">
+        <v>233</v>
+      </c>
+      <c r="C342">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B343">
+        <v>235</v>
+      </c>
+      <c r="C343">
+        <v>0.26625</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B344">
+        <v>235</v>
+      </c>
+      <c r="C344">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B345">
+        <v>236</v>
+      </c>
+      <c r="C345">
+        <v>0.35375</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B346">
+        <v>236</v>
+      </c>
+      <c r="C346">
+        <v>0.5287500000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B347">
+        <v>236</v>
+      </c>
+      <c r="C347">
+        <v>0.73625</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B348">
+        <v>237</v>
+      </c>
+      <c r="C348">
+        <v>0.2725</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B349">
+        <v>238</v>
+      </c>
+      <c r="C349">
+        <v>0.35125</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>43156</v>
+      </c>
+      <c r="B350">
+        <v>239</v>
+      </c>
+      <c r="C350">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>43156</v>
+      </c>
+      <c r="B351">
+        <v>239</v>
+      </c>
+      <c r="C351">
+        <v>0.2875</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B352">
+        <v>240</v>
+      </c>
+      <c r="C352">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B353">
+        <v>240</v>
+      </c>
+      <c r="C353">
+        <v>0.3013333</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B354">
+        <v>246</v>
+      </c>
+      <c r="C354">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B355">
+        <v>247</v>
+      </c>
+      <c r="C355">
+        <v>0.3071429</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B356">
+        <v>247</v>
+      </c>
+      <c r="C356">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B357">
+        <v>247</v>
+      </c>
+      <c r="C357">
+        <v>0.5242857</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B358">
+        <v>249</v>
+      </c>
+      <c r="C358">
+        <v>0.7128571</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B359">
+        <v>251</v>
+      </c>
+      <c r="C359">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B360">
+        <v>251</v>
+      </c>
+      <c r="C360">
+        <v>0.7357143</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>43170</v>
+      </c>
+      <c r="B361">
+        <v>253</v>
+      </c>
+      <c r="C361">
+        <v>0.4328571</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>43170</v>
+      </c>
+      <c r="B362">
+        <v>253</v>
+      </c>
+      <c r="C362">
+        <v>0.4885714</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B363">
+        <v>254</v>
+      </c>
+      <c r="C363">
+        <v>0.4215385</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B364">
+        <v>254</v>
+      </c>
+      <c r="C364">
+        <v>0.3661538</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B365">
+        <v>254</v>
+      </c>
+      <c r="C365">
+        <v>0.2569231</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B366">
+        <v>254</v>
+      </c>
+      <c r="C366">
+        <v>0.7276923</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B367">
+        <v>255</v>
+      </c>
+      <c r="C367">
+        <v>0.2553846</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B368">
+        <v>255</v>
+      </c>
+      <c r="C368">
+        <v>0.3553846</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B369">
+        <v>257</v>
+      </c>
+      <c r="C369">
+        <v>0.6492308</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B370">
+        <v>258</v>
+      </c>
+      <c r="C370">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B371">
+        <v>259</v>
+      </c>
+      <c r="C371">
+        <v>0.4476923</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B372">
+        <v>259</v>
+      </c>
+      <c r="C372">
+        <v>0.4461538</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B373">
+        <v>259</v>
+      </c>
+      <c r="C373">
+        <v>0.4233871</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B374">
+        <v>260</v>
+      </c>
+      <c r="C374">
+        <v>0.4324324</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B375">
+        <v>260</v>
+      </c>
+      <c r="C375">
+        <v>0.4230769</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B376">
+        <v>261</v>
+      </c>
+      <c r="C376">
+        <v>0.3315927</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B377">
+        <v>262</v>
+      </c>
+      <c r="C377">
+        <v>0.2222222</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B378">
+        <v>262</v>
+      </c>
+      <c r="C378">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B379">
+        <v>263</v>
+      </c>
+      <c r="C379">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B380">
+        <v>265</v>
+      </c>
+      <c r="C380">
+        <v>0.3189655</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B381">
+        <v>267</v>
+      </c>
+      <c r="C381">
+        <v>0.5327586</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B382">
+        <v>267</v>
+      </c>
+      <c r="C382">
+        <v>0.5327586</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B383">
+        <v>267</v>
+      </c>
+      <c r="C383">
+        <v>0.3948276</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B384">
+        <v>268</v>
+      </c>
+      <c r="C384">
+        <v>0.6365385</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B385">
+        <v>268</v>
+      </c>
+      <c r="C385">
+        <v>0.6365385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B386">
+        <v>268</v>
+      </c>
+      <c r="C386">
+        <v>0.4423077</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B387">
+        <v>272</v>
+      </c>
+      <c r="C387">
+        <v>0.3615385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2">
         <v>43191</v>
       </c>
-      <c r="B189">
+      <c r="B388">
         <v>274</v>
       </c>
-      <c r="C189">
-        <v>0.554531490015361</v>
+      <c r="C388">
+        <v>0.5545315</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B389">
+        <v>275</v>
+      </c>
+      <c r="C389">
+        <v>0.2489362</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B390">
+        <v>276</v>
+      </c>
+      <c r="C390">
+        <v>0.3021277</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B391">
+        <v>278</v>
+      </c>
+      <c r="C391">
+        <v>0.3319149</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B392">
+        <v>280</v>
+      </c>
+      <c r="C392">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B393">
+        <v>280</v>
+      </c>
+      <c r="C393">
+        <v>0.5489362</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B394">
+        <v>281</v>
+      </c>
+      <c r="C394">
+        <v>0.4148936</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B395">
+        <v>282</v>
+      </c>
+      <c r="C395">
+        <v>0.2581395</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B396">
+        <v>287</v>
+      </c>
+      <c r="C396">
+        <v>0.2488372</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B397">
+        <v>288</v>
+      </c>
+      <c r="C397">
+        <v>0.3465116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B398">
+        <v>289</v>
+      </c>
+      <c r="C398">
+        <v>0.5324324</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B399">
+        <v>289</v>
+      </c>
+      <c r="C399">
+        <v>0.3783784</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B400">
+        <v>290</v>
+      </c>
+      <c r="C400">
+        <v>0.2486486</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B401">
+        <v>290</v>
+      </c>
+      <c r="C401">
+        <v>0.2918919</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>43212</v>
+      </c>
+      <c r="B402">
+        <v>295</v>
+      </c>
+      <c r="C402">
+        <v>0.3162162</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B403">
+        <v>309</v>
+      </c>
+      <c r="C403">
+        <v>0.1967742</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>43232</v>
+      </c>
+      <c r="B404">
+        <v>315</v>
+      </c>
+      <c r="C404">
+        <v>0.2571429</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B405">
+        <v>316</v>
+      </c>
+      <c r="C405">
+        <v>0.2785714</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B406">
+        <v>316</v>
+      </c>
+      <c r="C406">
+        <v>0.1214286</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B407">
+        <v>317</v>
+      </c>
+      <c r="C407">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B408">
+        <v>317</v>
+      </c>
+      <c r="C408">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B409">
+        <v>318</v>
+      </c>
+      <c r="C409">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B410">
+        <v>318</v>
+      </c>
+      <c r="C410">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B411">
+        <v>320</v>
+      </c>
+      <c r="C411">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2">
+        <v>43264</v>
+      </c>
+      <c r="B412">
+        <v>347</v>
+      </c>
+      <c r="C412">
+        <v>0.1173913</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C412"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +416,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42935</v>
+        <v>42934</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>0.1321045</v>
+        <v>0.0649351</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,7 +433,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.1382488</v>
+        <v>0.1321045</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -455,7 +455,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.1029186</v>
+        <v>0.0552995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.0552995</v>
+        <v>0.1382488</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -493,4435 +493,3786 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42937</v>
+        <v>42941</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0.1304348</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42938</v>
+        <v>42945</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>0.1173913</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42939</v>
+        <v>42946</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>0.1083333</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42940</v>
+        <v>42946</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>0.1291667</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42940</v>
+        <v>42953</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>0.0958333</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42941</v>
+        <v>42954</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>0.15</v>
+        <v>0.1735849</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42941</v>
+        <v>42955</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.1773585</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42942</v>
+        <v>42957</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>0.1333333</v>
+        <v>0.1660377</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42942</v>
+        <v>42959</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.0916667</v>
+        <v>0.1584906</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42944</v>
+        <v>42966</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>0.0666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42945</v>
+        <v>42966</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>0.075</v>
+        <v>0.1299639</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42945</v>
+        <v>42966</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>0.15</v>
+        <v>0.1444043</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42946</v>
+        <v>42967</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>0.08400000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42946</v>
+        <v>42967</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>0.148</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42949</v>
+        <v>42968</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>0.136</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42949</v>
+        <v>42969</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42949</v>
+        <v>42969</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>0.148</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42950</v>
+        <v>42970</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>0.06</v>
+        <v>0.08267720000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42950</v>
+        <v>42970</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>0.12</v>
+        <v>0.0748031</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42950</v>
+        <v>42970</v>
       </c>
       <c r="B29">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>0.096</v>
+        <v>0.1417323</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42950</v>
+        <v>42971</v>
       </c>
       <c r="B30">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>0.116</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42950</v>
+        <v>42971</v>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>0.096</v>
+        <v>0.132716</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42950</v>
+        <v>42971</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C32">
-        <v>0.148</v>
+        <v>0.0833333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42951</v>
+        <v>42971</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C33">
-        <v>0.144</v>
+        <v>0.154321</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42951</v>
+        <v>42974</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>0.132</v>
+        <v>0.1223529</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>0.132</v>
+        <v>0.1435185</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42951</v>
+        <v>42975</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C36">
-        <v>0.108</v>
+        <v>0.1689815</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42951</v>
+        <v>42977</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>0.064</v>
+        <v>0.09370199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42951</v>
+        <v>42977</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C38">
-        <v>0.152</v>
+        <v>0.1490015</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42952</v>
+        <v>42977</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>0.096</v>
+        <v>0.1353712</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42953</v>
+        <v>42978</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>0.096</v>
+        <v>0.1382353</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42953</v>
+        <v>42978</v>
       </c>
       <c r="B41">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>0.176</v>
+        <v>0.1585903</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42954</v>
+        <v>42979</v>
       </c>
       <c r="B42">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>0.1735849</v>
+        <v>0.1082474</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42954</v>
+        <v>42979</v>
       </c>
       <c r="B43">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C43">
-        <v>0.1132075</v>
+        <v>0.1134021</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42954</v>
+        <v>42980</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C44">
-        <v>0.1358491</v>
+        <v>0.0852878</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42954</v>
+        <v>42980</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C45">
-        <v>0.1056604</v>
+        <v>0.0746269</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42954</v>
+        <v>42981</v>
       </c>
       <c r="B46">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>0.1056604</v>
+        <v>0.1150685</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42954</v>
+        <v>42981</v>
       </c>
       <c r="B47">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>0.1169811</v>
+        <v>0.0678295</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42955</v>
+        <v>42981</v>
       </c>
       <c r="B48">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>0.0716981</v>
+        <v>0.1342466</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42955</v>
+        <v>42982</v>
       </c>
       <c r="B49">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C49">
-        <v>0.1207547</v>
+        <v>0.0525452</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42955</v>
+        <v>42986</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C50">
-        <v>0.1773585</v>
+        <v>0.0592885</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42955</v>
+        <v>42986</v>
       </c>
       <c r="B51">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C51">
-        <v>0.0716981</v>
+        <v>0.1205479</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42955</v>
+        <v>42987</v>
       </c>
       <c r="B52">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C52">
-        <v>0.09056599999999999</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42956</v>
+        <v>42987</v>
       </c>
       <c r="B53">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C53">
-        <v>0.1471698</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42957</v>
+        <v>42988</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C54">
-        <v>0.1660377</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42957</v>
+        <v>42988</v>
       </c>
       <c r="B55">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C55">
-        <v>0.1056604</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42957</v>
+        <v>42989</v>
       </c>
       <c r="B56">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C56">
-        <v>0.109434</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42959</v>
+        <v>42989</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C57">
-        <v>0.1584906</v>
+        <v>0.1387755</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42960</v>
+        <v>42989</v>
       </c>
       <c r="B58">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C58">
-        <v>0.0928571</v>
+        <v>0.0816327</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42961</v>
+        <v>42990</v>
       </c>
       <c r="B59">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C59">
-        <v>0.1321429</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42961</v>
+        <v>42990</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C60">
-        <v>0.0607143</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42962</v>
+        <v>42990</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>0.07142859999999999</v>
+        <v>0.0664894</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42962</v>
+        <v>42992</v>
       </c>
       <c r="B62">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C62">
-        <v>0.1107143</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42966</v>
+        <v>42992</v>
       </c>
       <c r="B63">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C63">
-        <v>0.1444043</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>42967</v>
+        <v>42992</v>
       </c>
       <c r="B64">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C64">
-        <v>0.15</v>
+        <v>0.1463415</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>42968</v>
+        <v>42992</v>
       </c>
       <c r="B65">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C65">
-        <v>0.1502347</v>
+        <v>0.1289199</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>42969</v>
+        <v>42992</v>
       </c>
       <c r="B66">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C66">
-        <v>0.1428571</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>42970</v>
+        <v>42992</v>
       </c>
       <c r="B67">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C67">
-        <v>0.1417323</v>
+        <v>0.0522648</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>42970</v>
+        <v>42993</v>
       </c>
       <c r="B68">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C68">
-        <v>0.0748031</v>
+        <v>0.1055276</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>42970</v>
+        <v>42993</v>
       </c>
       <c r="B69">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C69">
-        <v>0.1771654</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>42971</v>
+        <v>42993</v>
       </c>
       <c r="B70">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C70">
-        <v>0.0833333</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>42971</v>
+        <v>42993</v>
       </c>
       <c r="B71">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>0.095679</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>42971</v>
+        <v>42994</v>
       </c>
       <c r="B72">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>0.132716</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>42971</v>
+        <v>42994</v>
       </c>
       <c r="B73">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C73">
-        <v>0.154321</v>
+        <v>0.0546875</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>42975</v>
+        <v>42994</v>
       </c>
       <c r="B74">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C74">
-        <v>0.1689815</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>42977</v>
+        <v>42994</v>
       </c>
       <c r="B75">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C75">
-        <v>0.1490015</v>
+        <v>0.0833333</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>42977</v>
+        <v>42995</v>
       </c>
       <c r="B76">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C76">
-        <v>0.1353712</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>42978</v>
+        <v>42995</v>
       </c>
       <c r="B77">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C77">
-        <v>0.1585903</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>42979</v>
+        <v>42996</v>
       </c>
       <c r="B78">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C78">
-        <v>0.1134021</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>42980</v>
+        <v>42996</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C79">
-        <v>0.0746269</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>42981</v>
+        <v>42997</v>
       </c>
       <c r="B80">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C80">
-        <v>0.1342466</v>
+        <v>0.1052632</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>42981</v>
+        <v>42998</v>
       </c>
       <c r="B81">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C81">
-        <v>0.1150685</v>
+        <v>0.0894942</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>42981</v>
+        <v>42998</v>
       </c>
       <c r="B82">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>0.0678295</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>42982</v>
+        <v>42998</v>
       </c>
       <c r="B83">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C83">
-        <v>0.0525452</v>
+        <v>0.0564202</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>42987</v>
+        <v>42999</v>
       </c>
       <c r="B84">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>0.1138015</v>
+        <v>0.0671141</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>42987</v>
+        <v>43000</v>
       </c>
       <c r="B85">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>0.1138015</v>
+        <v>0.09328359999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>42988</v>
+        <v>43000</v>
       </c>
       <c r="B86">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C86">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>42989</v>
+        <v>43000</v>
       </c>
       <c r="B87">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C87">
-        <v>0.1225</v>
+        <v>0.1231343</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>42989</v>
+        <v>43001</v>
       </c>
       <c r="B88">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C88">
-        <v>0.1387755</v>
+        <v>0.087156</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>42990</v>
+        <v>43001</v>
       </c>
       <c r="B89">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C89">
-        <v>0.13</v>
+        <v>0.1386364</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>42990</v>
+        <v>43001</v>
       </c>
       <c r="B90">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C90">
-        <v>0.1170213</v>
+        <v>0.07954550000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>42990</v>
+        <v>43001</v>
       </c>
       <c r="B91">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C91">
-        <v>0.0664894</v>
+        <v>0.07568809999999999</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>42991</v>
+        <v>43002</v>
       </c>
       <c r="B92">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C92">
-        <v>0.08</v>
+        <v>0.0982143</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="B93">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>0.1428571</v>
+        <v>0.1416667</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="B94">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>0.1463415</v>
+        <v>0.0982143</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="B95">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>0.1325</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="B96">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C96">
-        <v>0.0522648</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>42992</v>
+        <v>43003</v>
       </c>
       <c r="B97">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C97">
-        <v>0.07000000000000001</v>
+        <v>0.1166667</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>42992</v>
+        <v>43004</v>
       </c>
       <c r="B98">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C98">
-        <v>0.0522648</v>
+        <v>0.0806452</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>42992</v>
+        <v>43004</v>
       </c>
       <c r="B99">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>0.12</v>
+        <v>0.0846774</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>42992</v>
+        <v>43005</v>
       </c>
       <c r="B100">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C100">
-        <v>0.12</v>
+        <v>0.1354167</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>42993</v>
+        <v>43006</v>
       </c>
       <c r="B101">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C101">
-        <v>0.0725</v>
+        <v>0.143508</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>42993</v>
+        <v>43006</v>
       </c>
       <c r="B102">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>0.1055276</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>42993</v>
+        <v>43006</v>
       </c>
       <c r="B103">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C103">
-        <v>0.1356784</v>
+        <v>0.0797267</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>42993</v>
+        <v>43006</v>
       </c>
       <c r="B104">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C104">
-        <v>0.13</v>
+        <v>0.0842825</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>42993</v>
+        <v>43006</v>
       </c>
       <c r="B105">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C105">
-        <v>0.11</v>
+        <v>0.0637813</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>42994</v>
+        <v>43007</v>
       </c>
       <c r="B106">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C106">
-        <v>0.09375</v>
+        <v>0.09487180000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>42994</v>
+        <v>43007</v>
       </c>
       <c r="B107">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C107">
-        <v>0.1119792</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>42994</v>
+        <v>43007</v>
       </c>
       <c r="B108">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C108">
-        <v>0.09375</v>
+        <v>0.07435899999999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>42994</v>
+        <v>43007</v>
       </c>
       <c r="B109">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C109">
-        <v>0.0675</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>42994</v>
+        <v>43008</v>
       </c>
       <c r="B110">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C110">
-        <v>0.0833333</v>
+        <v>0.1168539</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>42994</v>
+        <v>43008</v>
       </c>
       <c r="B111">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C111">
-        <v>0.07000000000000001</v>
+        <v>0.0808989</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>42994</v>
+        <v>43008</v>
       </c>
       <c r="B112">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C112">
-        <v>0.07000000000000001</v>
+        <v>0.0651685</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>42995</v>
+        <v>43008</v>
       </c>
       <c r="B113">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C113">
-        <v>0.114094</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>42995</v>
+        <v>43009</v>
       </c>
       <c r="B114">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C114">
-        <v>0.09843399999999999</v>
+        <v>0.0887681</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>42996</v>
+        <v>43009</v>
       </c>
       <c r="B115">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C115">
-        <v>0.1305263</v>
+        <v>0.192029</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>42996</v>
+        <v>43009</v>
       </c>
       <c r="B116">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C116">
-        <v>0.1389474</v>
+        <v>0.1584906</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>42997</v>
+        <v>43009</v>
       </c>
       <c r="B117">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C117">
-        <v>0.1052632</v>
+        <v>0.209434</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>42998</v>
+        <v>43010</v>
       </c>
       <c r="B118">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C118">
-        <v>0.0894942</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>42998</v>
+        <v>43010</v>
       </c>
       <c r="B119">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C119">
-        <v>0.1011673</v>
+        <v>0.1047957</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>42998</v>
+        <v>43010</v>
       </c>
       <c r="B120">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C120">
-        <v>0.0564202</v>
+        <v>0.1119005</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>42999</v>
+        <v>43010</v>
       </c>
       <c r="B121">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C121">
-        <v>0.0671141</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43000</v>
+        <v>43011</v>
       </c>
       <c r="B122">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C122">
-        <v>0.09328359999999999</v>
+        <v>0.1716981</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43001</v>
+        <v>43011</v>
       </c>
       <c r="B123">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C123">
-        <v>0.07568809999999999</v>
+        <v>0.2207547</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43001</v>
+        <v>43011</v>
       </c>
       <c r="B124">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C124">
-        <v>0.1386364</v>
+        <v>0.1773585</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43002</v>
+        <v>43012</v>
       </c>
       <c r="B125">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C125">
-        <v>0.15</v>
+        <v>0.2188679</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43002</v>
+        <v>43012</v>
       </c>
       <c r="B126">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C126">
-        <v>0.1416667</v>
+        <v>0.1811321</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43002</v>
+        <v>43012</v>
       </c>
       <c r="B127">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C127">
-        <v>0.1041667</v>
+        <v>0.1886792</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43002</v>
+        <v>43012</v>
       </c>
       <c r="B128">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C128">
-        <v>0.0982143</v>
+        <v>0.2188679</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43003</v>
+        <v>43012</v>
       </c>
       <c r="B129">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C129">
-        <v>0.1166667</v>
+        <v>0.2075472</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43004</v>
+        <v>43013</v>
       </c>
       <c r="B130">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C130">
-        <v>0.0806452</v>
+        <v>0.1660377</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43004</v>
+        <v>43013</v>
       </c>
       <c r="B131">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C131">
-        <v>0.0806452</v>
+        <v>0.1003135</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43004</v>
+        <v>43013</v>
       </c>
       <c r="B132">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C132">
-        <v>0.0846774</v>
+        <v>0.1584906</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43005</v>
+        <v>43013</v>
       </c>
       <c r="B133">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C133">
-        <v>0.1354167</v>
+        <v>0.1264151</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43006</v>
+        <v>43013</v>
       </c>
       <c r="B134">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C134">
-        <v>0.143508</v>
+        <v>0.1245283</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43006</v>
+        <v>43014</v>
       </c>
       <c r="B135">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C135">
-        <v>0.0888383</v>
+        <v>0.1301887</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43006</v>
+        <v>43014</v>
       </c>
       <c r="B136">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C136">
-        <v>0.0842825</v>
+        <v>0.2150943</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43006</v>
+        <v>43014</v>
       </c>
       <c r="B137">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C137">
-        <v>0.143508</v>
+        <v>0.1283019</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43006</v>
+        <v>43015</v>
       </c>
       <c r="B138">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C138">
-        <v>0.0637813</v>
+        <v>0.1735849</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43007</v>
+        <v>43015</v>
       </c>
       <c r="B139">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C139">
-        <v>0.1384615</v>
+        <v>0.2113208</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43007</v>
+        <v>43015</v>
       </c>
       <c r="B140">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C140">
-        <v>0.08461539999999999</v>
+        <v>0.1528302</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43007</v>
+        <v>43018</v>
       </c>
       <c r="B141">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C141">
-        <v>0.07435899999999999</v>
+        <v>0.1603448</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43008</v>
+        <v>43018</v>
       </c>
       <c r="B142">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C142">
-        <v>0.1168539</v>
+        <v>0.1868932</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43008</v>
+        <v>43018</v>
       </c>
       <c r="B143">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C143">
-        <v>0.1168539</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43008</v>
+        <v>43018</v>
       </c>
       <c r="B144">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C144">
-        <v>0.0651685</v>
+        <v>0.2160194</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43009</v>
+        <v>43018</v>
       </c>
       <c r="B145">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C145">
-        <v>0.209434</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43009</v>
+        <v>43019</v>
       </c>
       <c r="B146">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C146">
-        <v>0.192029</v>
+        <v>0.1218962</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43009</v>
+        <v>43019</v>
       </c>
       <c r="B147">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C147">
-        <v>0.1584906</v>
+        <v>0.221219</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43009</v>
+        <v>43019</v>
       </c>
       <c r="B148">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C148">
-        <v>0.0887681</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43010</v>
+        <v>43019</v>
       </c>
       <c r="B149">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C149">
-        <v>0.1332149</v>
+        <v>0.2189616</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43010</v>
+        <v>43019</v>
       </c>
       <c r="B150">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C150">
-        <v>0.1278863</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>43010</v>
+        <v>43019</v>
       </c>
       <c r="B151">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C151">
-        <v>0.1047957</v>
+        <v>0.2034483</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43011</v>
+        <v>43019</v>
       </c>
       <c r="B152">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C152">
-        <v>0.1773585</v>
+        <v>0.2206897</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43011</v>
+        <v>43020</v>
       </c>
       <c r="B153">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C153">
-        <v>0.2207547</v>
+        <v>0.1902655</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43011</v>
+        <v>43020</v>
       </c>
       <c r="B154">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C154">
-        <v>0.1716981</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43012</v>
+        <v>43020</v>
       </c>
       <c r="B155">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C155">
-        <v>0.2188679</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43012</v>
+        <v>43020</v>
       </c>
       <c r="B156">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C156">
-        <v>0.1811321</v>
+        <v>0.1913793</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43012</v>
+        <v>43020</v>
       </c>
       <c r="B157">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C157">
-        <v>0.2188679</v>
+        <v>0.0862832</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43012</v>
+        <v>43020</v>
       </c>
       <c r="B158">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C158">
-        <v>0.2075472</v>
+        <v>0.1836283</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43012</v>
+        <v>43021</v>
       </c>
       <c r="B159">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C159">
-        <v>0.2188679</v>
+        <v>0.1029412</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43012</v>
+        <v>43021</v>
       </c>
       <c r="B160">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C160">
-        <v>0.1886792</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43013</v>
+        <v>43021</v>
       </c>
       <c r="B161">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C161">
-        <v>0.1245283</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43013</v>
+        <v>43021</v>
       </c>
       <c r="B162">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C162">
-        <v>0.1584906</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43013</v>
+        <v>43023</v>
       </c>
       <c r="B163">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C163">
-        <v>0.1264151</v>
+        <v>0.2152174</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43013</v>
+        <v>43034</v>
       </c>
       <c r="B164">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C164">
-        <v>0.1660377</v>
+        <v>0.2209738</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43013</v>
+        <v>43035</v>
       </c>
       <c r="B165">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C165">
-        <v>0.1264151</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43013</v>
+        <v>43035</v>
       </c>
       <c r="B166">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C166">
-        <v>0.1003135</v>
+        <v>0.1102362</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43013</v>
+        <v>43036</v>
       </c>
       <c r="B167">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C167">
-        <v>0.1003135</v>
+        <v>0.1635434</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43014</v>
+        <v>43036</v>
       </c>
       <c r="B168">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C168">
-        <v>0.2150943</v>
+        <v>0.2197615</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43014</v>
+        <v>43037</v>
       </c>
       <c r="B169">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C169">
-        <v>0.1301887</v>
+        <v>0.1295082</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>43014</v>
+        <v>43037</v>
       </c>
       <c r="B170">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C170">
-        <v>0.1283019</v>
+        <v>0.1918033</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43014</v>
+        <v>43038</v>
       </c>
       <c r="B171">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C171">
-        <v>0.0811321</v>
+        <v>0.1632653</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43014</v>
+        <v>43038</v>
       </c>
       <c r="B172">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C172">
-        <v>0.0811321</v>
+        <v>0.1271586</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>43015</v>
+        <v>43040</v>
       </c>
       <c r="B173">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C173">
-        <v>0.1528302</v>
+        <v>0.4084778</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43015</v>
+        <v>43040</v>
       </c>
       <c r="B174">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C174">
-        <v>0.1735849</v>
+        <v>0.2909441</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43015</v>
+        <v>43042</v>
       </c>
       <c r="B175">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C175">
-        <v>0.1735849</v>
+        <v>0.4079174</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43015</v>
+        <v>43043</v>
       </c>
       <c r="B176">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C176">
-        <v>0.2113208</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43016</v>
+        <v>43045</v>
       </c>
       <c r="B177">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C177">
-        <v>0.2247191</v>
+        <v>0.2684211</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>43017</v>
+        <v>43045</v>
       </c>
       <c r="B178">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C178">
-        <v>0.1758621</v>
+        <v>0.4322679</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43017</v>
+        <v>43046</v>
       </c>
       <c r="B179">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C179">
-        <v>0.1862069</v>
+        <v>0.3858025</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43017</v>
+        <v>43048</v>
       </c>
       <c r="B180">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C180">
-        <v>0.1862069</v>
+        <v>0.2670025</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43017</v>
+        <v>43050</v>
       </c>
       <c r="B181">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C181">
-        <v>0.1396552</v>
+        <v>0.3634615</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43017</v>
+        <v>43050</v>
       </c>
       <c r="B182">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C182">
-        <v>0.1465517</v>
+        <v>0.3115385</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43018</v>
+        <v>43053</v>
       </c>
       <c r="B183">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C183">
-        <v>0.1603448</v>
+        <v>0.293617</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43018</v>
+        <v>43053</v>
       </c>
       <c r="B184">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C184">
-        <v>0.1966019</v>
+        <v>0.2340426</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43018</v>
+        <v>43059</v>
       </c>
       <c r="B185">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C185">
-        <v>0.2160194</v>
+        <v>0.4166667</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>43018</v>
+        <v>43062</v>
       </c>
       <c r="B186">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C186">
-        <v>0.1868932</v>
+        <v>0.3317647</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43018</v>
+        <v>43063</v>
       </c>
       <c r="B187">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C187">
-        <v>0.2135922</v>
+        <v>0.3843352</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43018</v>
+        <v>43063</v>
       </c>
       <c r="B188">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C188">
-        <v>0.2160194</v>
+        <v>0.420765</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>43019</v>
+        <v>43064</v>
       </c>
       <c r="B189">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C189">
-        <v>0.2206897</v>
+        <v>0.2682927</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>43019</v>
+        <v>43065</v>
       </c>
       <c r="B190">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C190">
-        <v>0.1218962</v>
+        <v>0.2015385</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>43019</v>
+        <v>43066</v>
       </c>
       <c r="B191">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C191">
-        <v>0.2206897</v>
+        <v>0.2534992</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>43019</v>
+        <v>43066</v>
       </c>
       <c r="B192">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C192">
-        <v>0.1828442</v>
+        <v>0.2192846</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>43019</v>
+        <v>43067</v>
       </c>
       <c r="B193">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C193">
-        <v>0.221219</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>43019</v>
+        <v>43070</v>
       </c>
       <c r="B194">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C194">
-        <v>0.1218962</v>
+        <v>0.6959459</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>43019</v>
+        <v>43070</v>
       </c>
       <c r="B195">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C195">
-        <v>0.2189616</v>
+        <v>0.2972973</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>43019</v>
+        <v>43071</v>
       </c>
       <c r="B196">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C196">
-        <v>0.1828442</v>
+        <v>0.7166667</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>43020</v>
+        <v>43072</v>
       </c>
       <c r="B197">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C197">
-        <v>0.0862832</v>
+        <v>0.4964539</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>43020</v>
+        <v>43073</v>
       </c>
       <c r="B198">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C198">
-        <v>0.1438053</v>
+        <v>0.5882353</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>43020</v>
+        <v>43073</v>
       </c>
       <c r="B199">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C199">
-        <v>0.1902655</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>43020</v>
+        <v>43073</v>
       </c>
       <c r="B200">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C200">
-        <v>0.1836283</v>
+        <v>0.3114447</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>43020</v>
+        <v>43073</v>
       </c>
       <c r="B201">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C201">
-        <v>0.1637168</v>
+        <v>0.315197</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>43021</v>
+        <v>43074</v>
       </c>
       <c r="B202">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C202">
-        <v>0.1029412</v>
+        <v>0.2943662</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>43021</v>
+        <v>43076</v>
       </c>
       <c r="B203">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C203">
-        <v>0.1029412</v>
+        <v>0.3286445</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>43021</v>
+        <v>43078</v>
       </c>
       <c r="B204">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="C204">
-        <v>0.1709559</v>
+        <v>0.325811</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>43021</v>
+        <v>43079</v>
       </c>
       <c r="B205">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C205">
-        <v>0.1943888</v>
+        <v>0.6240713</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>43021</v>
+        <v>43080</v>
       </c>
       <c r="B206">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="C206">
-        <v>0.1268382</v>
+        <v>0.6033183</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>43023</v>
+        <v>43083</v>
       </c>
       <c r="B207">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C207">
-        <v>0.2152174</v>
+        <v>0.5813952999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>43034</v>
+        <v>43087</v>
       </c>
       <c r="B208">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C208">
-        <v>0.2209738</v>
+        <v>0.7378917</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>43035</v>
+        <v>43088</v>
       </c>
       <c r="B209">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C209">
-        <v>0.1889764</v>
+        <v>0.2971429</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>43035</v>
+        <v>43088</v>
       </c>
       <c r="B210">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C210">
-        <v>0.1102362</v>
+        <v>0.4428571</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>43035</v>
+        <v>43089</v>
       </c>
       <c r="B211">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C211">
-        <v>0.1102362</v>
+        <v>0.6165311999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>43036</v>
+        <v>43090</v>
       </c>
       <c r="B212">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C212">
-        <v>0.2197615</v>
+        <v>0.6850829000000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>43037</v>
+        <v>43090</v>
       </c>
       <c r="B213">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C213">
-        <v>0.1295082</v>
+        <v>0.5082873</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>43037</v>
+        <v>43093</v>
       </c>
       <c r="B214">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C214">
-        <v>0.1295082</v>
+        <v>0.3267717</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>43038</v>
+        <v>43095</v>
       </c>
       <c r="B215">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C215">
-        <v>0.1271586</v>
+        <v>0.4008942</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>43038</v>
+        <v>43095</v>
       </c>
       <c r="B216">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C216">
-        <v>0.1271586</v>
+        <v>0.4053651</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>43040</v>
+        <v>43096</v>
       </c>
       <c r="B217">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C217">
-        <v>0.4478873</v>
+        <v>0.4193548</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>43040</v>
+        <v>43096</v>
       </c>
       <c r="B218">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C218">
-        <v>0.2909441</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>43040</v>
+        <v>43098</v>
       </c>
       <c r="B219">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C219">
-        <v>0.4084778</v>
+        <v>0.3410138</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>43042</v>
+        <v>43099</v>
       </c>
       <c r="B220">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C220">
-        <v>0.4079174</v>
+        <v>0.2560241</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>43043</v>
+        <v>43102</v>
       </c>
       <c r="B221">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="C221">
-        <v>0.3365617</v>
+        <v>0.2651685</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>43045</v>
+        <v>43104</v>
       </c>
       <c r="B222">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="C222">
-        <v>0.2684211</v>
+        <v>0.4351266</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>43046</v>
+        <v>43104</v>
       </c>
       <c r="B223">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C223">
-        <v>0.3858025</v>
+        <v>0.5784574</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>43046</v>
+        <v>43106</v>
       </c>
       <c r="B224">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C224">
-        <v>0.3858025</v>
+        <v>0.3456221</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>43050</v>
+        <v>43108</v>
       </c>
       <c r="B225">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="C225">
-        <v>0.3634615</v>
+        <v>0.4853933</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>43050</v>
+        <v>43109</v>
       </c>
       <c r="B226">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C226">
-        <v>0.3634615</v>
+        <v>0.4695122</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>43053</v>
+        <v>43111</v>
       </c>
       <c r="B227">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="C227">
-        <v>0.2340426</v>
+        <v>0.45875</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>43053</v>
+        <v>43113</v>
       </c>
       <c r="B228">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C228">
-        <v>0.293617</v>
+        <v>0.4134831</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2">
-        <v>43059</v>
+        <v>43113</v>
       </c>
       <c r="B229">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C229">
-        <v>0.4166667</v>
+        <v>0.4494382</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>43059</v>
+        <v>43113</v>
       </c>
       <c r="B230">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C230">
-        <v>0.4228916</v>
+        <v>0.2617978</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>43062</v>
+        <v>43114</v>
       </c>
       <c r="B231">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C231">
-        <v>0.3317647</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>43063</v>
+        <v>43115</v>
       </c>
       <c r="B232">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C232">
-        <v>0.420765</v>
+        <v>0.5258427</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>43064</v>
+        <v>43115</v>
       </c>
       <c r="B233">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C233">
-        <v>0.2682927</v>
+        <v>0.4966292</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>43065</v>
+        <v>43115</v>
       </c>
       <c r="B234">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="C234">
-        <v>0.2015385</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>43066</v>
+        <v>43120</v>
       </c>
       <c r="B235">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C235">
-        <v>0.2534992</v>
+        <v>0.7097744</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>43066</v>
+        <v>43120</v>
       </c>
       <c r="B236">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C236">
-        <v>0.2192846</v>
+        <v>0.7443609</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>43067</v>
+        <v>43121</v>
       </c>
       <c r="B237">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="C237">
-        <v>0.223565</v>
+        <v>0.3660856</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>43070</v>
+        <v>43122</v>
       </c>
       <c r="B238">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C238">
-        <v>0.2972973</v>
+        <v>0.4602273</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>43071</v>
+        <v>43124</v>
       </c>
       <c r="B239">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C239">
-        <v>0.7166667</v>
+        <v>0.4965909</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>43071</v>
+        <v>43124</v>
       </c>
       <c r="B240">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C240">
-        <v>0.7166667</v>
+        <v>0.2931818</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>43072</v>
+        <v>43125</v>
       </c>
       <c r="B241">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C241">
-        <v>0.4964539</v>
+        <v>0.7441077</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>43073</v>
+        <v>43126</v>
       </c>
       <c r="B242">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C242">
-        <v>0.3114447</v>
+        <v>0.5483871</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2">
-        <v>43073</v>
+        <v>43126</v>
       </c>
       <c r="B243">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C243">
-        <v>0.315197</v>
+        <v>0.5683564</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>43073</v>
+        <v>43127</v>
       </c>
       <c r="B244">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="C244">
-        <v>0.4278075</v>
+        <v>0.6898305</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>43074</v>
+        <v>43127</v>
       </c>
       <c r="B245">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C245">
-        <v>0.2943662</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>43075</v>
+        <v>43127</v>
       </c>
       <c r="B246">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C246">
-        <v>0.4539007</v>
+        <v>0.4020979</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>43076</v>
+        <v>43127</v>
       </c>
       <c r="B247">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C247">
-        <v>0.471867</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2">
-        <v>43076</v>
+        <v>43127</v>
       </c>
       <c r="B248">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C248">
-        <v>0.3286445</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>43077</v>
+        <v>43128</v>
       </c>
       <c r="B249">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="C249">
-        <v>0.4629389</v>
+        <v>0.3010753</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>43078</v>
+        <v>43128</v>
       </c>
       <c r="B250">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="C250">
-        <v>0.325811</v>
+        <v>0.3379416</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>43078</v>
+        <v>43129</v>
       </c>
       <c r="B251">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C251">
-        <v>0.3526093</v>
+        <v>0.3114943</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2">
-        <v>43079</v>
+        <v>43131</v>
       </c>
       <c r="B252">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C252">
-        <v>0.6240713</v>
+        <v>0.4448276</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>43079</v>
+        <v>43132</v>
       </c>
       <c r="B253">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C253">
-        <v>0.6240713</v>
+        <v>0.2920792</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>43080</v>
+        <v>43132</v>
       </c>
       <c r="B254">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C254">
-        <v>0.6033183</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>43083</v>
+        <v>43133</v>
       </c>
       <c r="B255">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C255">
-        <v>0.5813952999999999</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>43086</v>
+        <v>43134</v>
       </c>
       <c r="B256">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C256">
-        <v>0.6702955</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>43088</v>
+        <v>43134</v>
       </c>
       <c r="B257">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C257">
-        <v>0.4428571</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>43088</v>
+        <v>43134</v>
       </c>
       <c r="B258">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C258">
-        <v>0.2971429</v>
+        <v>0.3898574</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2">
-        <v>43089</v>
+        <v>43136</v>
       </c>
       <c r="B259">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C259">
-        <v>0.6165311999999999</v>
+        <v>0.4891008</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>43090</v>
+        <v>43136</v>
       </c>
       <c r="B260">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C260">
-        <v>0.6850829000000001</v>
+        <v>0.7030995</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>43093</v>
+        <v>43137</v>
       </c>
       <c r="B261">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C261">
-        <v>0.3267717</v>
+        <v>0.5582524</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>43095</v>
+        <v>43137</v>
       </c>
       <c r="B262">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C262">
-        <v>0.4008942</v>
+        <v>0.7281552999999999</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2">
-        <v>43096</v>
+        <v>43137</v>
       </c>
       <c r="B263">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C263">
-        <v>0.3533026</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>43096</v>
+        <v>43138</v>
       </c>
       <c r="B264">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C264">
-        <v>0.4193548</v>
+        <v>0.5253682</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>43098</v>
+        <v>43138</v>
       </c>
       <c r="B265">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C265">
-        <v>0.3410138</v>
+        <v>0.6666666999999999</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>43099</v>
+        <v>43138</v>
       </c>
       <c r="B266">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C266">
-        <v>0.2560241</v>
+        <v>0.5548282</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2">
-        <v>43102</v>
+        <v>43140</v>
       </c>
       <c r="B267">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C267">
-        <v>0.2651685</v>
+        <v>0.7040998000000001</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
-        <v>43104</v>
+        <v>43142</v>
       </c>
       <c r="B268">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C268">
-        <v>0.5784574</v>
+        <v>0.3435294</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2">
-        <v>43106</v>
+        <v>43142</v>
       </c>
       <c r="B269">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C269">
-        <v>0.3456221</v>
+        <v>0.518851</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>43106</v>
+        <v>43142</v>
       </c>
       <c r="B270">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="C270">
-        <v>0.3456221</v>
+        <v>0.5717647</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>43108</v>
+        <v>43145</v>
       </c>
       <c r="B271">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C271">
-        <v>0.4853933</v>
+        <v>0.326506</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>43108</v>
+        <v>43145</v>
       </c>
       <c r="B272">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C272">
-        <v>0.7449438</v>
+        <v>0.3771084</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2">
-        <v>43108</v>
+        <v>43148</v>
       </c>
       <c r="B273">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="C273">
-        <v>0.4853933</v>
+        <v>0.560241</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2">
-        <v>43109</v>
+        <v>43148</v>
       </c>
       <c r="B274">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="C274">
-        <v>0.4695122</v>
+        <v>0.3180723</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2">
-        <v>43110</v>
+        <v>43148</v>
       </c>
       <c r="B275">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C275">
-        <v>0.5841446</v>
+        <v>0.4963855</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2">
-        <v>43111</v>
+        <v>43149</v>
       </c>
       <c r="B276">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C276">
-        <v>0.45875</v>
+        <v>0.2771084</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2">
-        <v>43111</v>
+        <v>43149</v>
       </c>
       <c r="B277">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C277">
-        <v>0.45875</v>
+        <v>0.4421687</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2">
-        <v>43113</v>
+        <v>43149</v>
       </c>
       <c r="B278">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C278">
-        <v>0.2617978</v>
+        <v>0.2746988</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2">
-        <v>43113</v>
+        <v>43150</v>
       </c>
       <c r="B279">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="C279">
-        <v>0.594382</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2">
-        <v>43113</v>
+        <v>43152</v>
       </c>
       <c r="B280">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C280">
-        <v>0.594382</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2">
-        <v>43113</v>
+        <v>43152</v>
       </c>
       <c r="B281">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C281">
-        <v>0.4494382</v>
+        <v>0.26625</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2">
-        <v>43114</v>
+        <v>43152</v>
       </c>
       <c r="B282">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C282">
-        <v>0.3317972</v>
+        <v>0.7485822</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2">
-        <v>43115</v>
+        <v>43153</v>
       </c>
       <c r="B283">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C283">
-        <v>0.5258427</v>
+        <v>0.35375</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2">
-        <v>43115</v>
+        <v>43153</v>
       </c>
       <c r="B284">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C284">
-        <v>0.4966292</v>
+        <v>0.5287500000000001</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2">
-        <v>43115</v>
+        <v>43154</v>
       </c>
       <c r="B285">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C285">
-        <v>0.6528777</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2">
-        <v>43115</v>
+        <v>43155</v>
       </c>
       <c r="B286">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="C286">
-        <v>0.6528777</v>
+        <v>0.35125</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>43120</v>
+        <v>43156</v>
       </c>
       <c r="B287">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C287">
-        <v>0.7097744</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>43120</v>
+        <v>43156</v>
       </c>
       <c r="B288">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C288">
-        <v>0.7443609</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>43120</v>
+        <v>43157</v>
       </c>
       <c r="B289">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="C289">
-        <v>0.7097744</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
-        <v>43121</v>
+        <v>43157</v>
       </c>
       <c r="B290">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C290">
-        <v>0.3660856</v>
+        <v>0.3013333</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2">
-        <v>43122</v>
+        <v>43159</v>
       </c>
       <c r="B291">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C291">
-        <v>0.5772727</v>
+        <v>0.3213333</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2">
-        <v>43122</v>
+        <v>43163</v>
       </c>
       <c r="B292">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C292">
-        <v>0.5772727</v>
+        <v>0.5293333</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2">
-        <v>43122</v>
+        <v>43163</v>
       </c>
       <c r="B293">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C293">
-        <v>0.4602273</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2">
-        <v>43124</v>
+        <v>43164</v>
       </c>
       <c r="B294">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C294">
-        <v>0.4965909</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2">
-        <v>43124</v>
+        <v>43164</v>
       </c>
       <c r="B295">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C295">
-        <v>0.2931818</v>
+        <v>0.5242857</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2">
-        <v>43124</v>
+        <v>43164</v>
       </c>
       <c r="B296">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C296">
-        <v>0.4965909</v>
+        <v>0.3071429</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2">
-        <v>43125</v>
+        <v>43166</v>
       </c>
       <c r="B297">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C297">
-        <v>0.7441077</v>
+        <v>0.6469003</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2">
-        <v>43126</v>
+        <v>43168</v>
       </c>
       <c r="B298">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="C298">
-        <v>0.5683564</v>
+        <v>0.4814286</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2">
-        <v>43126</v>
+        <v>43170</v>
       </c>
       <c r="B299">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="C299">
-        <v>0.5483871</v>
+        <v>0.4885714</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2">
-        <v>43127</v>
+        <v>43170</v>
       </c>
       <c r="B300">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C300">
-        <v>0.3636364</v>
+        <v>0.4328571</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2">
-        <v>43127</v>
+        <v>43171</v>
       </c>
       <c r="B301">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C301">
-        <v>0.5355932</v>
+        <v>0.2569231</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2">
-        <v>43127</v>
+        <v>43171</v>
       </c>
       <c r="B302">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C302">
-        <v>0.6898305</v>
+        <v>0.4215385</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2">
-        <v>43127</v>
+        <v>43171</v>
       </c>
       <c r="B303">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C303">
-        <v>0.4020979</v>
+        <v>0.7276923</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2">
-        <v>43127</v>
+        <v>43171</v>
       </c>
       <c r="B304">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C304">
-        <v>0.3723776</v>
+        <v>0.5707692</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2">
-        <v>43127</v>
+        <v>43172</v>
       </c>
       <c r="B305">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="C305">
-        <v>0.5355932</v>
+        <v>0.3553846</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2">
-        <v>43128</v>
+        <v>43172</v>
       </c>
       <c r="B306">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C306">
-        <v>0.3379416</v>
+        <v>0.2553846</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2">
-        <v>43128</v>
+        <v>43174</v>
       </c>
       <c r="B307">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C307">
-        <v>0.3010753</v>
+        <v>0.6492308</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2">
-        <v>43129</v>
+        <v>43175</v>
       </c>
       <c r="B308">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="C308">
-        <v>0.3586207</v>
+        <v>0.403397</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2">
-        <v>43129</v>
+        <v>43175</v>
       </c>
       <c r="B309">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="C309">
-        <v>0.3114943</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2">
-        <v>43131</v>
+        <v>43176</v>
       </c>
       <c r="B310">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C310">
-        <v>0.7</v>
+        <v>0.4461538</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2">
-        <v>43131</v>
+        <v>43176</v>
       </c>
       <c r="B311">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C311">
-        <v>0.7</v>
+        <v>0.4476923</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2">
-        <v>43131</v>
+        <v>43176</v>
       </c>
       <c r="B312">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C312">
-        <v>0.4448276</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2">
-        <v>43132</v>
+        <v>43177</v>
       </c>
       <c r="B313">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C313">
-        <v>0.2920792</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2">
-        <v>43132</v>
+        <v>43177</v>
       </c>
       <c r="B314">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C314">
-        <v>0.3333333</v>
+        <v>0.4230769</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>43133</v>
+        <v>43178</v>
       </c>
       <c r="B315">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C315">
-        <v>0.3642241</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>43134</v>
+        <v>43179</v>
       </c>
       <c r="B316">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="C316">
-        <v>0.3359746</v>
+        <v>0.2491909</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>43134</v>
+        <v>43179</v>
       </c>
       <c r="B317">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="C317">
-        <v>0.5736926</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>43134</v>
+        <v>43180</v>
       </c>
       <c r="B318">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C318">
-        <v>0.3898574</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>43135</v>
+        <v>43182</v>
       </c>
       <c r="B319">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C319">
-        <v>0.4527439</v>
+        <v>0.7155172</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>43136</v>
+        <v>43182</v>
       </c>
       <c r="B320">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C320">
-        <v>0.7030995</v>
+        <v>0.3189655</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>43137</v>
+        <v>43184</v>
       </c>
       <c r="B321">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C321">
-        <v>0.7281552999999999</v>
+        <v>0.3948276</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>43137</v>
+        <v>43184</v>
       </c>
       <c r="B322">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C322">
-        <v>0.5022971000000001</v>
+        <v>0.5327586</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>43138</v>
+        <v>43185</v>
       </c>
       <c r="B323">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C323">
-        <v>0.5548282</v>
+        <v>0.4423077</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>43138</v>
+        <v>43185</v>
       </c>
       <c r="B324">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C324">
-        <v>0.6666666999999999</v>
+        <v>0.6365385</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>43140</v>
+        <v>43187</v>
       </c>
       <c r="B325">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C325">
-        <v>0.7040998000000001</v>
+        <v>0.5961538</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>43142</v>
+        <v>43188</v>
       </c>
       <c r="B326">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C326">
-        <v>0.5717647</v>
+        <v>0.2966752</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>43142</v>
+        <v>43189</v>
       </c>
       <c r="B327">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="C327">
-        <v>0.7247059</v>
+        <v>0.4217252</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>43142</v>
+        <v>43189</v>
       </c>
       <c r="B328">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="C328">
-        <v>0.3435294</v>
+        <v>0.3615385</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>43142</v>
+        <v>43189</v>
       </c>
       <c r="B329">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="C329">
-        <v>0.518851</v>
+        <v>0.4538462</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>43142</v>
+        <v>43190</v>
       </c>
       <c r="B330">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="C330">
-        <v>0.7247059</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2">
-        <v>43145</v>
+        <v>43191</v>
       </c>
       <c r="B331">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C331">
-        <v>0.326506</v>
+        <v>0.5545315</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2">
-        <v>43145</v>
+        <v>43192</v>
       </c>
       <c r="B332">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="C332">
-        <v>0.6746988</v>
+        <v>0.3382979</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2">
-        <v>43147</v>
+        <v>43193</v>
       </c>
       <c r="B333">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C333">
-        <v>0.7493976</v>
+        <v>0.3021277</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2">
-        <v>43147</v>
+        <v>43195</v>
       </c>
       <c r="B334">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="C334">
-        <v>0.7493976</v>
+        <v>0.3319149</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2">
-        <v>43148</v>
+        <v>43197</v>
       </c>
       <c r="B335">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C335">
-        <v>0.560241</v>
+        <v>0.5927602</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2">
-        <v>43148</v>
+        <v>43197</v>
       </c>
       <c r="B336">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C336">
-        <v>0.4963855</v>
+        <v>0.2808511</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2">
-        <v>43148</v>
+        <v>43197</v>
       </c>
       <c r="B337">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C337">
-        <v>0.3180723</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2">
-        <v>43149</v>
+        <v>43197</v>
       </c>
       <c r="B338">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C338">
-        <v>0.2771084</v>
+        <v>0.5489362</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2">
-        <v>43149</v>
+        <v>43198</v>
       </c>
       <c r="B339">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="C339">
-        <v>0.2746988</v>
+        <v>0.4148936</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2">
-        <v>43149</v>
+        <v>43204</v>
       </c>
       <c r="B340">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="C340">
-        <v>0.4421687</v>
+        <v>0.2488372</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2">
-        <v>43150</v>
+        <v>43205</v>
       </c>
       <c r="B341">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="C341">
-        <v>0.28125</v>
+        <v>0.3465116</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2">
-        <v>43150</v>
+        <v>43206</v>
       </c>
       <c r="B342">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="C342">
-        <v>0.28125</v>
+        <v>0.5324324</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2">
-        <v>43152</v>
+        <v>43206</v>
       </c>
       <c r="B343">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="C343">
-        <v>0.26625</v>
+        <v>0.3783784</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2">
-        <v>43152</v>
+        <v>43207</v>
       </c>
       <c r="B344">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="C344">
-        <v>0.32</v>
+        <v>0.2486486</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2">
-        <v>43153</v>
+        <v>43212</v>
       </c>
       <c r="B345">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="C345">
-        <v>0.35375</v>
+        <v>0.3162162</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>43153</v>
+        <v>43224</v>
       </c>
       <c r="B346">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="C346">
-        <v>0.5287500000000001</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>43153</v>
+        <v>43226</v>
       </c>
       <c r="B347">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="C347">
-        <v>0.73625</v>
+        <v>0.1967742</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>43154</v>
+        <v>43231</v>
       </c>
       <c r="B348">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="C348">
-        <v>0.2725</v>
+        <v>0.2357143</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>43155</v>
+        <v>43232</v>
       </c>
       <c r="B349">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="C349">
-        <v>0.35125</v>
+        <v>0.2571429</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2">
-        <v>43156</v>
+        <v>43233</v>
       </c>
       <c r="B350">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C350">
-        <v>0.28125</v>
+        <v>0.2785714</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2">
-        <v>43156</v>
+        <v>43234</v>
       </c>
       <c r="B351">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="C351">
-        <v>0.2875</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2">
-        <v>43157</v>
+        <v>43235</v>
       </c>
       <c r="B352">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="C352">
-        <v>0.26</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2">
-        <v>43157</v>
+        <v>43237</v>
       </c>
       <c r="B353">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C353">
-        <v>0.3013333</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="2">
-        <v>43163</v>
-      </c>
-      <c r="B354">
-        <v>246</v>
-      </c>
-      <c r="C354">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="2">
-        <v>43164</v>
-      </c>
-      <c r="B355">
-        <v>247</v>
-      </c>
-      <c r="C355">
-        <v>0.3071429</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="2">
-        <v>43164</v>
-      </c>
-      <c r="B356">
-        <v>247</v>
-      </c>
-      <c r="C356">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="2">
-        <v>43164</v>
-      </c>
-      <c r="B357">
-        <v>247</v>
-      </c>
-      <c r="C357">
-        <v>0.5242857</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="2">
-        <v>43166</v>
-      </c>
-      <c r="B358">
-        <v>249</v>
-      </c>
-      <c r="C358">
-        <v>0.7128571</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="2">
-        <v>43168</v>
-      </c>
-      <c r="B359">
-        <v>251</v>
-      </c>
-      <c r="C359">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="2">
-        <v>43168</v>
-      </c>
-      <c r="B360">
-        <v>251</v>
-      </c>
-      <c r="C360">
-        <v>0.7357143</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="2">
-        <v>43170</v>
-      </c>
-      <c r="B361">
-        <v>253</v>
-      </c>
-      <c r="C361">
-        <v>0.4328571</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="2">
-        <v>43170</v>
-      </c>
-      <c r="B362">
-        <v>253</v>
-      </c>
-      <c r="C362">
-        <v>0.4885714</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="2">
-        <v>43171</v>
-      </c>
-      <c r="B363">
-        <v>254</v>
-      </c>
-      <c r="C363">
-        <v>0.4215385</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="2">
-        <v>43171</v>
-      </c>
-      <c r="B364">
-        <v>254</v>
-      </c>
-      <c r="C364">
-        <v>0.3661538</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="2">
-        <v>43171</v>
-      </c>
-      <c r="B365">
-        <v>254</v>
-      </c>
-      <c r="C365">
-        <v>0.2569231</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="2">
-        <v>43171</v>
-      </c>
-      <c r="B366">
-        <v>254</v>
-      </c>
-      <c r="C366">
-        <v>0.7276923</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="2">
-        <v>43172</v>
-      </c>
-      <c r="B367">
-        <v>255</v>
-      </c>
-      <c r="C367">
-        <v>0.2553846</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="2">
-        <v>43172</v>
-      </c>
-      <c r="B368">
-        <v>255</v>
-      </c>
-      <c r="C368">
-        <v>0.3553846</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369" s="2">
-        <v>43174</v>
-      </c>
-      <c r="B369">
-        <v>257</v>
-      </c>
-      <c r="C369">
-        <v>0.6492308</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="2">
-        <v>43175</v>
-      </c>
-      <c r="B370">
-        <v>258</v>
-      </c>
-      <c r="C370">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="2">
-        <v>43176</v>
-      </c>
-      <c r="B371">
-        <v>259</v>
-      </c>
-      <c r="C371">
-        <v>0.4476923</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372" s="2">
-        <v>43176</v>
-      </c>
-      <c r="B372">
-        <v>259</v>
-      </c>
-      <c r="C372">
-        <v>0.4461538</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="2">
-        <v>43176</v>
-      </c>
-      <c r="B373">
-        <v>259</v>
-      </c>
-      <c r="C373">
-        <v>0.4233871</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="2">
-        <v>43177</v>
-      </c>
-      <c r="B374">
-        <v>260</v>
-      </c>
-      <c r="C374">
-        <v>0.4324324</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="2">
-        <v>43177</v>
-      </c>
-      <c r="B375">
-        <v>260</v>
-      </c>
-      <c r="C375">
-        <v>0.4230769</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" s="2">
-        <v>43178</v>
-      </c>
-      <c r="B376">
-        <v>261</v>
-      </c>
-      <c r="C376">
-        <v>0.3315927</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377" s="2">
-        <v>43179</v>
-      </c>
-      <c r="B377">
-        <v>262</v>
-      </c>
-      <c r="C377">
-        <v>0.2222222</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="2">
-        <v>43179</v>
-      </c>
-      <c r="B378">
-        <v>262</v>
-      </c>
-      <c r="C378">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="2">
-        <v>43180</v>
-      </c>
-      <c r="B379">
-        <v>263</v>
-      </c>
-      <c r="C379">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380" s="2">
-        <v>43182</v>
-      </c>
-      <c r="B380">
-        <v>265</v>
-      </c>
-      <c r="C380">
-        <v>0.3189655</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="2">
-        <v>43184</v>
-      </c>
-      <c r="B381">
-        <v>267</v>
-      </c>
-      <c r="C381">
-        <v>0.5327586</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="2">
-        <v>43184</v>
-      </c>
-      <c r="B382">
-        <v>267</v>
-      </c>
-      <c r="C382">
-        <v>0.5327586</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="2">
-        <v>43184</v>
-      </c>
-      <c r="B383">
-        <v>267</v>
-      </c>
-      <c r="C383">
-        <v>0.3948276</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="2">
-        <v>43185</v>
-      </c>
-      <c r="B384">
-        <v>268</v>
-      </c>
-      <c r="C384">
-        <v>0.6365385</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="2">
-        <v>43185</v>
-      </c>
-      <c r="B385">
-        <v>268</v>
-      </c>
-      <c r="C385">
-        <v>0.6365385</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="2">
-        <v>43185</v>
-      </c>
-      <c r="B386">
-        <v>268</v>
-      </c>
-      <c r="C386">
-        <v>0.4423077</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="2">
-        <v>43189</v>
-      </c>
-      <c r="B387">
-        <v>272</v>
-      </c>
-      <c r="C387">
-        <v>0.3615385</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="A388" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B388">
-        <v>274</v>
-      </c>
-      <c r="C388">
-        <v>0.5545315</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
-      <c r="A389" s="2">
-        <v>43192</v>
-      </c>
-      <c r="B389">
-        <v>275</v>
-      </c>
-      <c r="C389">
-        <v>0.2489362</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
-      <c r="A390" s="2">
-        <v>43193</v>
-      </c>
-      <c r="B390">
-        <v>276</v>
-      </c>
-      <c r="C390">
-        <v>0.3021277</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
-      <c r="A391" s="2">
-        <v>43195</v>
-      </c>
-      <c r="B391">
-        <v>278</v>
-      </c>
-      <c r="C391">
-        <v>0.3319149</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="A392" s="2">
-        <v>43197</v>
-      </c>
-      <c r="B392">
-        <v>280</v>
-      </c>
-      <c r="C392">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
-      <c r="A393" s="2">
-        <v>43197</v>
-      </c>
-      <c r="B393">
-        <v>280</v>
-      </c>
-      <c r="C393">
-        <v>0.5489362</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="2">
-        <v>43198</v>
-      </c>
-      <c r="B394">
-        <v>281</v>
-      </c>
-      <c r="C394">
-        <v>0.4148936</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="2">
-        <v>43199</v>
-      </c>
-      <c r="B395">
-        <v>282</v>
-      </c>
-      <c r="C395">
-        <v>0.2581395</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="A396" s="2">
-        <v>43204</v>
-      </c>
-      <c r="B396">
-        <v>287</v>
-      </c>
-      <c r="C396">
-        <v>0.2488372</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="2">
-        <v>43205</v>
-      </c>
-      <c r="B397">
-        <v>288</v>
-      </c>
-      <c r="C397">
-        <v>0.3465116</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="2">
-        <v>43206</v>
-      </c>
-      <c r="B398">
-        <v>289</v>
-      </c>
-      <c r="C398">
-        <v>0.5324324</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="A399" s="2">
-        <v>43206</v>
-      </c>
-      <c r="B399">
-        <v>289</v>
-      </c>
-      <c r="C399">
-        <v>0.3783784</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" s="2">
-        <v>43207</v>
-      </c>
-      <c r="B400">
-        <v>290</v>
-      </c>
-      <c r="C400">
-        <v>0.2486486</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="2">
-        <v>43207</v>
-      </c>
-      <c r="B401">
-        <v>290</v>
-      </c>
-      <c r="C401">
-        <v>0.2918919</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="2">
-        <v>43212</v>
-      </c>
-      <c r="B402">
-        <v>295</v>
-      </c>
-      <c r="C402">
-        <v>0.3162162</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="2">
-        <v>43226</v>
-      </c>
-      <c r="B403">
-        <v>309</v>
-      </c>
-      <c r="C403">
-        <v>0.1967742</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="A404" s="2">
-        <v>43232</v>
-      </c>
-      <c r="B404">
-        <v>315</v>
-      </c>
-      <c r="C404">
-        <v>0.2571429</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="A405" s="2">
-        <v>43233</v>
-      </c>
-      <c r="B405">
-        <v>316</v>
-      </c>
-      <c r="C405">
-        <v>0.2785714</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
-      <c r="A406" s="2">
-        <v>43233</v>
-      </c>
-      <c r="B406">
-        <v>316</v>
-      </c>
-      <c r="C406">
-        <v>0.1214286</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="A407" s="2">
-        <v>43234</v>
-      </c>
-      <c r="B407">
-        <v>317</v>
-      </c>
-      <c r="C407">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408" s="2">
-        <v>43234</v>
-      </c>
-      <c r="B408">
-        <v>317</v>
-      </c>
-      <c r="C408">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="A409" s="2">
-        <v>43235</v>
-      </c>
-      <c r="B409">
-        <v>318</v>
-      </c>
-      <c r="C409">
         <v>0.216</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
-      <c r="A410" s="2">
-        <v>43235</v>
-      </c>
-      <c r="B410">
-        <v>318</v>
-      </c>
-      <c r="C410">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="2">
-        <v>43237</v>
-      </c>
-      <c r="B411">
-        <v>320</v>
-      </c>
-      <c r="C411">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="2">
-        <v>43264</v>
-      </c>
-      <c r="B412">
-        <v>347</v>
-      </c>
-      <c r="C412">
-        <v>0.1173913</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -1,52 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>days</t>
+    <t xml:space="preserve">datetimeStamp</t>
   </si>
   <si>
-    <t>kcp</t>
+    <t xml:space="preserve">days</t>
   </si>
   <si>
-    <t>datetimeStamp</t>
+    <t xml:space="preserve">kcp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,4224 +80,3980 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>42934</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>0.1168831</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>42934</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>0.0649351</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>0.1321045</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>0.1029186</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>0.0552995</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>0.1382488</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>42935</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>0.1029186</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>42936</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>0.1478261</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>42941</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>42945</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>42946</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>0.148</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>42946</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>0.148</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>42953</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>0.176</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>42954</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>0.1735849</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>42955</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>0.1773585</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>42957</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>0.1660377</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>42959</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>0.1584906</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>42966</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>42966</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>0.1299639</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>42966</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>0.1444043</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>42967</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>42967</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C23">
-        <v>0.07142859999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="C23" s="0" t="n">
+        <v>0.0714286</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>42968</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>0.1502347</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>42969</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>0.1428571</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>42969</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>0.1428571</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>42970</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C27">
-        <v>0.08267720000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="C27" s="0" t="n">
+        <v>0.0826772</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>42970</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>0.0748031</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>42970</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>0.1417323</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>42971</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>0.095679</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>42971</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>0.132716</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>42971</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>0.0833333</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>42971</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>0.154321</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>42974</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>0.1223529</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>42975</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>0.1435185</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>42975</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>0.1689815</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>42977</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C37">
-        <v>0.09370199999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+      <c r="C37" s="0" t="n">
+        <v>0.093702</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>42977</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>0.1490015</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>42977</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>0.1353712</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>0.1382353</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>42978</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>0.1585903</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>0.1082474</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>0.1134021</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>42980</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>0.0852878</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>42980</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>0.0746269</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>42981</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>0.1150685</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>42981</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>0.0678295</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>42981</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>0.1342466</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>42982</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>0.0525452</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>42986</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>0.0592885</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>42986</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>0.1205479</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>42987</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>0.1138015</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>42987</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>0.1138015</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>42988</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>42988</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C55">
-        <v>0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
+      <c r="C55" s="0" t="n">
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>42989</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>0.1225</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>42989</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>0.1387755</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>42989</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>0.0816327</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>42990</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>0.1170213</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>42990</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>42990</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>0.0664894</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>0.1428571</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>0.1463415</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>0.1289199</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>0.1325</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>42992</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>0.0522648</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>42993</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>0.1055276</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>42993</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>42993</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>0.1356784</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>42993</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>42994</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>0.1119792</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>42994</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>0.0546875</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>42994</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>0.09375</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>42994</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>0.0833333</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>42995</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>0.114094</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>42995</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C77">
-        <v>0.09843399999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2">
+      <c r="C77" s="0" t="n">
+        <v>0.098434</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>42996</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>0.1389474</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>42996</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>0.1305263</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>42997</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>0.1052632</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>42998</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>0.0894942</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>42998</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>0.1011673</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>42998</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>0.0564202</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>42999</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>0.0671141</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C85">
-        <v>0.09328359999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2">
+      <c r="C85" s="0" t="n">
+        <v>0.0932836</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>0.125</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>0.1231343</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>43001</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>0.087156</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>43001</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>0.1386364</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>43001</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C90">
-        <v>0.07954550000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2">
+      <c r="C90" s="0" t="n">
+        <v>0.0795455</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>43001</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C91">
-        <v>0.07568809999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2">
+      <c r="C91" s="0" t="n">
+        <v>0.0756881</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>43002</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>0.0982143</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>43002</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>0.1416667</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>43002</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>0.0982143</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>43002</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>0.1041667</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
         <v>43002</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>43003</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>0.1166667</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>43004</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>0.0806452</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
         <v>43004</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>0.0846774</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>43005</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>0.1354167</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
         <v>43006</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>0.143508</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
         <v>43006</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>0.0888383</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
         <v>43006</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>0.0797267</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
         <v>43006</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>0.0842825</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
         <v>43006</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>0.0637813</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
         <v>43007</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C106">
-        <v>0.09487180000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2">
+      <c r="C106" s="0" t="n">
+        <v>0.0948718</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
         <v>43007</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C107">
-        <v>0.08461539999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2">
+      <c r="C107" s="0" t="n">
+        <v>0.0846154</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
         <v>43007</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C108">
-        <v>0.07435899999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2">
+      <c r="C108" s="0" t="n">
+        <v>0.074359</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
         <v>43007</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>0.1384615</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>0.1168539</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>0.0808989</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>0.0651685</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>0.10625</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0" t="n">
         <v>0.0887681</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0" t="n">
         <v>0.192029</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0" t="n">
         <v>0.1584906</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0" t="n">
         <v>0.209434</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
         <v>43010</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0" t="n">
         <v>0.1278863</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
         <v>43010</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0" t="n">
         <v>0.1047957</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
         <v>43010</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0" t="n">
         <v>0.1119005</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
         <v>43010</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0" t="n">
         <v>0.1332149</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
         <v>43011</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0" t="n">
         <v>0.1716981</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
         <v>43011</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0" t="n">
         <v>0.2207547</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
         <v>43011</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0" t="n">
         <v>0.1773585</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0" t="n">
         <v>0.2188679</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0" t="n">
         <v>0.1811321</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0" t="n">
         <v>0.1886792</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0" t="n">
         <v>0.2188679</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
         <v>43012</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0" t="n">
         <v>0.2075472</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
         <v>43013</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0" t="n">
         <v>0.1660377</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
         <v>43013</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0" t="n">
         <v>0.1003135</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
         <v>43013</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0" t="n">
         <v>0.1584906</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
         <v>43013</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0" t="n">
         <v>0.1264151</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
         <v>43013</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0" t="n">
         <v>0.1245283</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
         <v>43014</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0" t="n">
         <v>0.1301887</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
         <v>43014</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0" t="n">
         <v>0.2150943</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
         <v>43014</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0" t="n">
         <v>0.1283019</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
         <v>43015</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0" t="n">
         <v>0.1735849</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
         <v>43015</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0" t="n">
         <v>0.2113208</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
         <v>43015</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0" t="n">
         <v>0.1528302</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
         <v>43018</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0" t="n">
         <v>0.1603448</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
         <v>43018</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0" t="n">
         <v>0.1868932</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
         <v>43018</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0" t="n">
         <v>0.1966019</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
         <v>43018</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0" t="n">
         <v>0.2160194</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
         <v>43018</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0" t="n">
         <v>0.2135922</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0" t="n">
         <v>0.1218962</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0" t="n">
         <v>0.221219</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0" t="n">
         <v>0.1828442</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0" t="n">
         <v>0.2189616</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0" t="n">
         <v>0.1828442</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0" t="n">
         <v>0.2034483</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
         <v>43019</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0" t="n">
         <v>0.2206897</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0" t="n">
         <v>0.1902655</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0" t="n">
         <v>0.1438053</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0" t="n">
         <v>0.1637168</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0" t="n">
         <v>0.1913793</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0" t="n">
         <v>0.0862832</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
         <v>43020</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0" t="n">
         <v>0.1836283</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
         <v>43021</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0" t="n">
         <v>0.1029412</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
         <v>43021</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0" t="n">
         <v>0.1268382</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
         <v>43021</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0" t="n">
         <v>0.1943888</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
         <v>43021</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0" t="n">
         <v>0.1709559</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
         <v>43023</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0" t="n">
         <v>0.2152174</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
         <v>43034</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0" t="n">
         <v>0.2209738</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
         <v>43035</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0" t="n">
         <v>0.1889764</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
         <v>43035</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0" t="n">
         <v>0.1102362</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
         <v>43036</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0" t="n">
         <v>0.1635434</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
         <v>43036</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0" t="n">
         <v>0.2197615</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
         <v>43037</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0" t="n">
         <v>0.1295082</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
         <v>43037</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0" t="n">
         <v>0.1918033</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
         <v>43038</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0" t="n">
         <v>0.1632653</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
         <v>43038</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0" t="n">
         <v>0.1271586</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0" t="n">
         <v>0.4084778</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0" t="n">
         <v>0.2909441</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
         <v>43042</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0" t="n">
         <v>0.4079174</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
         <v>43043</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0" t="n">
         <v>0.3365617</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
         <v>43045</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0" t="n">
         <v>0.2684211</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
         <v>43045</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0" t="n">
         <v>0.4322679</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
         <v>43046</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0" t="n">
         <v>0.3858025</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
         <v>43048</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0" t="n">
         <v>0.2670025</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
         <v>43050</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0" t="n">
         <v>0.3634615</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
         <v>43050</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0" t="n">
         <v>0.3115385</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
         <v>43053</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0" t="n">
         <v>0.293617</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
         <v>43053</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0" t="n">
         <v>0.2340426</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
         <v>43059</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0" t="n">
         <v>0.4166667</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
         <v>43062</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0" t="n">
         <v>0.3317647</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
         <v>43063</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0" t="n">
         <v>0.3843352</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
         <v>43063</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0" t="n">
         <v>0.420765</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
         <v>43064</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0" t="n">
         <v>0.2682927</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
         <v>43065</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0" t="n">
         <v>0.2015385</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
         <v>43066</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0" t="n">
         <v>0.2534992</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
         <v>43066</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0" t="n">
         <v>0.2192846</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
         <v>43067</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0" t="n">
         <v>0.223565</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0" t="n">
         <v>0.6959459</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0" t="n">
         <v>0.2972973</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
         <v>43071</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0" t="n">
         <v>0.7166667</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
         <v>43072</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0" t="n">
         <v>0.4964539</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
         <v>43073</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0" t="n">
         <v>0.5882353</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
         <v>43073</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0" t="n">
         <v>0.4278075</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
         <v>43073</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0" t="n">
         <v>0.3114447</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
         <v>43073</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0" t="n">
         <v>0.315197</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
         <v>43074</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0" t="n">
         <v>0.2943662</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
         <v>43076</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0" t="n">
         <v>0.3286445</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="n">
         <v>43078</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0" t="n">
         <v>0.325811</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
         <v>43079</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0" t="n">
         <v>0.6240713</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="n">
         <v>43080</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0" t="n">
         <v>0.6033183</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="n">
         <v>43083</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="C207">
-        <v>0.5813952999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2">
+      <c r="C207" s="0" t="n">
+        <v>0.5813953</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="n">
         <v>43087</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0" t="n">
         <v>0.7378917</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="n">
         <v>43088</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0" t="n">
         <v>0.2971429</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="n">
         <v>43088</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0" t="n">
         <v>0.4428571</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="n">
         <v>43089</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="C211">
-        <v>0.6165311999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2">
+      <c r="C211" s="0" t="n">
+        <v>0.6165312</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
         <v>43090</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="C212">
-        <v>0.6850829000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2">
+      <c r="C212" s="0" t="n">
+        <v>0.6850829</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
         <v>43090</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0" t="n">
         <v>0.5082873</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
         <v>43093</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0" t="n">
         <v>0.3267717</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
         <v>43095</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0" t="n">
         <v>0.4008942</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="2">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
         <v>43095</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0" t="n">
         <v>0.4053651</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
         <v>43096</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0" t="n">
         <v>0.4193548</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="n">
         <v>43096</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0" t="n">
         <v>0.3533026</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="2">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="n">
         <v>43098</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0" t="n">
         <v>0.3410138</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="2">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
         <v>43099</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0" t="n">
         <v>0.2560241</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
         <v>43102</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0" t="n">
         <v>0.2651685</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="2">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
         <v>43104</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0" t="n">
         <v>0.4351266</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="2">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
         <v>43104</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0" t="n">
         <v>0.5784574</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="2">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
         <v>43106</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0" t="n">
         <v>0.3456221</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="2">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
         <v>43108</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0" t="n">
         <v>0.4853933</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="2">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
         <v>43109</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0" t="n">
         <v>0.4695122</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="2">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
         <v>43111</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0" t="n">
         <v>0.45875</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="2">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
         <v>43113</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0" t="n">
         <v>0.4134831</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="2">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
         <v>43113</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0" t="n">
         <v>0.4494382</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="2">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
         <v>43113</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0" t="n">
         <v>0.2617978</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="2">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
         <v>43114</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0" t="n">
         <v>0.3317972</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="2">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
         <v>43115</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0" t="n">
         <v>0.5258427</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="2">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
         <v>43115</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0" t="n">
         <v>0.4966292</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="2">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
         <v>43115</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0" t="n">
         <v>0.6528777</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="2">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
         <v>43120</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0" t="n">
         <v>0.7097744</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="2">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
         <v>43120</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0" t="n">
         <v>0.7443609</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="2">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
         <v>43121</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0" t="n">
         <v>0.3660856</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="2">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
         <v>43122</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0" t="n">
         <v>0.4602273</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="2">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
         <v>43124</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0" t="n">
         <v>0.4965909</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="2">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
         <v>43124</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0" t="n">
         <v>0.2931818</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="2">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
         <v>43125</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0" t="n">
         <v>0.7441077</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="2">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
         <v>43126</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0" t="n">
         <v>0.5483871</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="2">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
         <v>43126</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0" t="n">
         <v>0.5683564</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="2">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
         <v>43127</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0" t="n">
         <v>0.6898305</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="2">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
         <v>43127</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0" t="n">
         <v>0.5355932</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="2">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
         <v>43127</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0" t="n">
         <v>0.4020979</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="2">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
         <v>43127</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0" t="n">
         <v>0.3723776</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="2">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
         <v>43127</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0" t="n">
         <v>0.3636364</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="2">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
         <v>43128</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0" t="n">
         <v>0.3010753</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="2">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
         <v>43128</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0" t="n">
         <v>0.3379416</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="2">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
         <v>43129</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0" t="n">
         <v>0.3114943</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="2">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0" t="n">
         <v>0.4448276</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="2">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0" t="n">
         <v>0.2920792</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="2">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0" t="n">
         <v>0.3333333</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="2">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
         <v>43133</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0" t="n">
         <v>0.3642241</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="2">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
         <v>43134</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0" t="n">
         <v>0.3359746</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="2">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
         <v>43134</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0" t="n">
         <v>0.5736926</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="2">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
         <v>43134</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0" t="n">
         <v>0.3898574</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="2">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
         <v>43136</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0" t="n">
         <v>0.4891008</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="2">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
         <v>43136</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0" t="n">
         <v>0.7030995</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="2">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
         <v>43137</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0" t="n">
         <v>0.5582524</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="2">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
         <v>43137</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="C262">
-        <v>0.7281552999999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="2">
+      <c r="C262" s="0" t="n">
+        <v>0.7281553</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
         <v>43137</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="C263">
-        <v>0.5022971000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="2">
+      <c r="C263" s="0" t="n">
+        <v>0.5022971</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0" t="n">
         <v>0.5253682</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="2">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="C265">
-        <v>0.6666666999999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="2">
+      <c r="C265" s="0" t="n">
+        <v>0.6666667</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0" t="n">
         <v>0.5548282</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="2">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
         <v>43140</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="C267">
-        <v>0.7040998000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="2">
+      <c r="C267" s="0" t="n">
+        <v>0.7040998</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
         <v>43142</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0" t="n">
         <v>0.3435294</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="2">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
         <v>43142</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0" t="n">
         <v>0.518851</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="2">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
         <v>43142</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0" t="n">
         <v>0.5717647</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="2">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
         <v>43145</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0" t="n">
         <v>0.326506</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="2">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
         <v>43145</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0" t="n">
         <v>0.3771084</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="2">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
         <v>43148</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0" t="n">
         <v>0.560241</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="2">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
         <v>43148</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0" t="n">
         <v>0.3180723</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="2">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
         <v>43148</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0" t="n">
         <v>0.4963855</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="2">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
         <v>43149</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0" t="n">
         <v>0.2771084</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="2">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
         <v>43149</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0" t="n">
         <v>0.4421687</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="2">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
         <v>43149</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0" t="n">
         <v>0.2746988</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="2">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
         <v>43150</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0" t="n">
         <v>0.28125</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="2">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0" t="n">
         <v>0.32</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="2">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0" t="n">
         <v>0.26625</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="2">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0" t="n">
         <v>0.7485822</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="2">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
         <v>43153</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0" t="n">
         <v>0.35375</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="2">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
         <v>43153</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="C284">
-        <v>0.5287500000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="2">
+      <c r="C284" s="0" t="n">
+        <v>0.52875</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
         <v>43154</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0" t="n">
         <v>0.2725</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="2">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
         <v>43155</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0" t="n">
         <v>0.35125</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="2">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
         <v>43156</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0" t="n">
         <v>0.28125</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="2">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
         <v>43156</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0" t="n">
         <v>0.2875</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="2">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
         <v>43157</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0" t="n">
         <v>0.26</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="2">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
         <v>43157</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0" t="n">
         <v>0.3013333</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="2">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0" t="n">
         <v>0.3213333</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="2">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
         <v>43163</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0" t="n">
         <v>0.5293333</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="2">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
         <v>43163</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0" t="n">
         <v>0.26</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="2">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0" t="n">
         <v>0.51</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="2">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0" t="n">
         <v>0.5242857</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="2">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="0" t="n">
         <v>0.3071429</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="2">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
         <v>43166</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="0" t="n">
         <v>0.6469003</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="2">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
         <v>43168</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="0" t="n">
         <v>0.4814286</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="2">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
         <v>43170</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="0" t="n">
         <v>0.4885714</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="2">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
         <v>43170</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="0" t="n">
         <v>0.4328571</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="2">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="0" t="n">
         <v>0.2569231</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="2">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="0" t="n">
         <v>0.4215385</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="2">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="0" t="n">
         <v>0.7276923</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="2">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="0" t="n">
         <v>0.5707692</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="2">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
         <v>43172</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="0" t="n">
         <v>0.3553846</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="2">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
         <v>43172</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="0" t="n">
         <v>0.2553846</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="2">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
         <v>43174</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="0" t="n">
         <v>0.6492308</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="2">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
         <v>43175</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="0" t="n">
         <v>0.403397</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="2">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
         <v>43175</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="0" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="2">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
         <v>43176</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="0" t="n">
         <v>0.4461538</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="2">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
         <v>43176</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="0" t="n">
         <v>0.4476923</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="2">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
         <v>43176</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="0" t="n">
         <v>0.4233871</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="2">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
         <v>43177</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="0" t="n">
         <v>0.4324324</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="2">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
         <v>43177</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="0" t="n">
         <v>0.4230769</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="2">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
         <v>43178</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="0" t="n">
         <v>0.3315927</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="2">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
         <v>43179</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="0" t="n">
         <v>0.2491909</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="2">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
         <v>43179</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="0" t="n">
         <v>0.55</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="2">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
         <v>43180</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="0" t="n">
         <v>0.55</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="2">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
         <v>43182</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="0" t="n">
         <v>0.7155172</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="2">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
         <v>43182</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="0" t="n">
         <v>0.3189655</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="2">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
         <v>43184</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="0" t="n">
         <v>0.3948276</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="2">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
         <v>43184</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="0" t="n">
         <v>0.5327586</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="2">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
         <v>43185</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="0" t="n">
         <v>0.4423077</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="2">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
         <v>43185</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="0" t="n">
         <v>0.6365385</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="2">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
         <v>43187</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="0" t="n">
         <v>0.5961538</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="2">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
         <v>43188</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="0" t="n">
         <v>0.2966752</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="2">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="0" t="n">
         <v>0.4217252</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="2">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="0" t="n">
         <v>0.3615385</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="2">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="0" t="n">
         <v>0.4538462</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="2">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="0" t="n">
         <v>0.204</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="2">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="0" t="n">
         <v>0.5545315</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="2">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
         <v>43192</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="0" t="n">
         <v>0.3382979</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="2">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
         <v>43193</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="0" t="n">
         <v>0.3021277</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="2">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
         <v>43195</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="0" t="n">
         <v>0.3319149</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="2">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
         <v>43197</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="0" t="n">
         <v>0.5927602</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="2">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
         <v>43197</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="0" t="n">
         <v>0.2808511</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="2">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
         <v>43197</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="2">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
         <v>43197</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="0" t="n">
         <v>0.5489362</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="2">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
         <v>43198</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="0" t="n">
         <v>0.4148936</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="2">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
         <v>43204</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="0" t="n">
         <v>0.2488372</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="2">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
         <v>43205</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="0" t="n">
         <v>0.3465116</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="2">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
         <v>43206</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="0" t="n">
         <v>0.5324324</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="2">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
         <v>43206</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="0" t="n">
         <v>0.3783784</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="2">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
         <v>43207</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="0" t="n">
         <v>0.2486486</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="2">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
         <v>43212</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="0" t="n">
         <v>0.3162162</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="2">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
         <v>43224</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="0" t="n">
         <v>0.2258065</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="2">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
         <v>43226</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="0" t="n">
         <v>309</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="0" t="n">
         <v>0.1967742</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="2">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
         <v>43231</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="0" t="n">
         <v>0.2357143</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="2">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
         <v>43232</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="0" t="n">
         <v>0.2571429</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="2">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
         <v>43233</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="0" t="n">
         <v>0.2785714</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="2">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
         <v>43234</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="0" t="n">
         <v>0.188</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="2">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
         <v>43235</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="0" t="n">
         <v>0.216</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="2">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="0" t="n">
         <v>0.216</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -1,74 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">datetimeStamp</t>
+    <t>days</t>
   </si>
   <si>
-    <t xml:space="preserve">days</t>
+    <t>kcp</t>
   </si>
   <si>
-    <t xml:space="preserve">kcp</t>
+    <t>datetimeStamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,3980 +58,4224 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
         <v>42934</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>0.1168831</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
         <v>42934</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>0.0649351</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
         <v>42935</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0.1321045</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>42935</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>0.1029186</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>42935</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>0.0552995</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>42935</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>0.1382488</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>42935</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>0.1029186</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>42936</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>0.1478261</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>42941</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>42945</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>28</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>42946</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0.148</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>42946</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0.148</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>42953</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>0.176</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>42954</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>37</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0.1735849</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>42955</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>38</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>0.1773585</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>42957</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>40</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>0.1660377</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>42959</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>42</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>0.1584906</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>42966</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>49</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>42966</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>49</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>0.1299639</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>42966</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>49</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>0.1444043</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>42967</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>42967</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>50</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>0.0714286</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="C23">
+        <v>0.07142859999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>42968</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>51</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>0.1502347</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>42969</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>52</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>0.1428571</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>42969</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>52</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>0.1428571</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>42970</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>53</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>0.0826772</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="C27">
+        <v>0.08267720000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>42970</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>53</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>0.0748031</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>42970</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>53</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>0.1417323</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>42971</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>54</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>0.095679</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>42971</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>54</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>0.132716</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>42971</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>54</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>0.0833333</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>42971</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>54</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>0.154321</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>42974</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>57</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>0.1223529</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>42975</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>58</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>0.1435185</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>42975</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>58</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>0.1689815</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>42977</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>60</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>0.093702</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="C37">
+        <v>0.09370199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>42977</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>60</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>0.1490015</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>42977</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>60</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>0.1353712</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>42978</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>61</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>0.1382353</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>42978</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>61</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>0.1585903</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>42979</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>62</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>0.1082474</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>42979</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>62</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>0.1134021</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>42980</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>63</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>0.0852878</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>42980</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>63</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>0.0746269</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>42981</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>64</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>0.1150685</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>42981</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>64</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>0.0678295</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>42981</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>64</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>0.1342466</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>42982</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>65</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>0.0525452</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>42986</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>69</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>0.0592885</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>42986</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>69</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>0.1205479</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
         <v>42987</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>70</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>0.1138015</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>42987</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>70</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>0.1138015</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>42988</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>71</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>0.14</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
         <v>42988</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>71</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>0.085</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="C55">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
         <v>42989</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>72</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>0.1225</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
         <v>42989</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>72</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>0.1387755</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>42989</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>72</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>0.0816327</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
         <v>42990</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>73</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>0.1170213</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
         <v>42990</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>73</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>0.13</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
         <v>42990</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61">
         <v>73</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>0.0664894</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
         <v>42992</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62">
         <v>75</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>0.12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>42992</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63">
         <v>75</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>0.1428571</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>42992</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64">
         <v>75</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>0.1463415</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
         <v>42992</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65">
         <v>75</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>0.1289199</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
         <v>42992</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66">
         <v>75</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>0.1325</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
         <v>42992</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67">
         <v>75</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>0.0522648</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
         <v>42993</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68">
         <v>76</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>0.1055276</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
         <v>42993</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69">
         <v>76</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>0.11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
         <v>42993</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70">
         <v>76</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>0.1356784</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
         <v>42993</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71">
         <v>76</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>0.13</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
         <v>42994</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72">
         <v>77</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>0.1119792</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
         <v>42994</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73">
         <v>77</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>0.0546875</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
         <v>42994</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74">
         <v>77</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>0.09375</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
         <v>42994</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75">
         <v>77</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>0.0833333</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
         <v>42995</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76">
         <v>78</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>0.114094</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
         <v>42995</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77">
         <v>78</v>
       </c>
-      <c r="C77" s="0" t="n">
-        <v>0.098434</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+      <c r="C77">
+        <v>0.09843399999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
         <v>42996</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78">
         <v>79</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>0.1389474</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
         <v>42996</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79">
         <v>79</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>0.1305263</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
         <v>42997</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80">
         <v>80</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>0.1052632</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
         <v>42998</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81">
         <v>81</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>0.0894942</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
         <v>42998</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>0.1011673</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
         <v>42998</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>0.0564202</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
         <v>42999</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>0.0671141</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
         <v>43000</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>0.0932836</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+      <c r="C85">
+        <v>0.09328359999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
         <v>43000</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86">
         <v>83</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>0.125</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
         <v>43000</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87">
         <v>83</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>0.1231343</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
         <v>43001</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88">
         <v>84</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>0.087156</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
         <v>43001</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89">
         <v>84</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>0.1386364</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
         <v>43001</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90">
         <v>84</v>
       </c>
-      <c r="C90" s="0" t="n">
-        <v>0.0795455</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+      <c r="C90">
+        <v>0.07954550000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
         <v>43001</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91">
         <v>84</v>
       </c>
-      <c r="C91" s="0" t="n">
-        <v>0.0756881</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+      <c r="C91">
+        <v>0.07568809999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
         <v>43002</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92">
         <v>85</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>0.0982143</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
         <v>43002</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93">
         <v>85</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>0.1416667</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
         <v>43002</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94">
         <v>85</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>0.0982143</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
         <v>43002</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95">
         <v>85</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>0.1041667</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
         <v>43002</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96">
         <v>85</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>0.15</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
         <v>43003</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97">
         <v>86</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>0.1166667</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
         <v>43004</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98">
         <v>87</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>0.0806452</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
         <v>43004</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99">
         <v>87</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>0.0846774</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
         <v>43005</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100">
         <v>88</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>0.1354167</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
         <v>43006</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101">
         <v>89</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>0.143508</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
         <v>43006</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102">
         <v>89</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>0.0888383</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
         <v>43006</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103">
         <v>89</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>0.0797267</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
         <v>43006</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104">
         <v>89</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>0.0842825</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
         <v>43006</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>89</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>0.0637813</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
         <v>43007</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106">
         <v>90</v>
       </c>
-      <c r="C106" s="0" t="n">
-        <v>0.0948718</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+      <c r="C106">
+        <v>0.09487180000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
         <v>43007</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107">
         <v>90</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>0.0846154</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+      <c r="C107">
+        <v>0.08461539999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
         <v>43007</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108">
         <v>90</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>0.074359</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+      <c r="C108">
+        <v>0.07435899999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
         <v>43007</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109">
         <v>90</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109">
         <v>0.1384615</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
         <v>43008</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110">
         <v>91</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>0.1168539</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
         <v>43008</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111">
         <v>91</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>0.0808989</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
         <v>43008</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112">
         <v>91</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>0.0651685</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
         <v>43008</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113">
         <v>91</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>0.10625</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
         <v>43009</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114">
         <v>92</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>0.0887681</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
         <v>43009</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115">
         <v>92</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115">
         <v>0.192029</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
         <v>43009</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116">
         <v>92</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116">
         <v>0.1584906</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
         <v>43009</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117">
         <v>92</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>0.209434</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
         <v>43010</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118">
         <v>93</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>0.1278863</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
         <v>43010</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119">
         <v>93</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119">
         <v>0.1047957</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
         <v>43010</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120">
         <v>93</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120">
         <v>0.1119005</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
         <v>43010</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121">
         <v>93</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>0.1332149</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
         <v>43011</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122">
         <v>94</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>0.1716981</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
         <v>43011</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123">
         <v>94</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>0.2207547</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
         <v>43011</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124">
         <v>94</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>0.1773585</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
         <v>43012</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125">
         <v>95</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>0.2188679</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
         <v>43012</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126">
         <v>95</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>0.1811321</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
         <v>43012</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127">
         <v>95</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>0.1886792</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
         <v>43012</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128">
         <v>95</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>0.2188679</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
         <v>43012</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129">
         <v>95</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>0.2075472</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
         <v>43013</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130">
         <v>96</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130">
         <v>0.1660377</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
         <v>43013</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131">
         <v>96</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>0.1003135</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
         <v>43013</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132">
         <v>96</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>0.1584906</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
         <v>43013</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133">
         <v>96</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133">
         <v>0.1264151</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
         <v>43013</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134">
         <v>96</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134">
         <v>0.1245283</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
         <v>43014</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135">
         <v>97</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>0.1301887</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
         <v>43014</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136">
         <v>97</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136">
         <v>0.2150943</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
         <v>43014</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137">
         <v>97</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137">
         <v>0.1283019</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
         <v>43015</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138">
         <v>98</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>0.1735849</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
         <v>43015</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139">
         <v>98</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>0.2113208</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
         <v>43015</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140">
         <v>98</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140">
         <v>0.1528302</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
         <v>43018</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141">
         <v>101</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141">
         <v>0.1603448</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
         <v>43018</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142">
         <v>101</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142">
         <v>0.1868932</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
         <v>43018</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143">
         <v>101</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143">
         <v>0.1966019</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
         <v>43018</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144">
         <v>101</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144">
         <v>0.2160194</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
         <v>43018</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145">
         <v>101</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145">
         <v>0.2135922</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
         <v>43019</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146">
         <v>102</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146">
         <v>0.1218962</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
         <v>43019</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147">
         <v>102</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147">
         <v>0.221219</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
         <v>43019</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148">
         <v>102</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148">
         <v>0.1828442</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
         <v>43019</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149">
         <v>102</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149">
         <v>0.2189616</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
         <v>43019</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150">
         <v>102</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150">
         <v>0.1828442</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
         <v>43019</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151">
         <v>102</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151">
         <v>0.2034483</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
         <v>43019</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152">
         <v>102</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152">
         <v>0.2206897</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
         <v>43020</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153">
         <v>103</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153">
         <v>0.1902655</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
         <v>43020</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154">
         <v>103</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154">
         <v>0.1438053</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
         <v>43020</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155">
         <v>103</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155">
         <v>0.1637168</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
         <v>43020</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156">
         <v>103</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156">
         <v>0.1913793</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
         <v>43020</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157">
         <v>103</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157">
         <v>0.0862832</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
         <v>43020</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158">
         <v>103</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158">
         <v>0.1836283</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
         <v>43021</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159">
         <v>104</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159">
         <v>0.1029412</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
         <v>43021</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160">
         <v>104</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160">
         <v>0.1268382</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
         <v>43021</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161">
         <v>104</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161">
         <v>0.1943888</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
         <v>43021</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162">
         <v>104</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162">
         <v>0.1709559</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
         <v>43023</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163">
         <v>106</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163">
         <v>0.2152174</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>43034</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164">
         <v>117</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164">
         <v>0.2209738</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
         <v>43035</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165">
         <v>118</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165">
         <v>0.1889764</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
         <v>43035</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166">
         <v>118</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166">
         <v>0.1102362</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
         <v>43036</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167">
         <v>119</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167">
         <v>0.1635434</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
         <v>43036</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168">
         <v>119</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168">
         <v>0.2197615</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
         <v>43037</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169">
         <v>120</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169">
         <v>0.1295082</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
         <v>43037</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170">
         <v>120</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170">
         <v>0.1918033</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
         <v>43038</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171">
         <v>121</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171">
         <v>0.1632653</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
         <v>43038</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172">
         <v>121</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172">
         <v>0.1271586</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
         <v>43040</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173">
         <v>123</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173">
         <v>0.4084778</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
         <v>43040</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174">
         <v>123</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174">
         <v>0.2909441</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
         <v>43042</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175">
         <v>125</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175">
         <v>0.4079174</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
         <v>43043</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176">
         <v>126</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176">
         <v>0.3365617</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
         <v>43045</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177">
         <v>128</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177">
         <v>0.2684211</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
         <v>43045</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178">
         <v>128</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178">
         <v>0.4322679</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
         <v>43046</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179">
         <v>129</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179">
         <v>0.3858025</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
         <v>43048</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180">
         <v>131</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180">
         <v>0.2670025</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
         <v>43050</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181">
         <v>133</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181">
         <v>0.3634615</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
         <v>43050</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182">
         <v>133</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182">
         <v>0.3115385</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
         <v>43053</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183">
         <v>136</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183">
         <v>0.293617</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
         <v>43053</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184">
         <v>136</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184">
         <v>0.2340426</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
         <v>43059</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185">
         <v>142</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185">
         <v>0.4166667</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
         <v>43062</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186">
         <v>145</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186">
         <v>0.3317647</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
         <v>43063</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187">
         <v>146</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187">
         <v>0.3843352</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
         <v>43063</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188">
         <v>146</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188">
         <v>0.420765</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
         <v>43064</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189">
         <v>147</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189">
         <v>0.2682927</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
         <v>43065</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190">
         <v>148</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190">
         <v>0.2015385</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
         <v>43066</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191">
         <v>149</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191">
         <v>0.2534992</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
         <v>43066</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192">
         <v>149</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192">
         <v>0.2192846</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
         <v>43067</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193">
         <v>150</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193">
         <v>0.223565</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
         <v>43070</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194">
         <v>153</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194">
         <v>0.6959459</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
         <v>43070</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195">
         <v>153</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195">
         <v>0.2972973</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
         <v>43071</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196">
         <v>154</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196">
         <v>0.7166667</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
         <v>43072</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197">
         <v>155</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197">
         <v>0.4964539</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
         <v>43073</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198">
         <v>156</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198">
         <v>0.5882353</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
         <v>43073</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199">
         <v>156</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199">
         <v>0.4278075</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
         <v>43073</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200">
         <v>156</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200">
         <v>0.3114447</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
         <v>43073</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201">
         <v>156</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201">
         <v>0.315197</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
         <v>43074</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202">
         <v>157</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202">
         <v>0.2943662</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
         <v>43076</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203">
         <v>159</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203">
         <v>0.3286445</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
         <v>43078</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204">
         <v>161</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204">
         <v>0.325811</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
         <v>43079</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205">
         <v>162</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205">
         <v>0.6240713</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
         <v>43080</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206">
         <v>163</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206">
         <v>0.6033183</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
         <v>43083</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207">
         <v>166</v>
       </c>
-      <c r="C207" s="0" t="n">
-        <v>0.5813953</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="n">
+      <c r="C207">
+        <v>0.5813952999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
         <v>43087</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208">
         <v>170</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208">
         <v>0.7378917</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
         <v>43088</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209">
         <v>171</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209">
         <v>0.2971429</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
         <v>43088</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210">
         <v>171</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210">
         <v>0.4428571</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
         <v>43089</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211">
         <v>172</v>
       </c>
-      <c r="C211" s="0" t="n">
-        <v>0.6165312</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="n">
+      <c r="C211">
+        <v>0.6165311999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
         <v>43090</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212">
         <v>173</v>
       </c>
-      <c r="C212" s="0" t="n">
-        <v>0.6850829</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="n">
+      <c r="C212">
+        <v>0.6850829000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
         <v>43090</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213">
         <v>173</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213">
         <v>0.5082873</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
         <v>43093</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214">
         <v>176</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214">
         <v>0.3267717</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
         <v>43095</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215">
         <v>178</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215">
         <v>0.4008942</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
         <v>43095</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216">
         <v>178</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216">
         <v>0.4053651</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
         <v>43096</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217">
         <v>179</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217">
         <v>0.4193548</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
         <v>43096</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218">
         <v>179</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218">
         <v>0.3533026</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
         <v>43098</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219">
         <v>181</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219">
         <v>0.3410138</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
         <v>43099</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220">
         <v>182</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C220">
         <v>0.2560241</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
         <v>43102</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221">
         <v>185</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C221">
         <v>0.2651685</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
         <v>43104</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222">
         <v>187</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C222">
         <v>0.4351266</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
         <v>43104</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223">
         <v>187</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223">
         <v>0.5784574</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
         <v>43106</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B224">
         <v>189</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C224">
         <v>0.3456221</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
         <v>43108</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B225">
         <v>191</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C225">
         <v>0.4853933</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
         <v>43109</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B226">
         <v>192</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C226">
         <v>0.4695122</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
         <v>43111</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227">
         <v>194</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C227">
         <v>0.45875</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
         <v>43113</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228">
         <v>196</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C228">
         <v>0.4134831</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
         <v>43113</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229">
         <v>196</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C229">
         <v>0.4494382</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
         <v>43113</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B230">
         <v>196</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C230">
         <v>0.2617978</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
         <v>43114</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B231">
         <v>197</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C231">
         <v>0.3317972</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
         <v>43115</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B232">
         <v>198</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C232">
         <v>0.5258427</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
         <v>43115</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B233">
         <v>198</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C233">
         <v>0.4966292</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
         <v>43115</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B234">
         <v>198</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C234">
         <v>0.6528777</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
         <v>43120</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B235">
         <v>203</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C235">
         <v>0.7097744</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
         <v>43120</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B236">
         <v>203</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C236">
         <v>0.7443609</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
         <v>43121</v>
       </c>
-      <c r="B237" s="0" t="n">
+      <c r="B237">
         <v>204</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C237">
         <v>0.3660856</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
         <v>43122</v>
       </c>
-      <c r="B238" s="0" t="n">
+      <c r="B238">
         <v>205</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C238">
         <v>0.4602273</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
         <v>43124</v>
       </c>
-      <c r="B239" s="0" t="n">
+      <c r="B239">
         <v>207</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C239">
         <v>0.4965909</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
         <v>43124</v>
       </c>
-      <c r="B240" s="0" t="n">
+      <c r="B240">
         <v>207</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C240">
         <v>0.2931818</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
         <v>43125</v>
       </c>
-      <c r="B241" s="0" t="n">
+      <c r="B241">
         <v>208</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C241">
         <v>0.7441077</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
         <v>43126</v>
       </c>
-      <c r="B242" s="0" t="n">
+      <c r="B242">
         <v>209</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C242">
         <v>0.5483871</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
         <v>43126</v>
       </c>
-      <c r="B243" s="0" t="n">
+      <c r="B243">
         <v>209</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C243">
         <v>0.5683564</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
         <v>43127</v>
       </c>
-      <c r="B244" s="0" t="n">
+      <c r="B244">
         <v>210</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C244">
         <v>0.6898305</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
         <v>43127</v>
       </c>
-      <c r="B245" s="0" t="n">
+      <c r="B245">
         <v>210</v>
       </c>
-      <c r="C245" s="0" t="n">
+      <c r="C245">
         <v>0.5355932</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
         <v>43127</v>
       </c>
-      <c r="B246" s="0" t="n">
+      <c r="B246">
         <v>210</v>
       </c>
-      <c r="C246" s="0" t="n">
+      <c r="C246">
         <v>0.4020979</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
         <v>43127</v>
       </c>
-      <c r="B247" s="0" t="n">
+      <c r="B247">
         <v>210</v>
       </c>
-      <c r="C247" s="0" t="n">
+      <c r="C247">
         <v>0.3723776</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
         <v>43127</v>
       </c>
-      <c r="B248" s="0" t="n">
+      <c r="B248">
         <v>210</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C248">
         <v>0.3636364</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
         <v>43128</v>
       </c>
-      <c r="B249" s="0" t="n">
+      <c r="B249">
         <v>211</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C249">
         <v>0.3010753</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
         <v>43128</v>
       </c>
-      <c r="B250" s="0" t="n">
+      <c r="B250">
         <v>211</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C250">
         <v>0.3379416</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
         <v>43129</v>
       </c>
-      <c r="B251" s="0" t="n">
+      <c r="B251">
         <v>212</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C251">
         <v>0.3114943</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
         <v>43131</v>
       </c>
-      <c r="B252" s="0" t="n">
+      <c r="B252">
         <v>214</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252">
         <v>0.4448276</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
         <v>43132</v>
       </c>
-      <c r="B253" s="0" t="n">
+      <c r="B253">
         <v>215</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253">
         <v>0.2920792</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
         <v>43132</v>
       </c>
-      <c r="B254" s="0" t="n">
+      <c r="B254">
         <v>215</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254">
         <v>0.3333333</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
         <v>43133</v>
       </c>
-      <c r="B255" s="0" t="n">
+      <c r="B255">
         <v>216</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255">
         <v>0.3642241</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
         <v>43134</v>
       </c>
-      <c r="B256" s="0" t="n">
+      <c r="B256">
         <v>217</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256">
         <v>0.3359746</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
         <v>43134</v>
       </c>
-      <c r="B257" s="0" t="n">
+      <c r="B257">
         <v>217</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257">
         <v>0.5736926</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
         <v>43134</v>
       </c>
-      <c r="B258" s="0" t="n">
+      <c r="B258">
         <v>217</v>
       </c>
-      <c r="C258" s="0" t="n">
+      <c r="C258">
         <v>0.3898574</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
         <v>43136</v>
       </c>
-      <c r="B259" s="0" t="n">
+      <c r="B259">
         <v>219</v>
       </c>
-      <c r="C259" s="0" t="n">
+      <c r="C259">
         <v>0.4891008</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
         <v>43136</v>
       </c>
-      <c r="B260" s="0" t="n">
+      <c r="B260">
         <v>219</v>
       </c>
-      <c r="C260" s="0" t="n">
+      <c r="C260">
         <v>0.7030995</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
         <v>43137</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B261">
         <v>220</v>
       </c>
-      <c r="C261" s="0" t="n">
+      <c r="C261">
         <v>0.5582524</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
         <v>43137</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B262">
         <v>220</v>
       </c>
-      <c r="C262" s="0" t="n">
-        <v>0.7281553</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="n">
+      <c r="C262">
+        <v>0.7281552999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
         <v>43137</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B263">
         <v>220</v>
       </c>
-      <c r="C263" s="0" t="n">
-        <v>0.5022971</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="n">
+      <c r="C263">
+        <v>0.5022971000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
         <v>43138</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B264">
         <v>221</v>
       </c>
-      <c r="C264" s="0" t="n">
+      <c r="C264">
         <v>0.5253682</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
         <v>43138</v>
       </c>
-      <c r="B265" s="0" t="n">
+      <c r="B265">
         <v>221</v>
       </c>
-      <c r="C265" s="0" t="n">
-        <v>0.6666667</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="n">
+      <c r="C265">
+        <v>0.6666666999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
         <v>43138</v>
       </c>
-      <c r="B266" s="0" t="n">
+      <c r="B266">
         <v>221</v>
       </c>
-      <c r="C266" s="0" t="n">
+      <c r="C266">
         <v>0.5548282</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
         <v>43140</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B267">
         <v>223</v>
       </c>
-      <c r="C267" s="0" t="n">
-        <v>0.7040998</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="n">
+      <c r="C267">
+        <v>0.7040998000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
         <v>43142</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B268">
         <v>225</v>
       </c>
-      <c r="C268" s="0" t="n">
+      <c r="C268">
         <v>0.3435294</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
         <v>43142</v>
       </c>
-      <c r="B269" s="0" t="n">
+      <c r="B269">
         <v>225</v>
       </c>
-      <c r="C269" s="0" t="n">
+      <c r="C269">
         <v>0.518851</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
         <v>43142</v>
       </c>
-      <c r="B270" s="0" t="n">
+      <c r="B270">
         <v>225</v>
       </c>
-      <c r="C270" s="0" t="n">
+      <c r="C270">
         <v>0.5717647</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
         <v>43145</v>
       </c>
-      <c r="B271" s="0" t="n">
+      <c r="B271">
         <v>228</v>
       </c>
-      <c r="C271" s="0" t="n">
+      <c r="C271">
         <v>0.326506</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
         <v>43145</v>
       </c>
-      <c r="B272" s="0" t="n">
+      <c r="B272">
         <v>228</v>
       </c>
-      <c r="C272" s="0" t="n">
+      <c r="C272">
         <v>0.3771084</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
         <v>43148</v>
       </c>
-      <c r="B273" s="0" t="n">
+      <c r="B273">
         <v>231</v>
       </c>
-      <c r="C273" s="0" t="n">
+      <c r="C273">
         <v>0.560241</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
         <v>43148</v>
       </c>
-      <c r="B274" s="0" t="n">
+      <c r="B274">
         <v>231</v>
       </c>
-      <c r="C274" s="0" t="n">
+      <c r="C274">
         <v>0.3180723</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
         <v>43148</v>
       </c>
-      <c r="B275" s="0" t="n">
+      <c r="B275">
         <v>231</v>
       </c>
-      <c r="C275" s="0" t="n">
+      <c r="C275">
         <v>0.4963855</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
         <v>43149</v>
       </c>
-      <c r="B276" s="0" t="n">
+      <c r="B276">
         <v>232</v>
       </c>
-      <c r="C276" s="0" t="n">
+      <c r="C276">
         <v>0.2771084</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
         <v>43149</v>
       </c>
-      <c r="B277" s="0" t="n">
+      <c r="B277">
         <v>232</v>
       </c>
-      <c r="C277" s="0" t="n">
+      <c r="C277">
         <v>0.4421687</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
         <v>43149</v>
       </c>
-      <c r="B278" s="0" t="n">
+      <c r="B278">
         <v>232</v>
       </c>
-      <c r="C278" s="0" t="n">
+      <c r="C278">
         <v>0.2746988</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
         <v>43150</v>
       </c>
-      <c r="B279" s="0" t="n">
+      <c r="B279">
         <v>233</v>
       </c>
-      <c r="C279" s="0" t="n">
+      <c r="C279">
         <v>0.28125</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
         <v>43152</v>
       </c>
-      <c r="B280" s="0" t="n">
+      <c r="B280">
         <v>235</v>
       </c>
-      <c r="C280" s="0" t="n">
+      <c r="C280">
         <v>0.32</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
         <v>43152</v>
       </c>
-      <c r="B281" s="0" t="n">
+      <c r="B281">
         <v>235</v>
       </c>
-      <c r="C281" s="0" t="n">
+      <c r="C281">
         <v>0.26625</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
         <v>43152</v>
       </c>
-      <c r="B282" s="0" t="n">
+      <c r="B282">
         <v>235</v>
       </c>
-      <c r="C282" s="0" t="n">
+      <c r="C282">
         <v>0.7485822</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
         <v>43153</v>
       </c>
-      <c r="B283" s="0" t="n">
+      <c r="B283">
         <v>236</v>
       </c>
-      <c r="C283" s="0" t="n">
+      <c r="C283">
         <v>0.35375</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
         <v>43153</v>
       </c>
-      <c r="B284" s="0" t="n">
+      <c r="B284">
         <v>236</v>
       </c>
-      <c r="C284" s="0" t="n">
-        <v>0.52875</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="n">
+      <c r="C284">
+        <v>0.5287500000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
         <v>43154</v>
       </c>
-      <c r="B285" s="0" t="n">
+      <c r="B285">
         <v>237</v>
       </c>
-      <c r="C285" s="0" t="n">
+      <c r="C285">
         <v>0.2725</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
         <v>43155</v>
       </c>
-      <c r="B286" s="0" t="n">
+      <c r="B286">
         <v>238</v>
       </c>
-      <c r="C286" s="0" t="n">
+      <c r="C286">
         <v>0.35125</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
         <v>43156</v>
       </c>
-      <c r="B287" s="0" t="n">
+      <c r="B287">
         <v>239</v>
       </c>
-      <c r="C287" s="0" t="n">
+      <c r="C287">
         <v>0.28125</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
         <v>43156</v>
       </c>
-      <c r="B288" s="0" t="n">
+      <c r="B288">
         <v>239</v>
       </c>
-      <c r="C288" s="0" t="n">
+      <c r="C288">
         <v>0.2875</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
         <v>43157</v>
       </c>
-      <c r="B289" s="0" t="n">
+      <c r="B289">
         <v>240</v>
       </c>
-      <c r="C289" s="0" t="n">
+      <c r="C289">
         <v>0.26</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
         <v>43157</v>
       </c>
-      <c r="B290" s="0" t="n">
+      <c r="B290">
         <v>240</v>
       </c>
-      <c r="C290" s="0" t="n">
+      <c r="C290">
         <v>0.3013333</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
         <v>43159</v>
       </c>
-      <c r="B291" s="0" t="n">
+      <c r="B291">
         <v>242</v>
       </c>
-      <c r="C291" s="0" t="n">
+      <c r="C291">
         <v>0.3213333</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
         <v>43163</v>
       </c>
-      <c r="B292" s="0" t="n">
+      <c r="B292">
         <v>246</v>
       </c>
-      <c r="C292" s="0" t="n">
+      <c r="C292">
         <v>0.5293333</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
         <v>43163</v>
       </c>
-      <c r="B293" s="0" t="n">
+      <c r="B293">
         <v>246</v>
       </c>
-      <c r="C293" s="0" t="n">
+      <c r="C293">
         <v>0.26</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
         <v>43164</v>
       </c>
-      <c r="B294" s="0" t="n">
+      <c r="B294">
         <v>247</v>
       </c>
-      <c r="C294" s="0" t="n">
+      <c r="C294">
         <v>0.51</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
         <v>43164</v>
       </c>
-      <c r="B295" s="0" t="n">
+      <c r="B295">
         <v>247</v>
       </c>
-      <c r="C295" s="0" t="n">
+      <c r="C295">
         <v>0.5242857</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
         <v>43164</v>
       </c>
-      <c r="B296" s="0" t="n">
+      <c r="B296">
         <v>247</v>
       </c>
-      <c r="C296" s="0" t="n">
+      <c r="C296">
         <v>0.3071429</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
         <v>43166</v>
       </c>
-      <c r="B297" s="0" t="n">
+      <c r="B297">
         <v>249</v>
       </c>
-      <c r="C297" s="0" t="n">
+      <c r="C297">
         <v>0.6469003</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
         <v>43168</v>
       </c>
-      <c r="B298" s="0" t="n">
+      <c r="B298">
         <v>251</v>
       </c>
-      <c r="C298" s="0" t="n">
+      <c r="C298">
         <v>0.4814286</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
         <v>43170</v>
       </c>
-      <c r="B299" s="0" t="n">
+      <c r="B299">
         <v>253</v>
       </c>
-      <c r="C299" s="0" t="n">
+      <c r="C299">
         <v>0.4885714</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
         <v>43170</v>
       </c>
-      <c r="B300" s="0" t="n">
+      <c r="B300">
         <v>253</v>
       </c>
-      <c r="C300" s="0" t="n">
+      <c r="C300">
         <v>0.4328571</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
         <v>43171</v>
       </c>
-      <c r="B301" s="0" t="n">
+      <c r="B301">
         <v>254</v>
       </c>
-      <c r="C301" s="0" t="n">
+      <c r="C301">
         <v>0.2569231</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
         <v>43171</v>
       </c>
-      <c r="B302" s="0" t="n">
+      <c r="B302">
         <v>254</v>
       </c>
-      <c r="C302" s="0" t="n">
+      <c r="C302">
         <v>0.4215385</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
         <v>43171</v>
       </c>
-      <c r="B303" s="0" t="n">
+      <c r="B303">
         <v>254</v>
       </c>
-      <c r="C303" s="0" t="n">
+      <c r="C303">
         <v>0.7276923</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
         <v>43171</v>
       </c>
-      <c r="B304" s="0" t="n">
+      <c r="B304">
         <v>254</v>
       </c>
-      <c r="C304" s="0" t="n">
+      <c r="C304">
         <v>0.5707692</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
         <v>43172</v>
       </c>
-      <c r="B305" s="0" t="n">
+      <c r="B305">
         <v>255</v>
       </c>
-      <c r="C305" s="0" t="n">
+      <c r="C305">
         <v>0.3553846</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
         <v>43172</v>
       </c>
-      <c r="B306" s="0" t="n">
+      <c r="B306">
         <v>255</v>
       </c>
-      <c r="C306" s="0" t="n">
+      <c r="C306">
         <v>0.2553846</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
         <v>43174</v>
       </c>
-      <c r="B307" s="0" t="n">
+      <c r="B307">
         <v>257</v>
       </c>
-      <c r="C307" s="0" t="n">
+      <c r="C307">
         <v>0.6492308</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
         <v>43175</v>
       </c>
-      <c r="B308" s="0" t="n">
+      <c r="B308">
         <v>258</v>
       </c>
-      <c r="C308" s="0" t="n">
+      <c r="C308">
         <v>0.403397</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
         <v>43175</v>
       </c>
-      <c r="B309" s="0" t="n">
+      <c r="B309">
         <v>258</v>
       </c>
-      <c r="C309" s="0" t="n">
+      <c r="C309">
         <v>0.6</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
         <v>43176</v>
       </c>
-      <c r="B310" s="0" t="n">
+      <c r="B310">
         <v>259</v>
       </c>
-      <c r="C310" s="0" t="n">
+      <c r="C310">
         <v>0.4461538</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
         <v>43176</v>
       </c>
-      <c r="B311" s="0" t="n">
+      <c r="B311">
         <v>259</v>
       </c>
-      <c r="C311" s="0" t="n">
+      <c r="C311">
         <v>0.4476923</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
         <v>43176</v>
       </c>
-      <c r="B312" s="0" t="n">
+      <c r="B312">
         <v>259</v>
       </c>
-      <c r="C312" s="0" t="n">
+      <c r="C312">
         <v>0.4233871</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
         <v>43177</v>
       </c>
-      <c r="B313" s="0" t="n">
+      <c r="B313">
         <v>260</v>
       </c>
-      <c r="C313" s="0" t="n">
+      <c r="C313">
         <v>0.4324324</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
         <v>43177</v>
       </c>
-      <c r="B314" s="0" t="n">
+      <c r="B314">
         <v>260</v>
       </c>
-      <c r="C314" s="0" t="n">
+      <c r="C314">
         <v>0.4230769</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
         <v>43178</v>
       </c>
-      <c r="B315" s="0" t="n">
+      <c r="B315">
         <v>261</v>
       </c>
-      <c r="C315" s="0" t="n">
+      <c r="C315">
         <v>0.3315927</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
         <v>43179</v>
       </c>
-      <c r="B316" s="0" t="n">
+      <c r="B316">
         <v>262</v>
       </c>
-      <c r="C316" s="0" t="n">
+      <c r="C316">
         <v>0.2491909</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
         <v>43179</v>
       </c>
-      <c r="B317" s="0" t="n">
+      <c r="B317">
         <v>262</v>
       </c>
-      <c r="C317" s="0" t="n">
+      <c r="C317">
         <v>0.55</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
         <v>43180</v>
       </c>
-      <c r="B318" s="0" t="n">
+      <c r="B318">
         <v>263</v>
       </c>
-      <c r="C318" s="0" t="n">
+      <c r="C318">
         <v>0.55</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
         <v>43182</v>
       </c>
-      <c r="B319" s="0" t="n">
+      <c r="B319">
         <v>265</v>
       </c>
-      <c r="C319" s="0" t="n">
+      <c r="C319">
         <v>0.7155172</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
         <v>43182</v>
       </c>
-      <c r="B320" s="0" t="n">
+      <c r="B320">
         <v>265</v>
       </c>
-      <c r="C320" s="0" t="n">
+      <c r="C320">
         <v>0.3189655</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
         <v>43184</v>
       </c>
-      <c r="B321" s="0" t="n">
+      <c r="B321">
         <v>267</v>
       </c>
-      <c r="C321" s="0" t="n">
+      <c r="C321">
         <v>0.3948276</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
         <v>43184</v>
       </c>
-      <c r="B322" s="0" t="n">
+      <c r="B322">
         <v>267</v>
       </c>
-      <c r="C322" s="0" t="n">
+      <c r="C322">
         <v>0.5327586</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
         <v>43185</v>
       </c>
-      <c r="B323" s="0" t="n">
+      <c r="B323">
         <v>268</v>
       </c>
-      <c r="C323" s="0" t="n">
+      <c r="C323">
         <v>0.4423077</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
         <v>43185</v>
       </c>
-      <c r="B324" s="0" t="n">
+      <c r="B324">
         <v>268</v>
       </c>
-      <c r="C324" s="0" t="n">
+      <c r="C324">
         <v>0.6365385</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
         <v>43187</v>
       </c>
-      <c r="B325" s="0" t="n">
+      <c r="B325">
         <v>270</v>
       </c>
-      <c r="C325" s="0" t="n">
+      <c r="C325">
         <v>0.5961538</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
         <v>43188</v>
       </c>
-      <c r="B326" s="0" t="n">
+      <c r="B326">
         <v>271</v>
       </c>
-      <c r="C326" s="0" t="n">
+      <c r="C326">
         <v>0.2966752</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
         <v>43189</v>
       </c>
-      <c r="B327" s="0" t="n">
+      <c r="B327">
         <v>272</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="C327">
         <v>0.4217252</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
         <v>43189</v>
       </c>
-      <c r="B328" s="0" t="n">
+      <c r="B328">
         <v>272</v>
       </c>
-      <c r="C328" s="0" t="n">
+      <c r="C328">
         <v>0.3615385</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
         <v>43189</v>
       </c>
-      <c r="B329" s="0" t="n">
+      <c r="B329">
         <v>272</v>
       </c>
-      <c r="C329" s="0" t="n">
+      <c r="C329">
         <v>0.4538462</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
         <v>43190</v>
       </c>
-      <c r="B330" s="0" t="n">
+      <c r="B330">
         <v>273</v>
       </c>
-      <c r="C330" s="0" t="n">
+      <c r="C330">
         <v>0.204</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
         <v>43191</v>
       </c>
-      <c r="B331" s="0" t="n">
+      <c r="B331">
         <v>274</v>
       </c>
-      <c r="C331" s="0" t="n">
+      <c r="C331">
         <v>0.5545315</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
         <v>43192</v>
       </c>
-      <c r="B332" s="0" t="n">
+      <c r="B332">
         <v>275</v>
       </c>
-      <c r="C332" s="0" t="n">
+      <c r="C332">
         <v>0.3382979</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
         <v>43193</v>
       </c>
-      <c r="B333" s="0" t="n">
+      <c r="B333">
         <v>276</v>
       </c>
-      <c r="C333" s="0" t="n">
+      <c r="C333">
         <v>0.3021277</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
         <v>43195</v>
       </c>
-      <c r="B334" s="0" t="n">
+      <c r="B334">
         <v>278</v>
       </c>
-      <c r="C334" s="0" t="n">
+      <c r="C334">
         <v>0.3319149</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
         <v>43197</v>
       </c>
-      <c r="B335" s="0" t="n">
+      <c r="B335">
         <v>280</v>
       </c>
-      <c r="C335" s="0" t="n">
+      <c r="C335">
         <v>0.5927602</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
         <v>43197</v>
       </c>
-      <c r="B336" s="0" t="n">
+      <c r="B336">
         <v>280</v>
       </c>
-      <c r="C336" s="0" t="n">
+      <c r="C336">
         <v>0.2808511</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
         <v>43197</v>
       </c>
-      <c r="B337" s="0" t="n">
+      <c r="B337">
         <v>280</v>
       </c>
-      <c r="C337" s="0" t="n">
+      <c r="C337">
         <v>0.3</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
         <v>43197</v>
       </c>
-      <c r="B338" s="0" t="n">
+      <c r="B338">
         <v>280</v>
       </c>
-      <c r="C338" s="0" t="n">
+      <c r="C338">
         <v>0.5489362</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
         <v>43198</v>
       </c>
-      <c r="B339" s="0" t="n">
+      <c r="B339">
         <v>281</v>
       </c>
-      <c r="C339" s="0" t="n">
+      <c r="C339">
         <v>0.4148936</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
         <v>43204</v>
       </c>
-      <c r="B340" s="0" t="n">
+      <c r="B340">
         <v>287</v>
       </c>
-      <c r="C340" s="0" t="n">
+      <c r="C340">
         <v>0.2488372</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
         <v>43205</v>
       </c>
-      <c r="B341" s="0" t="n">
+      <c r="B341">
         <v>288</v>
       </c>
-      <c r="C341" s="0" t="n">
+      <c r="C341">
         <v>0.3465116</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
         <v>43206</v>
       </c>
-      <c r="B342" s="0" t="n">
+      <c r="B342">
         <v>289</v>
       </c>
-      <c r="C342" s="0" t="n">
+      <c r="C342">
         <v>0.5324324</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
         <v>43206</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B343">
         <v>289</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C343">
         <v>0.3783784</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
         <v>43207</v>
       </c>
-      <c r="B344" s="0" t="n">
+      <c r="B344">
         <v>290</v>
       </c>
-      <c r="C344" s="0" t="n">
+      <c r="C344">
         <v>0.2486486</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
         <v>43212</v>
       </c>
-      <c r="B345" s="0" t="n">
+      <c r="B345">
         <v>295</v>
       </c>
-      <c r="C345" s="0" t="n">
+      <c r="C345">
         <v>0.3162162</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
         <v>43224</v>
       </c>
-      <c r="B346" s="0" t="n">
+      <c r="B346">
         <v>307</v>
       </c>
-      <c r="C346" s="0" t="n">
+      <c r="C346">
         <v>0.2258065</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
         <v>43226</v>
       </c>
-      <c r="B347" s="0" t="n">
+      <c r="B347">
         <v>309</v>
       </c>
-      <c r="C347" s="0" t="n">
+      <c r="C347">
         <v>0.1967742</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
         <v>43231</v>
       </c>
-      <c r="B348" s="0" t="n">
+      <c r="B348">
         <v>314</v>
       </c>
-      <c r="C348" s="0" t="n">
+      <c r="C348">
         <v>0.2357143</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
         <v>43232</v>
       </c>
-      <c r="B349" s="0" t="n">
+      <c r="B349">
         <v>315</v>
       </c>
-      <c r="C349" s="0" t="n">
+      <c r="C349">
         <v>0.2571429</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
         <v>43233</v>
       </c>
-      <c r="B350" s="0" t="n">
+      <c r="B350">
         <v>316</v>
       </c>
-      <c r="C350" s="0" t="n">
+      <c r="C350">
         <v>0.2785714</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
         <v>43234</v>
       </c>
-      <c r="B351" s="0" t="n">
+      <c r="B351">
         <v>317</v>
       </c>
-      <c r="C351" s="0" t="n">
+      <c r="C351">
         <v>0.188</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
         <v>43235</v>
       </c>
-      <c r="B352" s="0" t="n">
+      <c r="B352">
         <v>318</v>
       </c>
-      <c r="C352" s="0" t="n">
+      <c r="C352">
         <v>0.216</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
         <v>43237</v>
       </c>
-      <c r="B353" s="0" t="n">
+      <c r="B353">
         <v>320</v>
       </c>
-      <c r="C353" s="0" t="n">
+      <c r="C353">
         <v>0.216</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,18 +411,18 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.0649351</v>
+        <v>0.1168831</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>0.1168831</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,2306 +433,1503 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>0.1321045</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42935</v>
+        <v>42966</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>0.1029186</v>
+        <v>0.1444043</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42935</v>
+        <v>42966</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>0.0552995</v>
+        <v>0.1299639</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42935</v>
+        <v>42966</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>0.1382488</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42935</v>
+        <v>42967</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>0.1029186</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42966</v>
+        <v>42968</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>0.1299639</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42966</v>
+        <v>42969</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>0.1444043</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42966</v>
+        <v>42969</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.125</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42967</v>
+        <v>42970</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.1417323</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42967</v>
+        <v>42970</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>0.07142859999999999</v>
+        <v>0.08267720000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42968</v>
+        <v>42971</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>0.1502347</v>
+        <v>0.132716</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42969</v>
+        <v>42971</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>0.1428571</v>
+        <v>0.154321</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42969</v>
+        <v>42971</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>0.1428571</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42970</v>
+        <v>42974</v>
       </c>
       <c r="B17">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17">
-        <v>0.1417323</v>
+        <v>0.1223529</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42970</v>
+        <v>42975</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>0.0748031</v>
+        <v>0.1435185</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42970</v>
+        <v>42977</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>0.08267720000000001</v>
+        <v>0.1353712</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42971</v>
+        <v>42977</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>0.132716</v>
+        <v>0.1490015</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42971</v>
+        <v>42977</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>0.154321</v>
+        <v>0.09370199999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42971</v>
+        <v>42979</v>
       </c>
       <c r="B22">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C22">
-        <v>0.0833333</v>
+        <v>0.1082474</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42971</v>
+        <v>42979</v>
       </c>
       <c r="B23">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>0.095679</v>
+        <v>0.1134021</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42974</v>
+        <v>42980</v>
       </c>
       <c r="B24">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>0.1223529</v>
+        <v>0.0746269</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42975</v>
+        <v>42980</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>0.1435185</v>
+        <v>0.0852878</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42975</v>
+        <v>42987</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>0.1689815</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42977</v>
+        <v>42987</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>0.1490015</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42977</v>
+        <v>42989</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C28">
-        <v>0.09370199999999999</v>
+        <v>0.0816327</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42977</v>
+        <v>42990</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C29">
-        <v>0.1353712</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42979</v>
+        <v>42992</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>0.1082474</v>
+        <v>0.1289199</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42979</v>
+        <v>42993</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>0.1134021</v>
+        <v>0.1055276</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42980</v>
+        <v>42994</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C32">
-        <v>0.0746269</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42980</v>
+        <v>42994</v>
       </c>
       <c r="B33">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C33">
-        <v>0.0852878</v>
+        <v>0.0833333</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42981</v>
+        <v>42994</v>
       </c>
       <c r="B34">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C34">
-        <v>0.0678295</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42982</v>
+        <v>42995</v>
       </c>
       <c r="B35">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C35">
-        <v>0.0525452</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42986</v>
+        <v>42995</v>
       </c>
       <c r="B36">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>0.0592885</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42987</v>
+        <v>42996</v>
       </c>
       <c r="B37">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C37">
-        <v>0.1138015</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42987</v>
+        <v>42997</v>
       </c>
       <c r="B38">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C38">
-        <v>0.1138015</v>
+        <v>0.1052632</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42989</v>
+        <v>42998</v>
       </c>
       <c r="B39">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C39">
-        <v>0.1387755</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42989</v>
+        <v>42998</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C40">
-        <v>0.0816327</v>
+        <v>0.0894942</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42990</v>
+        <v>43000</v>
       </c>
       <c r="B41">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C41">
-        <v>0.1170213</v>
+        <v>0.1231343</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42990</v>
+        <v>43000</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C42">
-        <v>0.0664894</v>
+        <v>0.09328359999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42992</v>
+        <v>43001</v>
       </c>
       <c r="B43">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C43">
-        <v>0.0522648</v>
+        <v>0.087156</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42992</v>
+        <v>43001</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C44">
-        <v>0.1463415</v>
+        <v>0.07568809999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="B45">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>0.1428571</v>
+        <v>0.0982143</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42992</v>
+        <v>43002</v>
       </c>
       <c r="B46">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C46">
-        <v>0.1289199</v>
+        <v>0.0982143</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42993</v>
+        <v>43002</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C47">
-        <v>0.1055276</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42993</v>
+        <v>43004</v>
       </c>
       <c r="B48">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C48">
-        <v>0.1356784</v>
+        <v>0.0846774</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42994</v>
+        <v>43004</v>
       </c>
       <c r="B49">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C49">
-        <v>0.0833333</v>
+        <v>0.0806452</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42994</v>
+        <v>43006</v>
       </c>
       <c r="B50">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C50">
-        <v>0.0546875</v>
+        <v>0.0842825</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42994</v>
+        <v>43006</v>
       </c>
       <c r="B51">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C51">
-        <v>0.1119792</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42994</v>
+        <v>43006</v>
       </c>
       <c r="B52">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C52">
-        <v>0.09375</v>
+        <v>0.0797267</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42995</v>
+        <v>43007</v>
       </c>
       <c r="B53">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C53">
-        <v>0.114094</v>
+        <v>0.07435899999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42995</v>
+        <v>43007</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C54">
-        <v>0.09843399999999999</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42996</v>
+        <v>43007</v>
       </c>
       <c r="B55">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C55">
-        <v>0.1305263</v>
+        <v>0.09487180000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42996</v>
+        <v>43008</v>
       </c>
       <c r="B56">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C56">
-        <v>0.1389474</v>
+        <v>0.1168539</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42997</v>
+        <v>43008</v>
       </c>
       <c r="B57">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C57">
-        <v>0.1052632</v>
+        <v>0.0808989</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42998</v>
+        <v>43009</v>
       </c>
       <c r="B58">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C58">
-        <v>0.0894942</v>
+        <v>0.192029</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42998</v>
+        <v>43010</v>
       </c>
       <c r="B59">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C59">
-        <v>0.1011673</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42998</v>
+        <v>43010</v>
       </c>
       <c r="B60">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C60">
-        <v>0.0564202</v>
+        <v>0.1047957</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42999</v>
+        <v>43010</v>
       </c>
       <c r="B61">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C61">
-        <v>0.0671141</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>43000</v>
+        <v>43010</v>
       </c>
       <c r="B62">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C62">
-        <v>0.09328359999999999</v>
+        <v>0.1119005</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>43000</v>
+        <v>43018</v>
       </c>
       <c r="B63">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C63">
-        <v>0.1231343</v>
+        <v>0.1868932</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>43001</v>
+        <v>43019</v>
       </c>
       <c r="B64">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C64">
-        <v>0.087156</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>43001</v>
+        <v>43019</v>
       </c>
       <c r="B65">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C65">
-        <v>0.07568809999999999</v>
+        <v>0.1218962</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>43002</v>
+        <v>43019</v>
       </c>
       <c r="B66">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C66">
-        <v>0.0982143</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>43002</v>
+        <v>43020</v>
       </c>
       <c r="B67">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C67">
-        <v>0.0982143</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>43002</v>
+        <v>43020</v>
       </c>
       <c r="B68">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C68">
-        <v>0.1041667</v>
+        <v>0.1902655</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>43004</v>
+        <v>43020</v>
       </c>
       <c r="B69">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C69">
-        <v>0.0846774</v>
+        <v>0.1836283</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>43004</v>
+        <v>43020</v>
       </c>
       <c r="B70">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C70">
-        <v>0.0806452</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>43006</v>
+        <v>43021</v>
       </c>
       <c r="B71">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C71">
-        <v>0.0797267</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>43006</v>
+        <v>43021</v>
       </c>
       <c r="B72">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C72">
-        <v>0.0842825</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>43006</v>
+        <v>43021</v>
       </c>
       <c r="B73">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C73">
-        <v>0.143508</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>43006</v>
+        <v>43035</v>
       </c>
       <c r="B74">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C74">
-        <v>0.0888383</v>
+        <v>0.1102362</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>43006</v>
+        <v>43035</v>
       </c>
       <c r="B75">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C75">
-        <v>0.0637813</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>43007</v>
+        <v>43036</v>
       </c>
       <c r="B76">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C76">
-        <v>0.08461539999999999</v>
+        <v>0.1635434</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>43007</v>
+        <v>43037</v>
       </c>
       <c r="B77">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C77">
-        <v>0.1384615</v>
+        <v>0.1918033</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>43007</v>
+        <v>43037</v>
       </c>
       <c r="B78">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C78">
-        <v>0.07435899999999999</v>
+        <v>0.1295082</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>43007</v>
+        <v>43038</v>
       </c>
       <c r="B79">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C79">
-        <v>0.09487180000000001</v>
+        <v>0.1271586</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>43008</v>
+        <v>43038</v>
       </c>
       <c r="B80">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C80">
-        <v>0.0651685</v>
+        <v>0.1632653</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>43008</v>
+        <v>43040</v>
       </c>
       <c r="B81">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C81">
-        <v>0.0808989</v>
+        <v>0.2909441</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>43008</v>
+        <v>43043</v>
       </c>
       <c r="B82">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C82">
-        <v>0.1168539</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>43009</v>
+        <v>43046</v>
       </c>
       <c r="B83">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C83">
-        <v>0.0887681</v>
+        <v>0.3858025</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>43009</v>
+        <v>43048</v>
       </c>
       <c r="B84">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C84">
-        <v>0.192029</v>
+        <v>0.2670025</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43010</v>
+        <v>43050</v>
       </c>
       <c r="B85">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C85">
-        <v>0.1119005</v>
+        <v>0.3634615</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43010</v>
+        <v>43050</v>
       </c>
       <c r="B86">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C86">
-        <v>0.1278863</v>
+        <v>0.3115385</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43010</v>
+        <v>43053</v>
       </c>
       <c r="B87">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C87">
-        <v>0.1047957</v>
+        <v>0.2340426</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43010</v>
+        <v>43053</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C88">
-        <v>0.1332149</v>
+        <v>0.293617</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43013</v>
+        <v>43062</v>
       </c>
       <c r="B89">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C89">
-        <v>0.1003135</v>
+        <v>0.3317647</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43018</v>
+        <v>43063</v>
       </c>
       <c r="B90">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C90">
-        <v>0.2135922</v>
+        <v>0.3843352</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43018</v>
+        <v>43064</v>
       </c>
       <c r="B91">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C91">
-        <v>0.1966019</v>
+        <v>0.2682927</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43018</v>
+        <v>43066</v>
       </c>
       <c r="B92">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C92">
-        <v>0.1868932</v>
+        <v>0.2192846</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43018</v>
+        <v>43066</v>
       </c>
       <c r="B93">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C93">
-        <v>0.2160194</v>
+        <v>0.2534992</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43019</v>
+        <v>43067</v>
       </c>
       <c r="B94">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C94">
-        <v>0.1828442</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43019</v>
+        <v>43072</v>
       </c>
       <c r="B95">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C95">
-        <v>0.1218962</v>
+        <v>0.4964539</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43019</v>
+        <v>43073</v>
       </c>
       <c r="B96">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C96">
-        <v>0.1828442</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43019</v>
+        <v>43073</v>
       </c>
       <c r="B97">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C97">
-        <v>0.221219</v>
+        <v>0.315197</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43019</v>
+        <v>43073</v>
       </c>
       <c r="B98">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C98">
-        <v>0.2189616</v>
+        <v>0.5882353</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43020</v>
+        <v>43074</v>
       </c>
       <c r="B99">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C99">
-        <v>0.0862832</v>
+        <v>0.2943662</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43020</v>
+        <v>43079</v>
       </c>
       <c r="B100">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C100">
-        <v>0.1438053</v>
+        <v>0.6240713</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43020</v>
+        <v>43080</v>
       </c>
       <c r="B101">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C101">
-        <v>0.1637168</v>
+        <v>0.6033183</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43020</v>
+        <v>43083</v>
       </c>
       <c r="B102">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="C102">
-        <v>0.1836283</v>
+        <v>0.5813952999999999</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43020</v>
+        <v>43088</v>
       </c>
       <c r="B103">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="C103">
-        <v>0.1902655</v>
+        <v>0.4428571</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43021</v>
+        <v>43088</v>
       </c>
       <c r="B104">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C104">
-        <v>0.1709559</v>
+        <v>0.2971429</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43021</v>
+        <v>43090</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C105">
-        <v>0.1268382</v>
+        <v>0.5082873</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43021</v>
+        <v>43093</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="C106">
-        <v>0.1943888</v>
+        <v>0.3267717</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43021</v>
+        <v>43095</v>
       </c>
       <c r="B107">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="C107">
-        <v>0.1029412</v>
+        <v>0.4053651</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43023</v>
+        <v>43096</v>
       </c>
       <c r="B108">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="C108">
-        <v>0.2152174</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43034</v>
+        <v>43096</v>
       </c>
       <c r="B109">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="C109">
-        <v>0.2209738</v>
+        <v>0.4193548</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43035</v>
+        <v>43098</v>
       </c>
       <c r="B110">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C110">
-        <v>0.1102362</v>
+        <v>0.3410138</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43035</v>
+        <v>43099</v>
       </c>
       <c r="B111">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C111">
-        <v>0.1889764</v>
+        <v>0.2560241</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43036</v>
+        <v>43104</v>
       </c>
       <c r="B112">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C112">
-        <v>0.1635434</v>
+        <v>0.4351266</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43036</v>
+        <v>43104</v>
       </c>
       <c r="B113">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C113">
-        <v>0.2197615</v>
+        <v>0.5784574</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43037</v>
+        <v>43109</v>
       </c>
       <c r="B114">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C114">
-        <v>0.1295082</v>
+        <v>0.4695122</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43037</v>
+        <v>43111</v>
       </c>
       <c r="B115">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="C115">
-        <v>0.1918033</v>
+        <v>0.45875</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43038</v>
+        <v>43114</v>
       </c>
       <c r="B116">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C116">
-        <v>0.1271586</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43038</v>
+        <v>43121</v>
       </c>
       <c r="B117">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="C117">
-        <v>0.1632653</v>
+        <v>0.3660856</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43040</v>
+        <v>43126</v>
       </c>
       <c r="B118">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="C118">
-        <v>0.4084778</v>
+        <v>0.5683564</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43040</v>
+        <v>43126</v>
       </c>
       <c r="B119">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="C119">
-        <v>0.2909441</v>
+        <v>0.5483871</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43042</v>
+        <v>43127</v>
       </c>
       <c r="B120">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="C120">
-        <v>0.4079174</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43043</v>
+        <v>43127</v>
       </c>
       <c r="B121">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="C121">
-        <v>0.3365617</v>
+        <v>0.4020979</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43045</v>
+        <v>43127</v>
       </c>
       <c r="B122">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="C122">
-        <v>0.4322679</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43046</v>
+        <v>43127</v>
       </c>
       <c r="B123">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="C123">
-        <v>0.3858025</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43048</v>
+        <v>43132</v>
       </c>
       <c r="B124">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="C124">
-        <v>0.2670025</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43050</v>
+        <v>43133</v>
       </c>
       <c r="B125">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="C125">
-        <v>0.3115385</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43050</v>
+        <v>43134</v>
       </c>
       <c r="B126">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="C126">
-        <v>0.3634615</v>
+        <v>0.3898574</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43053</v>
+        <v>43134</v>
       </c>
       <c r="B127">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="C127">
-        <v>0.2340426</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43053</v>
+        <v>43134</v>
       </c>
       <c r="B128">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="C128">
-        <v>0.293617</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43059</v>
+        <v>43136</v>
       </c>
       <c r="B129">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="C129">
-        <v>0.4166667</v>
+        <v>0.4891008</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43062</v>
+        <v>43137</v>
       </c>
       <c r="B130">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="C130">
-        <v>0.3317647</v>
+        <v>0.5582524</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43063</v>
+        <v>43137</v>
       </c>
       <c r="B131">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="C131">
-        <v>0.420765</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43063</v>
+        <v>43138</v>
       </c>
       <c r="B132">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="C132">
-        <v>0.3843352</v>
+        <v>0.5548282</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43064</v>
+        <v>43138</v>
       </c>
       <c r="B133">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="C133">
-        <v>0.2682927</v>
+        <v>0.5253682</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43065</v>
+        <v>43142</v>
       </c>
       <c r="B134">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="C134">
-        <v>0.2015385</v>
+        <v>0.518851</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43066</v>
+        <v>43166</v>
       </c>
       <c r="B135">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="C135">
-        <v>0.2192846</v>
+        <v>0.6469003</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43066</v>
+        <v>43175</v>
       </c>
       <c r="B136">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C136">
-        <v>0.2534992</v>
+        <v>0.403397</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43067</v>
+        <v>43176</v>
       </c>
       <c r="B137">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C137">
-        <v>0.223565</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43070</v>
+        <v>43177</v>
       </c>
       <c r="B138">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="C138">
-        <v>0.2972973</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43070</v>
+        <v>43178</v>
       </c>
       <c r="B139">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="C139">
-        <v>0.6959459</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43071</v>
+        <v>43189</v>
       </c>
       <c r="B140">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="C140">
-        <v>0.7166667</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2">
-        <v>43072</v>
-      </c>
-      <c r="B141">
-        <v>155</v>
-      </c>
-      <c r="C141">
-        <v>0.4964539</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
-        <v>43073</v>
-      </c>
-      <c r="B142">
-        <v>156</v>
-      </c>
-      <c r="C142">
-        <v>0.4278075</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
-        <v>43073</v>
-      </c>
-      <c r="B143">
-        <v>156</v>
-      </c>
-      <c r="C143">
-        <v>0.3114447</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2">
-        <v>43073</v>
-      </c>
-      <c r="B144">
-        <v>156</v>
-      </c>
-      <c r="C144">
-        <v>0.315197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2">
-        <v>43073</v>
-      </c>
-      <c r="B145">
-        <v>156</v>
-      </c>
-      <c r="C145">
-        <v>0.5882353</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2">
-        <v>43074</v>
-      </c>
-      <c r="B146">
-        <v>157</v>
-      </c>
-      <c r="C146">
-        <v>0.2943662</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2">
-        <v>43076</v>
-      </c>
-      <c r="B147">
-        <v>159</v>
-      </c>
-      <c r="C147">
-        <v>0.3286445</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2">
-        <v>43078</v>
-      </c>
-      <c r="B148">
-        <v>161</v>
-      </c>
-      <c r="C148">
-        <v>0.325811</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2">
-        <v>43079</v>
-      </c>
-      <c r="B149">
-        <v>162</v>
-      </c>
-      <c r="C149">
-        <v>0.6240713</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2">
-        <v>43080</v>
-      </c>
-      <c r="B150">
-        <v>163</v>
-      </c>
-      <c r="C150">
-        <v>0.6033183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2">
-        <v>43083</v>
-      </c>
-      <c r="B151">
-        <v>166</v>
-      </c>
-      <c r="C151">
-        <v>0.5813952999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2">
-        <v>43087</v>
-      </c>
-      <c r="B152">
-        <v>170</v>
-      </c>
-      <c r="C152">
-        <v>0.7378917</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2">
-        <v>43088</v>
-      </c>
-      <c r="B153">
-        <v>171</v>
-      </c>
-      <c r="C153">
-        <v>0.4428571</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2">
-        <v>43088</v>
-      </c>
-      <c r="B154">
-        <v>171</v>
-      </c>
-      <c r="C154">
-        <v>0.2971429</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2">
-        <v>43089</v>
-      </c>
-      <c r="B155">
-        <v>172</v>
-      </c>
-      <c r="C155">
-        <v>0.6165311999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2">
-        <v>43090</v>
-      </c>
-      <c r="B156">
-        <v>173</v>
-      </c>
-      <c r="C156">
-        <v>0.5082873</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2">
-        <v>43090</v>
-      </c>
-      <c r="B157">
-        <v>173</v>
-      </c>
-      <c r="C157">
-        <v>0.6850829000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2">
-        <v>43093</v>
-      </c>
-      <c r="B158">
-        <v>176</v>
-      </c>
-      <c r="C158">
-        <v>0.3267717</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2">
-        <v>43095</v>
-      </c>
-      <c r="B159">
-        <v>178</v>
-      </c>
-      <c r="C159">
-        <v>0.4008942</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2">
-        <v>43095</v>
-      </c>
-      <c r="B160">
-        <v>178</v>
-      </c>
-      <c r="C160">
-        <v>0.4053651</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2">
-        <v>43096</v>
-      </c>
-      <c r="B161">
-        <v>179</v>
-      </c>
-      <c r="C161">
-        <v>0.4193548</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2">
-        <v>43096</v>
-      </c>
-      <c r="B162">
-        <v>179</v>
-      </c>
-      <c r="C162">
-        <v>0.3533026</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2">
-        <v>43098</v>
-      </c>
-      <c r="B163">
-        <v>181</v>
-      </c>
-      <c r="C163">
-        <v>0.3410138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2">
-        <v>43099</v>
-      </c>
-      <c r="B164">
-        <v>182</v>
-      </c>
-      <c r="C164">
-        <v>0.2560241</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2">
-        <v>43104</v>
-      </c>
-      <c r="B165">
-        <v>187</v>
-      </c>
-      <c r="C165">
-        <v>0.5784574</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2">
-        <v>43104</v>
-      </c>
-      <c r="B166">
-        <v>187</v>
-      </c>
-      <c r="C166">
-        <v>0.4351266</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2">
-        <v>43106</v>
-      </c>
-      <c r="B167">
-        <v>189</v>
-      </c>
-      <c r="C167">
-        <v>0.3456221</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2">
-        <v>43109</v>
-      </c>
-      <c r="B168">
-        <v>192</v>
-      </c>
-      <c r="C168">
-        <v>0.4695122</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2">
-        <v>43111</v>
-      </c>
-      <c r="B169">
-        <v>194</v>
-      </c>
-      <c r="C169">
-        <v>0.45875</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2">
-        <v>43114</v>
-      </c>
-      <c r="B170">
-        <v>197</v>
-      </c>
-      <c r="C170">
-        <v>0.3317972</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2">
-        <v>43115</v>
-      </c>
-      <c r="B171">
-        <v>198</v>
-      </c>
-      <c r="C171">
-        <v>0.6528777</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2">
-        <v>43120</v>
-      </c>
-      <c r="B172">
-        <v>203</v>
-      </c>
-      <c r="C172">
-        <v>0.7097744</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2">
-        <v>43120</v>
-      </c>
-      <c r="B173">
-        <v>203</v>
-      </c>
-      <c r="C173">
-        <v>0.7443609</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2">
-        <v>43121</v>
-      </c>
-      <c r="B174">
-        <v>204</v>
-      </c>
-      <c r="C174">
-        <v>0.3660856</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2">
-        <v>43125</v>
-      </c>
-      <c r="B175">
-        <v>208</v>
-      </c>
-      <c r="C175">
-        <v>0.7441077</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2">
-        <v>43126</v>
-      </c>
-      <c r="B176">
-        <v>209</v>
-      </c>
-      <c r="C176">
-        <v>0.5683564</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2">
-        <v>43126</v>
-      </c>
-      <c r="B177">
-        <v>209</v>
-      </c>
-      <c r="C177">
-        <v>0.5483871</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2">
-        <v>43127</v>
-      </c>
-      <c r="B178">
-        <v>210</v>
-      </c>
-      <c r="C178">
-        <v>0.6898305</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2">
-        <v>43127</v>
-      </c>
-      <c r="B179">
-        <v>210</v>
-      </c>
-      <c r="C179">
-        <v>0.5355932</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2">
-        <v>43127</v>
-      </c>
-      <c r="B180">
-        <v>210</v>
-      </c>
-      <c r="C180">
-        <v>0.3723776</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2">
-        <v>43127</v>
-      </c>
-      <c r="B181">
-        <v>210</v>
-      </c>
-      <c r="C181">
-        <v>0.4020979</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2">
-        <v>43127</v>
-      </c>
-      <c r="B182">
-        <v>210</v>
-      </c>
-      <c r="C182">
-        <v>0.3636364</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2">
-        <v>43128</v>
-      </c>
-      <c r="B183">
-        <v>211</v>
-      </c>
-      <c r="C183">
-        <v>0.3010753</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2">
-        <v>43128</v>
-      </c>
-      <c r="B184">
-        <v>211</v>
-      </c>
-      <c r="C184">
-        <v>0.3379416</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B185">
-        <v>215</v>
-      </c>
-      <c r="C185">
-        <v>0.3333333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B186">
-        <v>215</v>
-      </c>
-      <c r="C186">
-        <v>0.2920792</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2">
-        <v>43133</v>
-      </c>
-      <c r="B187">
-        <v>216</v>
-      </c>
-      <c r="C187">
-        <v>0.3642241</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2">
-        <v>43134</v>
-      </c>
-      <c r="B188">
-        <v>217</v>
-      </c>
-      <c r="C188">
-        <v>0.3898574</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2">
-        <v>43134</v>
-      </c>
-      <c r="B189">
-        <v>217</v>
-      </c>
-      <c r="C189">
-        <v>0.3359746</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2">
-        <v>43134</v>
-      </c>
-      <c r="B190">
-        <v>217</v>
-      </c>
-      <c r="C190">
-        <v>0.5736926</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2">
-        <v>43136</v>
-      </c>
-      <c r="B191">
-        <v>219</v>
-      </c>
-      <c r="C191">
-        <v>0.7030995</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2">
-        <v>43136</v>
-      </c>
-      <c r="B192">
-        <v>219</v>
-      </c>
-      <c r="C192">
-        <v>0.4891008</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2">
-        <v>43137</v>
-      </c>
-      <c r="B193">
-        <v>220</v>
-      </c>
-      <c r="C193">
-        <v>0.5022971000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2">
-        <v>43137</v>
-      </c>
-      <c r="B194">
-        <v>220</v>
-      </c>
-      <c r="C194">
-        <v>0.7281552999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2">
-        <v>43137</v>
-      </c>
-      <c r="B195">
-        <v>220</v>
-      </c>
-      <c r="C195">
-        <v>0.5582524</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2">
-        <v>43138</v>
-      </c>
-      <c r="B196">
-        <v>221</v>
-      </c>
-      <c r="C196">
-        <v>0.5548282</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2">
-        <v>43138</v>
-      </c>
-      <c r="B197">
-        <v>221</v>
-      </c>
-      <c r="C197">
-        <v>0.6666666999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2">
-        <v>43138</v>
-      </c>
-      <c r="B198">
-        <v>221</v>
-      </c>
-      <c r="C198">
-        <v>0.5253682</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B199">
-        <v>223</v>
-      </c>
-      <c r="C199">
-        <v>0.7040998000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2">
-        <v>43142</v>
-      </c>
-      <c r="B200">
-        <v>225</v>
-      </c>
-      <c r="C200">
-        <v>0.518851</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2">
-        <v>43152</v>
-      </c>
-      <c r="B201">
-        <v>235</v>
-      </c>
-      <c r="C201">
-        <v>0.7485822</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2">
-        <v>43166</v>
-      </c>
-      <c r="B202">
-        <v>249</v>
-      </c>
-      <c r="C202">
-        <v>0.6469003</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2">
-        <v>43175</v>
-      </c>
-      <c r="B203">
-        <v>258</v>
-      </c>
-      <c r="C203">
-        <v>0.403397</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2">
-        <v>43176</v>
-      </c>
-      <c r="B204">
-        <v>259</v>
-      </c>
-      <c r="C204">
-        <v>0.4233871</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2">
-        <v>43177</v>
-      </c>
-      <c r="B205">
-        <v>260</v>
-      </c>
-      <c r="C205">
-        <v>0.4324324</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2">
-        <v>43178</v>
-      </c>
-      <c r="B206">
-        <v>261</v>
-      </c>
-      <c r="C206">
-        <v>0.3315927</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2">
-        <v>43179</v>
-      </c>
-      <c r="B207">
-        <v>262</v>
-      </c>
-      <c r="C207">
-        <v>0.2491909</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2">
-        <v>43188</v>
-      </c>
-      <c r="B208">
-        <v>271</v>
-      </c>
-      <c r="C208">
-        <v>0.2966752</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2">
-        <v>43189</v>
-      </c>
-      <c r="B209">
-        <v>272</v>
-      </c>
-      <c r="C209">
         <v>0.4217252</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2">
-        <v>43190</v>
-      </c>
-      <c r="B210">
-        <v>273</v>
-      </c>
-      <c r="C210">
-        <v>0.204</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B211">
-        <v>274</v>
-      </c>
-      <c r="C211">
-        <v>0.5545315</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2">
-        <v>43197</v>
-      </c>
-      <c r="B212">
-        <v>280</v>
-      </c>
-      <c r="C212">
-        <v>0.5927602</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2">
-        <v>43198</v>
-      </c>
-      <c r="B213">
-        <v>281</v>
-      </c>
-      <c r="C213">
-        <v>0.2231076</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,1531 +405,3181 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42934</v>
+        <v>42922</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.1168831</v>
+        <v>0.122449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42935</v>
+        <v>42922</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1029186</v>
+        <v>0.1253644</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42935</v>
+        <v>42923</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.1029186</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42966</v>
+        <v>42923</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.1444043</v>
+        <v>0.1050955</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42966</v>
+        <v>42923</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.1299639</v>
+        <v>0.111465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42966</v>
+        <v>42924</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.125</v>
+        <v>0.1209302</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42967</v>
+        <v>42924</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.15</v>
+        <v>0.1273585</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42968</v>
+        <v>42924</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.1502347</v>
+        <v>0.0790698</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42969</v>
+        <v>42925</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1428571</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42969</v>
+        <v>42926</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1428571</v>
+        <v>0.0847458</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42970</v>
+        <v>42934</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.1417323</v>
+        <v>0.0743494</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42970</v>
+        <v>42935</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.08267720000000001</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42971</v>
+        <v>42935</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>0.132716</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42971</v>
+        <v>42936</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>0.154321</v>
+        <v>0.1209964</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42971</v>
+        <v>42937</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>0.095679</v>
+        <v>0.0693069</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42974</v>
+        <v>42937</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>0.1223529</v>
+        <v>0.0990099</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42975</v>
+        <v>42938</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>0.1435185</v>
+        <v>0.1077694</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42977</v>
+        <v>42939</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>0.1353712</v>
+        <v>0.0695187</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42977</v>
+        <v>42939</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>0.1490015</v>
+        <v>0.1149733</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42977</v>
+        <v>42940</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>0.09370199999999999</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42979</v>
+        <v>42940</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>0.1082474</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42979</v>
+        <v>42940</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>0.1134021</v>
+        <v>0.0988024</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42980</v>
+        <v>42941</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>0.0746269</v>
+        <v>0.1190476</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42980</v>
+        <v>42942</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>0.0852878</v>
+        <v>0.1221374</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42987</v>
+        <v>42942</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0.1138015</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42987</v>
+        <v>42942</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1138015</v>
+        <v>0.0839695</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42989</v>
+        <v>42946</v>
       </c>
       <c r="B28">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>0.0816327</v>
+        <v>0.1030303</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42990</v>
+        <v>42947</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>0.1170213</v>
+        <v>0.0993521</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42992</v>
+        <v>42947</v>
       </c>
       <c r="B30">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>0.1289199</v>
+        <v>0.1187905</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42993</v>
+        <v>42949</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>0.1055276</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42994</v>
+        <v>42949</v>
       </c>
       <c r="B32">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>0.09375</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42994</v>
+        <v>42950</v>
       </c>
       <c r="B33">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>0.0833333</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42994</v>
+        <v>42950</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>0.1119792</v>
+        <v>0.1437908</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42995</v>
+        <v>42951</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>0.09843399999999999</v>
+        <v>0.1472868</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42995</v>
+        <v>42951</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>0.114094</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42996</v>
+        <v>42951</v>
       </c>
       <c r="B37">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>0.1305263</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42997</v>
+        <v>42953</v>
       </c>
       <c r="B38">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>0.1052632</v>
+        <v>0.127551</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42998</v>
+        <v>42954</v>
       </c>
       <c r="B39">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>0.1011673</v>
+        <v>0.1157025</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42998</v>
+        <v>42954</v>
       </c>
       <c r="B40">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>0.0894942</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43000</v>
+        <v>42954</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>0.1231343</v>
+        <v>0.107438</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43000</v>
+        <v>42955</v>
       </c>
       <c r="B42">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>0.09328359999999999</v>
+        <v>0.1172161</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43001</v>
+        <v>42955</v>
       </c>
       <c r="B43">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>0.087156</v>
+        <v>0.09157510000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43001</v>
+        <v>42957</v>
       </c>
       <c r="B44">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>0.07568809999999999</v>
+        <v>0.1348315</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43002</v>
+        <v>42958</v>
       </c>
       <c r="B45">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>0.0982143</v>
+        <v>0.1542289</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43002</v>
+        <v>42959</v>
       </c>
       <c r="B46">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <v>0.0982143</v>
+        <v>0.102439</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43002</v>
+        <v>42961</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>0.1041667</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43004</v>
+        <v>42966</v>
       </c>
       <c r="B48">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>0.0846774</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43004</v>
+        <v>42966</v>
       </c>
       <c r="B49">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C49">
-        <v>0.0806452</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43006</v>
+        <v>42968</v>
       </c>
       <c r="B50">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>0.0842825</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43006</v>
+        <v>42970</v>
       </c>
       <c r="B51">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>0.0888383</v>
+        <v>0.1280488</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43006</v>
+        <v>42970</v>
       </c>
       <c r="B52">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <v>0.0797267</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43007</v>
+        <v>42971</v>
       </c>
       <c r="B53">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C53">
-        <v>0.07435899999999999</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43007</v>
+        <v>42971</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C54">
-        <v>0.08461539999999999</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43007</v>
+        <v>42974</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>0.09487180000000001</v>
+        <v>0.1198157</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43008</v>
+        <v>42975</v>
       </c>
       <c r="B56">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>0.1168539</v>
+        <v>0.1486811</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43008</v>
+        <v>42979</v>
       </c>
       <c r="B57">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>0.0808989</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B58">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>0.192029</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43010</v>
+        <v>42979</v>
       </c>
       <c r="B59">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C59">
-        <v>0.1332149</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43010</v>
+        <v>42980</v>
       </c>
       <c r="B60">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C60">
-        <v>0.1047957</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43010</v>
+        <v>42980</v>
       </c>
       <c r="B61">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C61">
-        <v>0.1278863</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>43010</v>
+        <v>42981</v>
       </c>
       <c r="B62">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C62">
-        <v>0.1119005</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>43018</v>
+        <v>42986</v>
       </c>
       <c r="B63">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>0.1868932</v>
+        <v>0.07853400000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>43019</v>
+        <v>42987</v>
       </c>
       <c r="B64">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C64">
-        <v>0.1828442</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>43019</v>
+        <v>42987</v>
       </c>
       <c r="B65">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>0.1218962</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>43019</v>
+        <v>42987</v>
       </c>
       <c r="B66">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>0.1828442</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>43020</v>
+        <v>42988</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>0.1438053</v>
+        <v>0.1021021</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>43020</v>
+        <v>42989</v>
       </c>
       <c r="B68">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C68">
-        <v>0.1902655</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>43020</v>
+        <v>42989</v>
       </c>
       <c r="B69">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C69">
-        <v>0.1836283</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>43020</v>
+        <v>42990</v>
       </c>
       <c r="B70">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C70">
-        <v>0.1637168</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>43021</v>
+        <v>42992</v>
       </c>
       <c r="B71">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>0.1268382</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>43021</v>
+        <v>42992</v>
       </c>
       <c r="B72">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C72">
-        <v>0.1943888</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>43021</v>
+        <v>42993</v>
       </c>
       <c r="B73">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C73">
-        <v>0.1709559</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>43035</v>
+        <v>42993</v>
       </c>
       <c r="B74">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C74">
-        <v>0.1102362</v>
+        <v>0.0898876</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>43035</v>
+        <v>42993</v>
       </c>
       <c r="B75">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C75">
-        <v>0.1889764</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>43036</v>
+        <v>42994</v>
       </c>
       <c r="B76">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C76">
-        <v>0.1635434</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>43037</v>
+        <v>42994</v>
       </c>
       <c r="B77">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C77">
-        <v>0.1918033</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>43037</v>
+        <v>42994</v>
       </c>
       <c r="B78">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>0.1295082</v>
+        <v>0.1049563</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>43038</v>
+        <v>42995</v>
       </c>
       <c r="B79">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>0.1271586</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>43038</v>
+        <v>42995</v>
       </c>
       <c r="B80">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>0.1632653</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>43040</v>
+        <v>42995</v>
       </c>
       <c r="B81">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C81">
-        <v>0.2909441</v>
+        <v>0.1072261</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>43043</v>
+        <v>42996</v>
       </c>
       <c r="B82">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C82">
-        <v>0.3365617</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>43046</v>
+        <v>42997</v>
       </c>
       <c r="B83">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C83">
-        <v>0.3858025</v>
+        <v>0.08398949999999999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>43048</v>
+        <v>42998</v>
       </c>
       <c r="B84">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C84">
-        <v>0.2670025</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43050</v>
+        <v>42998</v>
       </c>
       <c r="B85">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="C85">
-        <v>0.3634615</v>
+        <v>0.0828829</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43050</v>
+        <v>43000</v>
       </c>
       <c r="B86">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C86">
-        <v>0.3115385</v>
+        <v>0.094697</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43053</v>
+        <v>43000</v>
       </c>
       <c r="B87">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C87">
-        <v>0.2340426</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43053</v>
+        <v>43001</v>
       </c>
       <c r="B88">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C88">
-        <v>0.293617</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43062</v>
+        <v>43001</v>
       </c>
       <c r="B89">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="C89">
-        <v>0.3317647</v>
+        <v>0.08883249999999999</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43063</v>
+        <v>43001</v>
       </c>
       <c r="B90">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C90">
-        <v>0.3843352</v>
+        <v>0.08119659999999999</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43064</v>
+        <v>43002</v>
       </c>
       <c r="B91">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C91">
-        <v>0.2682927</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43066</v>
+        <v>43002</v>
       </c>
       <c r="B92">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C92">
-        <v>0.2192846</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43066</v>
+        <v>43002</v>
       </c>
       <c r="B93">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>0.2534992</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43067</v>
+        <v>43004</v>
       </c>
       <c r="B94">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C94">
-        <v>0.223565</v>
+        <v>0.09905659999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43072</v>
+        <v>43004</v>
       </c>
       <c r="B95">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C95">
-        <v>0.4964539</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43073</v>
+        <v>43006</v>
       </c>
       <c r="B96">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C96">
-        <v>0.4278075</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43073</v>
+        <v>43006</v>
       </c>
       <c r="B97">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C97">
-        <v>0.315197</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43073</v>
+        <v>43006</v>
       </c>
       <c r="B98">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C98">
-        <v>0.5882353</v>
+        <v>0.07805910000000001</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43074</v>
+        <v>43007</v>
       </c>
       <c r="B99">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C99">
-        <v>0.2943662</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43079</v>
+        <v>43007</v>
       </c>
       <c r="B100">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="C100">
-        <v>0.6240713</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43080</v>
+        <v>43007</v>
       </c>
       <c r="B101">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C101">
-        <v>0.6033183</v>
+        <v>0.1066282</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43083</v>
+        <v>43008</v>
       </c>
       <c r="B102">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C102">
-        <v>0.5813952999999999</v>
+        <v>0.1163311</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43088</v>
+        <v>43008</v>
       </c>
       <c r="B103">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="C103">
-        <v>0.4428571</v>
+        <v>0.08053689999999999</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43088</v>
+        <v>43008</v>
       </c>
       <c r="B104">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="C104">
-        <v>0.2971429</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43090</v>
+        <v>43009</v>
       </c>
       <c r="B105">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C105">
-        <v>0.5082873</v>
+        <v>0.1840278</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43093</v>
+        <v>43010</v>
       </c>
       <c r="B106">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="C106">
-        <v>0.3267717</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43095</v>
+        <v>43010</v>
       </c>
       <c r="B107">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="C107">
-        <v>0.4053651</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43096</v>
+        <v>43012</v>
       </c>
       <c r="B108">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="C108">
-        <v>0.3533026</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43096</v>
+        <v>43013</v>
       </c>
       <c r="B109">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="C109">
-        <v>0.4193548</v>
+        <v>0.1259542</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43098</v>
+        <v>43013</v>
       </c>
       <c r="B110">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C110">
-        <v>0.3410138</v>
+        <v>0.1679389</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43099</v>
+        <v>43013</v>
       </c>
       <c r="B111">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C111">
-        <v>0.2560241</v>
+        <v>0.1122807</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43104</v>
+        <v>43014</v>
       </c>
       <c r="B112">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C112">
-        <v>0.4351266</v>
+        <v>0.1236364</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43104</v>
+        <v>43014</v>
       </c>
       <c r="B113">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C113">
-        <v>0.5784574</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43109</v>
+        <v>43015</v>
       </c>
       <c r="B114">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C114">
-        <v>0.4695122</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43111</v>
+        <v>43015</v>
       </c>
       <c r="B115">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="C115">
-        <v>0.45875</v>
+        <v>0.1941075</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43114</v>
+        <v>43018</v>
       </c>
       <c r="B116">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="C116">
-        <v>0.3317972</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43121</v>
+        <v>43019</v>
       </c>
       <c r="B117">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C117">
-        <v>0.3660856</v>
+        <v>0.1267606</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43126</v>
+        <v>43019</v>
       </c>
       <c r="B118">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="C118">
-        <v>0.5683564</v>
+        <v>0.1901408</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43126</v>
+        <v>43019</v>
       </c>
       <c r="B119">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="C119">
-        <v>0.5483871</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43127</v>
+        <v>43020</v>
       </c>
       <c r="B120">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="C120">
-        <v>0.3636364</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43127</v>
+        <v>43020</v>
       </c>
       <c r="B121">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="C121">
-        <v>0.4020979</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43127</v>
+        <v>43020</v>
       </c>
       <c r="B122">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="C122">
-        <v>0.5355932</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43127</v>
+        <v>43021</v>
       </c>
       <c r="B123">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="C123">
-        <v>0.3723776</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43132</v>
+        <v>43021</v>
       </c>
       <c r="B124">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="C124">
-        <v>0.3333333</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43133</v>
+        <v>43021</v>
       </c>
       <c r="B125">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="C125">
-        <v>0.3642241</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43134</v>
+        <v>43035</v>
       </c>
       <c r="B126">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C126">
-        <v>0.3898574</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43134</v>
+        <v>43036</v>
       </c>
       <c r="B127">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="C127">
-        <v>0.3359746</v>
+        <v>0.1872279</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43134</v>
+        <v>43036</v>
       </c>
       <c r="B128">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="C128">
-        <v>0.5736926</v>
+        <v>0.1393324</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43136</v>
+        <v>43037</v>
       </c>
       <c r="B129">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C129">
-        <v>0.4891008</v>
+        <v>0.1767372</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43137</v>
+        <v>43037</v>
       </c>
       <c r="B130">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C130">
-        <v>0.5582524</v>
+        <v>0.1193353</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43137</v>
+        <v>43038</v>
       </c>
       <c r="B131">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C131">
-        <v>0.5022971000000001</v>
+        <v>0.1458626</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43138</v>
+        <v>43038</v>
       </c>
       <c r="B132">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C132">
-        <v>0.5548282</v>
+        <v>0.1136045</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43138</v>
+        <v>43040</v>
       </c>
       <c r="B133">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="C133">
-        <v>0.5253682</v>
+        <v>0.2715827</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43142</v>
+        <v>43042</v>
       </c>
       <c r="B134">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="C134">
-        <v>0.518851</v>
+        <v>0.3282548</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43166</v>
+        <v>43043</v>
       </c>
       <c r="B135">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="C135">
-        <v>0.6469003</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43175</v>
+        <v>43045</v>
       </c>
       <c r="B136">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="C136">
-        <v>0.403397</v>
+        <v>0.3890411</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43176</v>
+        <v>43046</v>
       </c>
       <c r="B137">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="C137">
-        <v>0.4233871</v>
+        <v>0.343879</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43177</v>
+        <v>43048</v>
       </c>
       <c r="B138">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="C138">
-        <v>0.4324324</v>
+        <v>0.2710997</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43178</v>
+        <v>43050</v>
       </c>
       <c r="B139">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="C139">
-        <v>0.3315927</v>
+        <v>0.3513011</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
+        <v>43050</v>
+      </c>
+      <c r="B140">
+        <v>133</v>
+      </c>
+      <c r="C140">
+        <v>0.3011152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B141">
+        <v>136</v>
+      </c>
+      <c r="C141">
+        <v>0.2363014</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B142">
+        <v>136</v>
+      </c>
+      <c r="C142">
+        <v>0.2340426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B143">
+        <v>145</v>
+      </c>
+      <c r="C143">
+        <v>0.3317647</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B144">
+        <v>146</v>
+      </c>
+      <c r="C144">
+        <v>0.3663194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>43064</v>
+      </c>
+      <c r="B145">
+        <v>147</v>
+      </c>
+      <c r="C145">
+        <v>0.2549669</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B146">
+        <v>149</v>
+      </c>
+      <c r="C146">
+        <v>0.2176235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B147">
+        <v>150</v>
+      </c>
+      <c r="C147">
+        <v>0.223565</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>43072</v>
+      </c>
+      <c r="B148">
+        <v>155</v>
+      </c>
+      <c r="C148">
+        <v>0.5276381999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B149">
+        <v>156</v>
+      </c>
+      <c r="C149">
+        <v>0.5288462</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B150">
+        <v>156</v>
+      </c>
+      <c r="C150">
+        <v>0.4278075</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B151">
+        <v>156</v>
+      </c>
+      <c r="C151">
+        <v>0.315197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B152">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>0.2943662</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>43078</v>
+      </c>
+      <c r="B153">
+        <v>161</v>
+      </c>
+      <c r="C153">
+        <v>0.5905849</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>43079</v>
+      </c>
+      <c r="B154">
+        <v>162</v>
+      </c>
+      <c r="C154">
+        <v>0.5490196000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B155">
+        <v>164</v>
+      </c>
+      <c r="C155">
+        <v>0.4270073</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B156">
+        <v>166</v>
+      </c>
+      <c r="C156">
+        <v>0.5813952999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B157">
+        <v>171</v>
+      </c>
+      <c r="C157">
+        <v>0.4149933</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B158">
+        <v>171</v>
+      </c>
+      <c r="C158">
+        <v>0.2971429</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B159">
+        <v>173</v>
+      </c>
+      <c r="C159">
+        <v>0.5082873</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B160">
+        <v>174</v>
+      </c>
+      <c r="C160">
+        <v>0.5403846</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>43093</v>
+      </c>
+      <c r="B161">
+        <v>176</v>
+      </c>
+      <c r="C161">
+        <v>0.3267717</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B162">
+        <v>178</v>
+      </c>
+      <c r="C162">
+        <v>0.3736264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B163">
+        <v>179</v>
+      </c>
+      <c r="C163">
+        <v>0.3533026</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B164">
+        <v>179</v>
+      </c>
+      <c r="C164">
+        <v>0.3839662</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B165">
+        <v>181</v>
+      </c>
+      <c r="C165">
+        <v>0.3410138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>43099</v>
+      </c>
+      <c r="B166">
+        <v>182</v>
+      </c>
+      <c r="C166">
+        <v>0.2560241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B167">
+        <v>186</v>
+      </c>
+      <c r="C167">
+        <v>0.4689755</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B168">
+        <v>187</v>
+      </c>
+      <c r="C168">
+        <v>0.5576923</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B169">
+        <v>187</v>
+      </c>
+      <c r="C169">
+        <v>0.5102564000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B170">
+        <v>187</v>
+      </c>
+      <c r="C170">
+        <v>0.4344392</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B171">
+        <v>189</v>
+      </c>
+      <c r="C171">
+        <v>0.400974</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B172">
+        <v>189</v>
+      </c>
+      <c r="C172">
+        <v>0.4017857</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B173">
+        <v>189</v>
+      </c>
+      <c r="C173">
+        <v>0.5909091</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B174">
+        <v>192</v>
+      </c>
+      <c r="C174">
+        <v>0.4695122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B175">
+        <v>194</v>
+      </c>
+      <c r="C175">
+        <v>0.4267442</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B176">
+        <v>197</v>
+      </c>
+      <c r="C176">
+        <v>0.3317972</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B177">
+        <v>197</v>
+      </c>
+      <c r="C177">
+        <v>0.6212361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B178">
+        <v>197</v>
+      </c>
+      <c r="C178">
+        <v>0.451664</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B179">
+        <v>198</v>
+      </c>
+      <c r="C179">
+        <v>0.6269231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B180">
+        <v>198</v>
+      </c>
+      <c r="C180">
+        <v>0.4154676</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B181">
+        <v>199</v>
+      </c>
+      <c r="C181">
+        <v>0.5191041</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B182">
+        <v>199</v>
+      </c>
+      <c r="C182">
+        <v>0.5072464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B183">
+        <v>201</v>
+      </c>
+      <c r="C183">
+        <v>0.6185853</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B184">
+        <v>203</v>
+      </c>
+      <c r="C184">
+        <v>0.3833635</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B185">
+        <v>203</v>
+      </c>
+      <c r="C185">
+        <v>0.5660036000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>43120</v>
+      </c>
+      <c r="B186">
+        <v>203</v>
+      </c>
+      <c r="C186">
+        <v>0.5944584000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B187">
+        <v>204</v>
+      </c>
+      <c r="C187">
+        <v>0.3660856</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B188">
+        <v>206</v>
+      </c>
+      <c r="C188">
+        <v>0.4397993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B189">
+        <v>207</v>
+      </c>
+      <c r="C189">
+        <v>0.3915663</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B190">
+        <v>209</v>
+      </c>
+      <c r="C190">
+        <v>0.5483871</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B191">
+        <v>209</v>
+      </c>
+      <c r="C191">
+        <v>0.4245723</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B192">
+        <v>210</v>
+      </c>
+      <c r="C192">
+        <v>0.3636364</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B193">
+        <v>210</v>
+      </c>
+      <c r="C193">
+        <v>0.3723776</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B194">
+        <v>210</v>
+      </c>
+      <c r="C194">
+        <v>0.5355932</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B195">
+        <v>211</v>
+      </c>
+      <c r="C195">
+        <v>0.5507246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B196">
+        <v>211</v>
+      </c>
+      <c r="C196">
+        <v>0.4456522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B197">
+        <v>213</v>
+      </c>
+      <c r="C197">
+        <v>0.535316</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B198">
+        <v>213</v>
+      </c>
+      <c r="C198">
+        <v>0.4609665</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B199">
+        <v>214</v>
+      </c>
+      <c r="C199">
+        <v>0.423913</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B200">
+        <v>214</v>
+      </c>
+      <c r="C200">
+        <v>0.3900344</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B201">
+        <v>215</v>
+      </c>
+      <c r="C201">
+        <v>0.3333333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B202">
+        <v>216</v>
+      </c>
+      <c r="C202">
+        <v>0.3642241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B203">
+        <v>216</v>
+      </c>
+      <c r="C203">
+        <v>0.3191176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B204">
+        <v>217</v>
+      </c>
+      <c r="C204">
+        <v>0.5736926</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B205">
+        <v>217</v>
+      </c>
+      <c r="C205">
+        <v>0.3359746</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B206">
+        <v>218</v>
+      </c>
+      <c r="C206">
+        <v>0.2556391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B207">
+        <v>219</v>
+      </c>
+      <c r="C207">
+        <v>0.4263658</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B208">
+        <v>220</v>
+      </c>
+      <c r="C208">
+        <v>0.5022971000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B209">
+        <v>220</v>
+      </c>
+      <c r="C209">
+        <v>0.4227941</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B210">
+        <v>220</v>
+      </c>
+      <c r="C210">
+        <v>0.5514706</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B211">
+        <v>221</v>
+      </c>
+      <c r="C211">
+        <v>0.4769688</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B212">
+        <v>221</v>
+      </c>
+      <c r="C212">
+        <v>0.3982169</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B213">
+        <v>221</v>
+      </c>
+      <c r="C213">
+        <v>0.3469055</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B214">
+        <v>223</v>
+      </c>
+      <c r="C214">
+        <v>0.4984756</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B215">
+        <v>228</v>
+      </c>
+      <c r="C215">
+        <v>0.374031</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B216">
+        <v>228</v>
+      </c>
+      <c r="C216">
+        <v>0.6065891</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B217">
+        <v>229</v>
+      </c>
+      <c r="C217">
+        <v>0.6424051</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B218">
+        <v>230</v>
+      </c>
+      <c r="C218">
+        <v>0.3713235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B219">
+        <v>230</v>
+      </c>
+      <c r="C219">
+        <v>0.4797794</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B220">
+        <v>231</v>
+      </c>
+      <c r="C220">
+        <v>0.4540902</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B221">
+        <v>232</v>
+      </c>
+      <c r="C221">
+        <v>0.4791667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B222">
+        <v>232</v>
+      </c>
+      <c r="C222">
+        <v>0.3625</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B223">
+        <v>233</v>
+      </c>
+      <c r="C223">
+        <v>0.4237288</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B224">
+        <v>234</v>
+      </c>
+      <c r="C224">
+        <v>0.585736</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B225">
+        <v>234</v>
+      </c>
+      <c r="C225">
+        <v>0.5538695</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B226">
+        <v>235</v>
+      </c>
+      <c r="C226">
+        <v>0.4393305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B227">
+        <v>238</v>
+      </c>
+      <c r="C227">
+        <v>0.3855799</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B228">
+        <v>238</v>
+      </c>
+      <c r="C228">
+        <v>0.6169772</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B229">
+        <v>238</v>
+      </c>
+      <c r="C229">
+        <v>0.3726708</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B230">
+        <v>241</v>
+      </c>
+      <c r="C230">
+        <v>0.4030303</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B231">
+        <v>242</v>
+      </c>
+      <c r="C231">
+        <v>0.4646782</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B232">
+        <v>242</v>
+      </c>
+      <c r="C232">
+        <v>0.43898</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B233">
+        <v>244</v>
+      </c>
+      <c r="C233">
+        <v>0.6275229</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B234">
+        <v>246</v>
+      </c>
+      <c r="C234">
+        <v>0.3631285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B235">
+        <v>247</v>
+      </c>
+      <c r="C235">
+        <v>0.5961071</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B236">
+        <v>247</v>
+      </c>
+      <c r="C236">
+        <v>0.3944954</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B237">
+        <v>249</v>
+      </c>
+      <c r="C237">
+        <v>0.6469003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B238">
+        <v>251</v>
+      </c>
+      <c r="C238">
+        <v>0.5582734</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B239">
+        <v>254</v>
+      </c>
+      <c r="C239">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B240">
+        <v>255</v>
+      </c>
+      <c r="C240">
+        <v>0.4123711</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B241">
+        <v>255</v>
+      </c>
+      <c r="C241">
+        <v>0.5270506</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B242">
+        <v>255</v>
+      </c>
+      <c r="C242">
+        <v>0.2525773</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B243">
+        <v>255</v>
+      </c>
+      <c r="C243">
+        <v>0.5953608</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B244">
+        <v>256</v>
+      </c>
+      <c r="C244">
+        <v>0.5809935000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B245">
+        <v>258</v>
+      </c>
+      <c r="C245">
+        <v>0.403397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B246">
+        <v>259</v>
+      </c>
+      <c r="C246">
+        <v>0.592668</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B247">
+        <v>259</v>
+      </c>
+      <c r="C247">
+        <v>0.5494505</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B248">
+        <v>259</v>
+      </c>
+      <c r="C248">
+        <v>0.4233871</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B249">
+        <v>260</v>
+      </c>
+      <c r="C249">
+        <v>0.4324324</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B250">
+        <v>260</v>
+      </c>
+      <c r="C250">
+        <v>0.5670103</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B251">
+        <v>261</v>
+      </c>
+      <c r="C251">
+        <v>0.3315927</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B252">
+        <v>262</v>
+      </c>
+      <c r="C252">
+        <v>0.3502415</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B253">
+        <v>263</v>
+      </c>
+      <c r="C253">
+        <v>0.4752137</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B254">
+        <v>265</v>
+      </c>
+      <c r="C254">
+        <v>0.5160681</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B255">
+        <v>266</v>
+      </c>
+      <c r="C255">
+        <v>0.4403292</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B256">
+        <v>266</v>
+      </c>
+      <c r="C256">
+        <v>0.2880658</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B257">
+        <v>268</v>
+      </c>
+      <c r="C257">
+        <v>0.372591</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
         <v>43189</v>
       </c>
-      <c r="B140">
+      <c r="B258">
         <v>272</v>
       </c>
-      <c r="C140">
+      <c r="C258">
+        <v>0.3628692</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B259">
+        <v>272</v>
+      </c>
+      <c r="C259">
         <v>0.4217252</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B260">
+        <v>275</v>
+      </c>
+      <c r="C260">
+        <v>0.4662757</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B261">
+        <v>275</v>
+      </c>
+      <c r="C261">
+        <v>0.3431085</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B262">
+        <v>276</v>
+      </c>
+      <c r="C262">
+        <v>0.3198198</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B263">
+        <v>280</v>
+      </c>
+      <c r="C263">
+        <v>0.4118896</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B264">
+        <v>284</v>
+      </c>
+      <c r="C264">
+        <v>0.2928571</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B265">
+        <v>284</v>
+      </c>
+      <c r="C265">
+        <v>0.2924791</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B266">
+        <v>285</v>
+      </c>
+      <c r="C266">
+        <v>0.3298969</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B267">
+        <v>287</v>
+      </c>
+      <c r="C267">
+        <v>0.5169811</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B268">
+        <v>288</v>
+      </c>
+      <c r="C268">
+        <v>0.2696897</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B269">
+        <v>289</v>
+      </c>
+      <c r="C269">
+        <v>0.5033408</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B270">
+        <v>289</v>
+      </c>
+      <c r="C270">
+        <v>0.4387528</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B271">
+        <v>290</v>
+      </c>
+      <c r="C271">
+        <v>0.3364486</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B272">
+        <v>298</v>
+      </c>
+      <c r="C272">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B273">
+        <v>298</v>
+      </c>
+      <c r="C273">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B274">
+        <v>299</v>
+      </c>
+      <c r="C274">
+        <v>0.3418079</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B275">
+        <v>305</v>
+      </c>
+      <c r="C275">
+        <v>0.2412587</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B276">
+        <v>307</v>
+      </c>
+      <c r="C276">
+        <v>0.2011494</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B277">
+        <v>308</v>
+      </c>
+      <c r="C277">
+        <v>0.1826625</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B278">
+        <v>309</v>
+      </c>
+      <c r="C278">
+        <v>0.1657609</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B279">
+        <v>311</v>
+      </c>
+      <c r="C279">
+        <v>0.2068966</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>43232</v>
+      </c>
+      <c r="B280">
+        <v>315</v>
+      </c>
+      <c r="C280">
+        <v>0.2135417</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B281">
+        <v>316</v>
+      </c>
+      <c r="C281">
+        <v>0.2086168</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B282">
+        <v>317</v>
+      </c>
+      <c r="C282">
+        <v>0.1458333</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B283">
+        <v>321</v>
+      </c>
+      <c r="C283">
+        <v>0.2558824</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>43239</v>
+      </c>
+      <c r="B284">
+        <v>322</v>
+      </c>
+      <c r="C284">
+        <v>0.2258065</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B285">
+        <v>326</v>
+      </c>
+      <c r="C285">
+        <v>0.2008547</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B286">
+        <v>327</v>
+      </c>
+      <c r="C286">
+        <v>0.2469636</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>43247</v>
+      </c>
+      <c r="B287">
+        <v>330</v>
+      </c>
+      <c r="C287">
+        <v>0.1504065</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B288">
+        <v>331</v>
+      </c>
+      <c r="C288">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>43261</v>
+      </c>
+      <c r="B289">
+        <v>344</v>
+      </c>
+      <c r="C289">
+        <v>0.0943396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B290">
+        <v>348</v>
+      </c>
+      <c r="C290">
+        <v>0.1046512</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data/data/kcp_vs_days.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.1050955</v>
+        <v>0.111465</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.111465</v>
+        <v>0.1050955</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.1209302</v>
+        <v>0.1273585</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.1273585</v>
+        <v>0.1209302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -532,7 +532,7 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.1029186</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -543,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.1046512</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -620,7 +620,7 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.1127451</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -631,7 +631,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0.1107784</v>
+        <v>0.0988024</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.0988024</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.1221374</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0763359</v>
+        <v>0.0839695</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.0839695</v>
+        <v>0.1221374</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -730,7 +730,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>0.08522730000000001</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -741,7 +741,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.1420455</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.1472868</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -796,40 +796,40 @@
         <v>34</v>
       </c>
       <c r="C37">
-        <v>0.124031</v>
+        <v>0.1472868</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42953</v>
+        <v>42952</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>0.127551</v>
+        <v>0.1088083</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42954</v>
+        <v>42952</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>0.1157025</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42954</v>
+        <v>42953</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>0.1487603</v>
+        <v>0.127551</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -845,189 +845,189 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42955</v>
+        <v>42954</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>0.1172161</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42955</v>
+        <v>42954</v>
       </c>
       <c r="B43">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>0.09157510000000001</v>
+        <v>0.1157025</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42957</v>
+        <v>42955</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44">
-        <v>0.1348315</v>
+        <v>0.09157510000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42958</v>
+        <v>42955</v>
       </c>
       <c r="B45">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45">
-        <v>0.1542289</v>
+        <v>0.1172161</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42959</v>
+        <v>42957</v>
       </c>
       <c r="B46">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>0.102439</v>
+        <v>0.1348315</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42961</v>
+        <v>42958</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>0.1259259</v>
+        <v>0.1542289</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42966</v>
+        <v>42959</v>
       </c>
       <c r="B48">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>0.1318052</v>
+        <v>0.102439</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42966</v>
+        <v>42961</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>0.145749</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42968</v>
+        <v>42966</v>
       </c>
       <c r="B50">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>0.1502347</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42970</v>
+        <v>42966</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>0.1280488</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42970</v>
+        <v>42968</v>
       </c>
       <c r="B52">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>0.1158537</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42971</v>
+        <v>42970</v>
       </c>
       <c r="B53">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53">
-        <v>0.1022727</v>
+        <v>0.1280488</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42971</v>
+        <v>42970</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>0.095679</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42974</v>
+        <v>42971</v>
       </c>
       <c r="B55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>0.1198157</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42975</v>
+        <v>42971</v>
       </c>
       <c r="B56">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>0.1486811</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42979</v>
+        <v>42974</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>0.1192308</v>
+        <v>0.1198157</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42979</v>
+        <v>42975</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <v>0.1232493</v>
+        <v>0.1486811</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1038,73 +1038,73 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.1176471</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42980</v>
+        <v>42979</v>
       </c>
       <c r="B60">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60">
-        <v>0.0943396</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42980</v>
+        <v>42979</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>0.0825472</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42981</v>
+        <v>42980</v>
       </c>
       <c r="B62">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>0.07142859999999999</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42986</v>
+        <v>42980</v>
       </c>
       <c r="B63">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>0.07853400000000001</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>42987</v>
+        <v>42981</v>
       </c>
       <c r="B64">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>0.1138015</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>42987</v>
+        <v>42986</v>
       </c>
       <c r="B65">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>0.1138015</v>
+        <v>0.07853400000000001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1115,95 +1115,95 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>0.1233596</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>42988</v>
+        <v>42987</v>
       </c>
       <c r="B67">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67">
-        <v>0.1021021</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>42989</v>
+        <v>42987</v>
       </c>
       <c r="B68">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>0.0826446</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>42989</v>
+        <v>42988</v>
       </c>
       <c r="B69">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>0.0751445</v>
+        <v>0.1021021</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>42990</v>
+        <v>42989</v>
       </c>
       <c r="B70">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>0.1170213</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>42992</v>
+        <v>42989</v>
       </c>
       <c r="B71">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71">
-        <v>0.09230770000000001</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>42992</v>
+        <v>42990</v>
       </c>
       <c r="B72">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>0.125</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>42993</v>
+        <v>42992</v>
       </c>
       <c r="B73">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
-        <v>0.0786517</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>42993</v>
+        <v>42992</v>
       </c>
       <c r="B74">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74">
-        <v>0.0898876</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,29 +1214,29 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>0.1155378</v>
+        <v>0.0898876</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>42994</v>
+        <v>42993</v>
       </c>
       <c r="B76">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76">
-        <v>0.0932945</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>42994</v>
+        <v>42993</v>
       </c>
       <c r="B77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>0.1119792</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1252,24 +1252,24 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>42995</v>
+        <v>42994</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>0.09843399999999999</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>42995</v>
+        <v>42994</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
-        <v>0.114094</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1285,90 +1285,90 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>42996</v>
+        <v>42995</v>
       </c>
       <c r="B82">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82">
-        <v>0.1305263</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>42997</v>
+        <v>42995</v>
       </c>
       <c r="B83">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83">
-        <v>0.08398949999999999</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>42998</v>
+        <v>42996</v>
       </c>
       <c r="B84">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84">
-        <v>0.1011673</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>42998</v>
+        <v>42997</v>
       </c>
       <c r="B85">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85">
-        <v>0.0828829</v>
+        <v>0.08398949999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43000</v>
+        <v>42998</v>
       </c>
       <c r="B86">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86">
-        <v>0.094697</v>
+        <v>0.0828829</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43000</v>
+        <v>42998</v>
       </c>
       <c r="B87">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87">
-        <v>0.125</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43001</v>
+        <v>43000</v>
       </c>
       <c r="B88">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88">
-        <v>0.0705128</v>
+        <v>0.094697</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43001</v>
+        <v>43000</v>
       </c>
       <c r="B89">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89">
-        <v>0.08883249999999999</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1379,29 +1379,29 @@
         <v>84</v>
       </c>
       <c r="C90">
-        <v>0.08119659999999999</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B91">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91">
-        <v>0.0841837</v>
+        <v>0.08119659999999999</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B92">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92">
-        <v>0.1041667</v>
+        <v>0.08883249999999999</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1417,46 +1417,46 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43004</v>
+        <v>43002</v>
       </c>
       <c r="B94">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>0.09905659999999999</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43004</v>
+        <v>43002</v>
       </c>
       <c r="B95">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>0.0943396</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43006</v>
+        <v>43004</v>
       </c>
       <c r="B96">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96">
-        <v>0.0888383</v>
+        <v>0.09905659999999999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43006</v>
+        <v>43004</v>
       </c>
       <c r="B97">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>0.07383969999999999</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1467,29 +1467,29 @@
         <v>89</v>
       </c>
       <c r="C98">
-        <v>0.07805910000000001</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43007</v>
+        <v>43006</v>
       </c>
       <c r="B99">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99">
-        <v>0.08461539999999999</v>
+        <v>0.07805910000000001</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43007</v>
+        <v>43006</v>
       </c>
       <c r="B100">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100">
-        <v>0.0835735</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1505,24 +1505,24 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43008</v>
+        <v>43007</v>
       </c>
       <c r="B102">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102">
-        <v>0.1163311</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43008</v>
+        <v>43007</v>
       </c>
       <c r="B103">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103">
-        <v>0.08053689999999999</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1533,73 +1533,73 @@
         <v>91</v>
       </c>
       <c r="C104">
-        <v>0.09090910000000001</v>
+        <v>0.08053689999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43009</v>
+        <v>43008</v>
       </c>
       <c r="B105">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105">
-        <v>0.1840278</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43010</v>
+        <v>43008</v>
       </c>
       <c r="B106">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C106">
-        <v>0.1332149</v>
+        <v>0.1163311</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43010</v>
+        <v>43009</v>
       </c>
       <c r="B107">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107">
-        <v>0.1278863</v>
+        <v>0.1840278</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43012</v>
+        <v>43010</v>
       </c>
       <c r="B108">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C108">
-        <v>0.1945525</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43013</v>
+        <v>43010</v>
       </c>
       <c r="B109">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C109">
-        <v>0.1259542</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43013</v>
+        <v>43012</v>
       </c>
       <c r="B110">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C110">
-        <v>0.1679389</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1610,84 +1610,84 @@
         <v>96</v>
       </c>
       <c r="C111">
-        <v>0.1122807</v>
+        <v>0.1259542</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43014</v>
+        <v>43013</v>
       </c>
       <c r="B112">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112">
-        <v>0.1236364</v>
+        <v>0.1122807</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43014</v>
+        <v>43013</v>
       </c>
       <c r="B113">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C113">
-        <v>0.1254545</v>
+        <v>0.1679389</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43015</v>
+        <v>43014</v>
       </c>
       <c r="B114">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C114">
-        <v>0.1403813</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43015</v>
+        <v>43014</v>
       </c>
       <c r="B115">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115">
-        <v>0.1941075</v>
+        <v>0.1236364</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43018</v>
+        <v>43015</v>
       </c>
       <c r="B116">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C116">
-        <v>0.1855422</v>
+        <v>0.1941075</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43019</v>
+        <v>43015</v>
       </c>
       <c r="B117">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C117">
-        <v>0.1267606</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43019</v>
+        <v>43018</v>
       </c>
       <c r="B118">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C118">
-        <v>0.1901408</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1698,29 +1698,29 @@
         <v>102</v>
       </c>
       <c r="C119">
-        <v>0.1828442</v>
+        <v>0.1267606</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43020</v>
+        <v>43019</v>
       </c>
       <c r="B120">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120">
-        <v>0.1438053</v>
+        <v>0.1901408</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43020</v>
+        <v>43019</v>
       </c>
       <c r="B121">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C121">
-        <v>0.1840909</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1731,29 +1731,29 @@
         <v>103</v>
       </c>
       <c r="C122">
-        <v>0.1637168</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43021</v>
+        <v>43020</v>
       </c>
       <c r="B123">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C123">
-        <v>0.1943888</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43021</v>
+        <v>43020</v>
       </c>
       <c r="B124">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124">
-        <v>0.1268382</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1764,282 +1764,282 @@
         <v>104</v>
       </c>
       <c r="C125">
-        <v>0.1709559</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43035</v>
+        <v>43021</v>
       </c>
       <c r="B126">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C126">
-        <v>0.1889764</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43036</v>
+        <v>43021</v>
       </c>
       <c r="B127">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C127">
-        <v>0.1872279</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43036</v>
+        <v>43035</v>
       </c>
       <c r="B128">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128">
-        <v>0.1393324</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="B129">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129">
-        <v>0.1767372</v>
+        <v>0.1872279</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43037</v>
+        <v>43036</v>
       </c>
       <c r="B130">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130">
-        <v>0.1193353</v>
+        <v>0.1393324</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="B131">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131">
-        <v>0.1458626</v>
+        <v>0.1193353</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="B132">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C132">
-        <v>0.1136045</v>
+        <v>0.1767372</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43040</v>
+        <v>43038</v>
       </c>
       <c r="B133">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C133">
-        <v>0.2715827</v>
+        <v>0.1458626</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43042</v>
+        <v>43038</v>
       </c>
       <c r="B134">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C134">
-        <v>0.3282548</v>
+        <v>0.1136045</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43043</v>
+        <v>43040</v>
       </c>
       <c r="B135">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C135">
-        <v>0.3365617</v>
+        <v>0.2715827</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43045</v>
+        <v>43042</v>
       </c>
       <c r="B136">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C136">
-        <v>0.3890411</v>
+        <v>0.3282548</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43046</v>
+        <v>43043</v>
       </c>
       <c r="B137">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C137">
-        <v>0.343879</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43048</v>
+        <v>43045</v>
       </c>
       <c r="B138">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C138">
-        <v>0.2710997</v>
+        <v>0.3890411</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43050</v>
+        <v>43046</v>
       </c>
       <c r="B139">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C139">
-        <v>0.3513011</v>
+        <v>0.343879</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43050</v>
+        <v>43048</v>
       </c>
       <c r="B140">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C140">
-        <v>0.3011152</v>
+        <v>0.2710997</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43053</v>
+        <v>43050</v>
       </c>
       <c r="B141">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C141">
-        <v>0.2363014</v>
+        <v>0.3513011</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43053</v>
+        <v>43050</v>
       </c>
       <c r="B142">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C142">
-        <v>0.2340426</v>
+        <v>0.3011152</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43062</v>
+        <v>43053</v>
       </c>
       <c r="B143">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C143">
-        <v>0.3317647</v>
+        <v>0.2340426</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43063</v>
+        <v>43053</v>
       </c>
       <c r="B144">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C144">
-        <v>0.3663194</v>
+        <v>0.2363014</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43064</v>
+        <v>43062</v>
       </c>
       <c r="B145">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C145">
-        <v>0.2549669</v>
+        <v>0.3317647</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43066</v>
+        <v>43063</v>
       </c>
       <c r="B146">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C146">
-        <v>0.2176235</v>
+        <v>0.3663194</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43067</v>
+        <v>43064</v>
       </c>
       <c r="B147">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C147">
-        <v>0.223565</v>
+        <v>0.2549669</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43072</v>
+        <v>43066</v>
       </c>
       <c r="B148">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C148">
-        <v>0.5276381999999999</v>
+        <v>0.2176235</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43073</v>
+        <v>43067</v>
       </c>
       <c r="B149">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C149">
-        <v>0.5288462</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43073</v>
+        <v>43072</v>
       </c>
       <c r="B150">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150">
-        <v>0.4278075</v>
+        <v>0.5276381999999999</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2050,205 +2050,205 @@
         <v>156</v>
       </c>
       <c r="C151">
-        <v>0.315197</v>
+        <v>0.5288462</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43074</v>
+        <v>43073</v>
       </c>
       <c r="B152">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C152">
-        <v>0.2943662</v>
+        <v>0.315197</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43078</v>
+        <v>43073</v>
       </c>
       <c r="B153">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C153">
-        <v>0.5905849</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43079</v>
+        <v>43074</v>
       </c>
       <c r="B154">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C154">
-        <v>0.5490196000000001</v>
+        <v>0.2943662</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43081</v>
+        <v>43078</v>
       </c>
       <c r="B155">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C155">
-        <v>0.4270073</v>
+        <v>0.5905849</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43083</v>
+        <v>43079</v>
       </c>
       <c r="B156">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C156">
-        <v>0.5813952999999999</v>
+        <v>0.5490196000000001</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43088</v>
+        <v>43081</v>
       </c>
       <c r="B157">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C157">
-        <v>0.4149933</v>
+        <v>0.4270073</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43088</v>
+        <v>43083</v>
       </c>
       <c r="B158">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C158">
-        <v>0.2971429</v>
+        <v>0.5813952999999999</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43090</v>
+        <v>43088</v>
       </c>
       <c r="B159">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C159">
-        <v>0.5082873</v>
+        <v>0.4149933</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43091</v>
+        <v>43088</v>
       </c>
       <c r="B160">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C160">
-        <v>0.5403846</v>
+        <v>0.2971429</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43093</v>
+        <v>43090</v>
       </c>
       <c r="B161">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C161">
-        <v>0.3267717</v>
+        <v>0.5082873</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43095</v>
+        <v>43091</v>
       </c>
       <c r="B162">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C162">
-        <v>0.3736264</v>
+        <v>0.5403846</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43096</v>
+        <v>43093</v>
       </c>
       <c r="B163">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C163">
-        <v>0.3533026</v>
+        <v>0.3267717</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43096</v>
+        <v>43095</v>
       </c>
       <c r="B164">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C164">
-        <v>0.3839662</v>
+        <v>0.3736264</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43098</v>
+        <v>43096</v>
       </c>
       <c r="B165">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C165">
-        <v>0.3410138</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43099</v>
+        <v>43096</v>
       </c>
       <c r="B166">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C166">
-        <v>0.2560241</v>
+        <v>0.3839662</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43103</v>
+        <v>43098</v>
       </c>
       <c r="B167">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C167">
-        <v>0.4689755</v>
+        <v>0.3410138</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43104</v>
+        <v>43099</v>
       </c>
       <c r="B168">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C168">
-        <v>0.5576923</v>
+        <v>0.2560241</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43104</v>
+        <v>43103</v>
       </c>
       <c r="B169">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C169">
-        <v>0.5102564000000001</v>
+        <v>0.4689755</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2259,29 +2259,29 @@
         <v>187</v>
       </c>
       <c r="C170">
-        <v>0.4344392</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43106</v>
+        <v>43104</v>
       </c>
       <c r="B171">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C171">
-        <v>0.400974</v>
+        <v>0.5102564000000001</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43106</v>
+        <v>43104</v>
       </c>
       <c r="B172">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C172">
-        <v>0.4017857</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2292,51 +2292,51 @@
         <v>189</v>
       </c>
       <c r="C173">
-        <v>0.5909091</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43109</v>
+        <v>43106</v>
       </c>
       <c r="B174">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C174">
-        <v>0.4695122</v>
+        <v>0.400974</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43111</v>
+        <v>43106</v>
       </c>
       <c r="B175">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C175">
-        <v>0.4267442</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43114</v>
+        <v>43109</v>
       </c>
       <c r="B176">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C176">
-        <v>0.3317972</v>
+        <v>0.4695122</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43114</v>
+        <v>43111</v>
       </c>
       <c r="B177">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C177">
-        <v>0.6212361</v>
+        <v>0.4267442</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2352,79 +2352,79 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43115</v>
+        <v>43114</v>
       </c>
       <c r="B179">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C179">
-        <v>0.6269231</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43115</v>
+        <v>43114</v>
       </c>
       <c r="B180">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C180">
-        <v>0.4154676</v>
+        <v>0.6212361</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43116</v>
+        <v>43115</v>
       </c>
       <c r="B181">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181">
-        <v>0.5191041</v>
+        <v>0.4154676</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43116</v>
+        <v>43115</v>
       </c>
       <c r="B182">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C182">
-        <v>0.5072464</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43118</v>
+        <v>43116</v>
       </c>
       <c r="B183">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C183">
-        <v>0.6185853</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43120</v>
+        <v>43116</v>
       </c>
       <c r="B184">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C184">
-        <v>0.3833635</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43120</v>
+        <v>43118</v>
       </c>
       <c r="B185">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C185">
-        <v>0.5660036000000001</v>
+        <v>0.6185853</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2435,84 +2435,84 @@
         <v>203</v>
       </c>
       <c r="C186">
-        <v>0.5944584000000001</v>
+        <v>0.3833635</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43121</v>
+        <v>43120</v>
       </c>
       <c r="B187">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C187">
-        <v>0.3660856</v>
+        <v>0.5944584000000001</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43123</v>
+        <v>43120</v>
       </c>
       <c r="B188">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C188">
-        <v>0.4397993</v>
+        <v>0.5660036000000001</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>43124</v>
+        <v>43121</v>
       </c>
       <c r="B189">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C189">
-        <v>0.3915663</v>
+        <v>0.3660856</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>43126</v>
+        <v>43123</v>
       </c>
       <c r="B190">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C190">
-        <v>0.5483871</v>
+        <v>0.4397993</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>43126</v>
+        <v>43124</v>
       </c>
       <c r="B191">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C191">
-        <v>0.4245723</v>
+        <v>0.3915663</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="B192">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C192">
-        <v>0.3636364</v>
+        <v>0.5483871</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="B193">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C193">
-        <v>0.3723776</v>
+        <v>0.4245723</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2523,172 +2523,172 @@
         <v>210</v>
       </c>
       <c r="C194">
-        <v>0.5355932</v>
+        <v>0.3723776</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="B195">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C195">
-        <v>0.5507246</v>
+        <v>0.5355932</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="B196">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C196">
-        <v>0.4456522</v>
+        <v>0.3636364</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>43130</v>
+        <v>43128</v>
       </c>
       <c r="B197">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C197">
-        <v>0.535316</v>
+        <v>0.5507246</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>43130</v>
+        <v>43128</v>
       </c>
       <c r="B198">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C198">
-        <v>0.4609665</v>
+        <v>0.4456522</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="B199">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C199">
-        <v>0.423913</v>
+        <v>0.535316</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>43131</v>
+        <v>43130</v>
       </c>
       <c r="B200">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200">
-        <v>0.3900344</v>
+        <v>0.4609665</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>43132</v>
+        <v>43131</v>
       </c>
       <c r="B201">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C201">
-        <v>0.3333333</v>
+        <v>0.3900344</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>43133</v>
+        <v>43131</v>
       </c>
       <c r="B202">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C202">
-        <v>0.3642241</v>
+        <v>0.423913</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>43133</v>
+        <v>43132</v>
       </c>
       <c r="B203">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C203">
-        <v>0.3191176</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>43134</v>
+        <v>43133</v>
       </c>
       <c r="B204">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C204">
-        <v>0.5736926</v>
+        <v>0.3642241</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>43134</v>
+        <v>43133</v>
       </c>
       <c r="B205">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C205">
-        <v>0.3359746</v>
+        <v>0.3191176</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>43135</v>
+        <v>43134</v>
       </c>
       <c r="B206">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C206">
-        <v>0.2556391</v>
+        <v>0.5736926</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>43136</v>
+        <v>43134</v>
       </c>
       <c r="B207">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C207">
-        <v>0.4263658</v>
+        <v>0.3359746</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>43137</v>
+        <v>43135</v>
       </c>
       <c r="B208">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C208">
-        <v>0.5022971000000001</v>
+        <v>0.2556391</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="B209">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C209">
-        <v>0.4227941</v>
+        <v>0.4263658</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2704,24 +2704,24 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>43138</v>
+        <v>43137</v>
       </c>
       <c r="B211">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C211">
-        <v>0.4769688</v>
+        <v>0.5022971000000001</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>43138</v>
+        <v>43137</v>
       </c>
       <c r="B212">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C212">
-        <v>0.3982169</v>
+        <v>0.4227941</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2732,172 +2732,172 @@
         <v>221</v>
       </c>
       <c r="C213">
-        <v>0.3469055</v>
+        <v>0.3982169</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>43140</v>
+        <v>43138</v>
       </c>
       <c r="B214">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C214">
-        <v>0.4984756</v>
+        <v>0.4769688</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>43145</v>
+        <v>43138</v>
       </c>
       <c r="B215">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C215">
-        <v>0.374031</v>
+        <v>0.3469055</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>43145</v>
+        <v>43140</v>
       </c>
       <c r="B216">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C216">
-        <v>0.6065891</v>
+        <v>0.4984756</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>43146</v>
+        <v>43145</v>
       </c>
       <c r="B217">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C217">
-        <v>0.6424051</v>
+        <v>0.6065891</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>43147</v>
+        <v>43145</v>
       </c>
       <c r="B218">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C218">
-        <v>0.3713235</v>
+        <v>0.374031</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="B219">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C219">
-        <v>0.4797794</v>
+        <v>0.6424051</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>43148</v>
+        <v>43147</v>
       </c>
       <c r="B220">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C220">
-        <v>0.4540902</v>
+        <v>0.4797794</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>43149</v>
+        <v>43147</v>
       </c>
       <c r="B221">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C221">
-        <v>0.4791667</v>
+        <v>0.3713235</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>43149</v>
+        <v>43148</v>
       </c>
       <c r="B222">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C222">
-        <v>0.3625</v>
+        <v>0.4540902</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>43150</v>
+        <v>43149</v>
       </c>
       <c r="B223">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C223">
-        <v>0.4237288</v>
+        <v>0.4791667</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>43151</v>
+        <v>43149</v>
       </c>
       <c r="B224">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C224">
-        <v>0.585736</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>43151</v>
+        <v>43150</v>
       </c>
       <c r="B225">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C225">
-        <v>0.5538695</v>
+        <v>0.4237288</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>43152</v>
+        <v>43151</v>
       </c>
       <c r="B226">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C226">
-        <v>0.4393305</v>
+        <v>0.5538695</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>43155</v>
+        <v>43151</v>
       </c>
       <c r="B227">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C227">
-        <v>0.3855799</v>
+        <v>0.585736</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>43155</v>
+        <v>43152</v>
       </c>
       <c r="B228">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C228">
-        <v>0.6169772</v>
+        <v>0.4393305</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2908,139 +2908,139 @@
         <v>238</v>
       </c>
       <c r="C229">
-        <v>0.3726708</v>
+        <v>0.6169772</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>43158</v>
+        <v>43155</v>
       </c>
       <c r="B230">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C230">
-        <v>0.4030303</v>
+        <v>0.3726708</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>43159</v>
+        <v>43155</v>
       </c>
       <c r="B231">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C231">
-        <v>0.4646782</v>
+        <v>0.3855799</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>43159</v>
+        <v>43158</v>
       </c>
       <c r="B232">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C232">
-        <v>0.43898</v>
+        <v>0.4030303</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>43161</v>
+        <v>43159</v>
       </c>
       <c r="B233">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C233">
-        <v>0.6275229</v>
+        <v>0.4646782</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>43163</v>
+        <v>43159</v>
       </c>
       <c r="B234">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C234">
-        <v>0.3631285</v>
+        <v>0.43898</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>43164</v>
+        <v>43161</v>
       </c>
       <c r="B235">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C235">
-        <v>0.5961071</v>
+        <v>0.6275229</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>43164</v>
+        <v>43163</v>
       </c>
       <c r="B236">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C236">
-        <v>0.3944954</v>
+        <v>0.3631285</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>43166</v>
+        <v>43164</v>
       </c>
       <c r="B237">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C237">
-        <v>0.6469003</v>
+        <v>0.5961071</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>43168</v>
+        <v>43164</v>
       </c>
       <c r="B238">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C238">
-        <v>0.5582734</v>
+        <v>0.3944954</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>43171</v>
+        <v>43166</v>
       </c>
       <c r="B239">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C239">
-        <v>0.5</v>
+        <v>0.6469003</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>43172</v>
+        <v>43168</v>
       </c>
       <c r="B240">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C240">
-        <v>0.4123711</v>
+        <v>0.5582734</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>43172</v>
+        <v>43171</v>
       </c>
       <c r="B241">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C241">
-        <v>0.5270506</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>255</v>
       </c>
       <c r="C242">
-        <v>0.2525773</v>
+        <v>0.5953608</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3062,51 +3062,51 @@
         <v>255</v>
       </c>
       <c r="C243">
-        <v>0.5953608</v>
+        <v>0.5270506</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="B244">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C244">
-        <v>0.5809935000000001</v>
+        <v>0.2525773</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>43175</v>
+        <v>43172</v>
       </c>
       <c r="B245">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C245">
-        <v>0.403397</v>
+        <v>0.4123711</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>43176</v>
+        <v>43173</v>
       </c>
       <c r="B246">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C246">
-        <v>0.592668</v>
+        <v>0.5809935000000001</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>43176</v>
+        <v>43175</v>
       </c>
       <c r="B247">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C247">
-        <v>0.5494505</v>
+        <v>0.403397</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3117,468 +3117,490 @@
         <v>259</v>
       </c>
       <c r="C248">
-        <v>0.4233871</v>
+        <v>0.592668</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>43177</v>
+        <v>43176</v>
       </c>
       <c r="B249">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C249">
-        <v>0.4324324</v>
+        <v>0.4233871</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>43177</v>
+        <v>43176</v>
       </c>
       <c r="B250">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C250">
-        <v>0.5670103</v>
+        <v>0.5494505</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>43178</v>
+        <v>43177</v>
       </c>
       <c r="B251">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C251">
-        <v>0.3315927</v>
+        <v>0.5670103</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2">
-        <v>43179</v>
+        <v>43177</v>
       </c>
       <c r="B252">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C252">
-        <v>0.3502415</v>
+        <v>0.4324324</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>43180</v>
+        <v>43178</v>
       </c>
       <c r="B253">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C253">
-        <v>0.4752137</v>
+        <v>0.3315927</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>43182</v>
+        <v>43179</v>
       </c>
       <c r="B254">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C254">
-        <v>0.5160681</v>
+        <v>0.3502415</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>43183</v>
+        <v>43180</v>
       </c>
       <c r="B255">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C255">
-        <v>0.4403292</v>
+        <v>0.4752137</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>43183</v>
+        <v>43182</v>
       </c>
       <c r="B256">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C256">
-        <v>0.2880658</v>
+        <v>0.5160681</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>43185</v>
+        <v>43183</v>
       </c>
       <c r="B257">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C257">
-        <v>0.372591</v>
+        <v>0.4403292</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>43189</v>
+        <v>43183</v>
       </c>
       <c r="B258">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C258">
-        <v>0.3628692</v>
+        <v>0.2880658</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2">
-        <v>43189</v>
+        <v>43185</v>
       </c>
       <c r="B259">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C259">
-        <v>0.4217252</v>
+        <v>0.372591</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>43192</v>
+        <v>43189</v>
       </c>
       <c r="B260">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C260">
-        <v>0.4662757</v>
+        <v>0.3628692</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>43192</v>
+        <v>43189</v>
       </c>
       <c r="B261">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C261">
-        <v>0.3431085</v>
+        <v>0.4217252</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>43193</v>
+        <v>43192</v>
       </c>
       <c r="B262">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C262">
-        <v>0.3198198</v>
+        <v>0.4662757</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2">
-        <v>43197</v>
+        <v>43192</v>
       </c>
       <c r="B263">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C263">
-        <v>0.4118896</v>
+        <v>0.3431085</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>43201</v>
+        <v>43193</v>
       </c>
       <c r="B264">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C264">
-        <v>0.2928571</v>
+        <v>0.3198198</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>43201</v>
+        <v>43197</v>
       </c>
       <c r="B265">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C265">
-        <v>0.2924791</v>
+        <v>0.4118896</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>43202</v>
+        <v>43201</v>
       </c>
       <c r="B266">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C266">
-        <v>0.3298969</v>
+        <v>0.2928571</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2">
-        <v>43204</v>
+        <v>43201</v>
       </c>
       <c r="B267">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C267">
-        <v>0.5169811</v>
+        <v>0.2924791</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
-        <v>43205</v>
+        <v>43202</v>
       </c>
       <c r="B268">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C268">
-        <v>0.2696897</v>
+        <v>0.3298969</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2">
-        <v>43206</v>
+        <v>43204</v>
       </c>
       <c r="B269">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C269">
-        <v>0.5033408</v>
+        <v>0.5169811</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>43206</v>
+        <v>43205</v>
       </c>
       <c r="B270">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C270">
-        <v>0.4387528</v>
+        <v>0.2696897</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>43207</v>
+        <v>43206</v>
       </c>
       <c r="B271">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C271">
-        <v>0.3364486</v>
+        <v>0.5033408</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>43215</v>
+        <v>43206</v>
       </c>
       <c r="B272">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C272">
-        <v>0.35</v>
+        <v>0.4387528</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2">
-        <v>43215</v>
+        <v>43207</v>
       </c>
       <c r="B273">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C273">
-        <v>0.3725</v>
+        <v>0.3364486</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2">
-        <v>43216</v>
+        <v>43215</v>
       </c>
       <c r="B274">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C274">
-        <v>0.3418079</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2">
-        <v>43222</v>
+        <v>43215</v>
       </c>
       <c r="B275">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C275">
-        <v>0.2412587</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="B276">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C276">
-        <v>0.2011494</v>
+        <v>0.3418079</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2">
-        <v>43225</v>
+        <v>43222</v>
       </c>
       <c r="B277">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C277">
-        <v>0.1826625</v>
+        <v>0.2412587</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2">
-        <v>43226</v>
+        <v>43224</v>
       </c>
       <c r="B278">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C278">
-        <v>0.1657609</v>
+        <v>0.2011494</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2">
-        <v>43228</v>
+        <v>43225</v>
       </c>
       <c r="B279">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C279">
-        <v>0.2068966</v>
+        <v>0.1826625</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2">
-        <v>43232</v>
+        <v>43226</v>
       </c>
       <c r="B280">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C280">
-        <v>0.2135417</v>
+        <v>0.1657609</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2">
-        <v>43233</v>
+        <v>43228</v>
       </c>
       <c r="B281">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C281">
-        <v>0.2086168</v>
+        <v>0.2068966</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2">
-        <v>43234</v>
+        <v>43232</v>
       </c>
       <c r="B282">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C282">
-        <v>0.1458333</v>
+        <v>0.2135417</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2">
-        <v>43238</v>
+        <v>43233</v>
       </c>
       <c r="B283">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C283">
-        <v>0.2558824</v>
+        <v>0.2086168</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2">
-        <v>43239</v>
+        <v>43234</v>
       </c>
       <c r="B284">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C284">
-        <v>0.2258065</v>
+        <v>0.1458333</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2">
-        <v>43243</v>
+        <v>43238</v>
       </c>
       <c r="B285">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C285">
-        <v>0.2008547</v>
+        <v>0.2558824</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2">
-        <v>43244</v>
+        <v>43239</v>
       </c>
       <c r="B286">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C286">
-        <v>0.2469636</v>
+        <v>0.2258065</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>43247</v>
+        <v>43243</v>
       </c>
       <c r="B287">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C287">
-        <v>0.1504065</v>
+        <v>0.2008547</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>43248</v>
+        <v>43244</v>
       </c>
       <c r="B288">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C288">
-        <v>0.25</v>
+        <v>0.2469636</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>43261</v>
+        <v>43247</v>
       </c>
       <c r="B289">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C289">
-        <v>0.0943396</v>
+        <v>0.1504065</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B290">
+        <v>331</v>
+      </c>
+      <c r="C290">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>43261</v>
+      </c>
+      <c r="B291">
+        <v>344</v>
+      </c>
+      <c r="C291">
+        <v>0.0943396</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
         <v>43265</v>
       </c>
-      <c r="B290">
+      <c r="B292">
         <v>348</v>
       </c>
-      <c r="C290">
+      <c r="C292">
         <v>0.1046512</v>
       </c>
     </row>
